--- a/Vocab_grabbed_on_the_way.xlsx
+++ b/Vocab_grabbed_on_the_way.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yxk\Documents\github\gre_resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B13700B-7D92-4256-B31A-13E57443B77F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7562D30E-81CF-4BE2-BE7E-68CA58F3690B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21850" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="553">
   <si>
     <t>word</t>
   </si>
@@ -108,9 +109,6 @@
     <t>adj. 踌躇的，犹豫的；摇晃的，蹒跚的；不太有效的，不太成功的</t>
   </si>
   <si>
-    <t>v. 衰退，衰弱；支吾地说，结巴，（嗓音）颤抖；蹒跚，犹豫，畏缩（falter 的现在分词）</t>
-  </si>
-  <si>
     <t>rhetoric</t>
   </si>
   <si>
@@ -339,9 +337,6 @@
     <t>ramshackle</t>
   </si>
   <si>
-    <t>adj. （建筑物、车辆等）摇摇欲坠的，破烂不堪的；（组织或体制）松散的，东拼西凑的</t>
-  </si>
-  <si>
     <t>sedate</t>
   </si>
   <si>
@@ -451,13 +446,1295 @@
   </si>
   <si>
     <t>adj. 社交的；群居的</t>
+  </si>
+  <si>
+    <t>itinerant</t>
+  </si>
+  <si>
+    <t>adj. 巡回的；流动的</t>
+  </si>
+  <si>
+    <t>n. 巡回者；行商</t>
+  </si>
+  <si>
+    <t>dismissive</t>
+  </si>
+  <si>
+    <t>adj. 轻蔑的，鄙视的，不加考虑的，不屑一顾的</t>
+  </si>
+  <si>
+    <t>sated</t>
+  </si>
+  <si>
+    <t>adj. 充分满足了的；过饱的</t>
+  </si>
+  <si>
+    <t>reticent</t>
+  </si>
+  <si>
+    <t>adj. 沉默的；有保留的；谨慎的</t>
+  </si>
+  <si>
+    <t>bistro</t>
+  </si>
+  <si>
+    <t>n. 小酒馆</t>
+  </si>
+  <si>
+    <t>modest</t>
+  </si>
+  <si>
+    <t>adj. 谦虚的，谦逊的；适度的；端庄的；羞怯的</t>
+  </si>
+  <si>
+    <t>chic</t>
+  </si>
+  <si>
+    <t>adj. 优雅时髦的</t>
+  </si>
+  <si>
+    <t>evanescent</t>
+  </si>
+  <si>
+    <t>adj. 容易消散的；逐渐消失的；会凋零的</t>
+  </si>
+  <si>
+    <t>fleeting</t>
+  </si>
+  <si>
+    <t>adj. 飞逝的；转瞬间的</t>
+  </si>
+  <si>
+    <t>unobstructed</t>
+  </si>
+  <si>
+    <t>adj. 没有障碍的；畅通无阻的</t>
+  </si>
+  <si>
+    <t>ever-shifting</t>
+  </si>
+  <si>
+    <t>adv. 一直在转变的</t>
+  </si>
+  <si>
+    <t>sanguine</t>
+  </si>
+  <si>
+    <t>adj. 乐观的；满怀希望的；面色红润的</t>
+  </si>
+  <si>
+    <t>bleak</t>
+  </si>
+  <si>
+    <t>adj. 阴冷的；荒凉的，无遮蔽的；黯淡的，无希望的；冷酷的；单调的</t>
+  </si>
+  <si>
+    <t>grim</t>
+  </si>
+  <si>
+    <t>adj. 冷酷的；糟糕的；残忍的</t>
+  </si>
+  <si>
+    <t>lugubrious</t>
+  </si>
+  <si>
+    <t>adj. 悲哀的，悲惨的</t>
+  </si>
+  <si>
+    <t>languish</t>
+  </si>
+  <si>
+    <t>vi. 憔悴；凋萎；失去活力；苦思</t>
+  </si>
+  <si>
+    <t>patronize</t>
+  </si>
+  <si>
+    <t>vt. 以高人一等的态度对待；经常光顾，惠顾；资助；保护</t>
+  </si>
+  <si>
+    <t>fiasco</t>
+  </si>
+  <si>
+    <t>n. 惨败</t>
+  </si>
+  <si>
+    <t>dogma</t>
+  </si>
+  <si>
+    <t>n. 教条，教理；武断的意见</t>
+  </si>
+  <si>
+    <t>orthodoxy</t>
+  </si>
+  <si>
+    <t>n. 正统；正教；正统说法</t>
+  </si>
+  <si>
+    <t>hindsight</t>
+  </si>
+  <si>
+    <t>n. 后见之明；枪的照门</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>n. 范例；词形变化表</t>
+  </si>
+  <si>
+    <t>for tradition</t>
+  </si>
+  <si>
+    <t>not necessarily traditional</t>
+  </si>
+  <si>
+    <t>skeptical</t>
+  </si>
+  <si>
+    <t>adj. 怀疑的；（哲学）怀疑论的，不可知论的</t>
+  </si>
+  <si>
+    <t>contend</t>
+  </si>
+  <si>
+    <t>vi. 竞争；奋斗；斗争；争论</t>
+  </si>
+  <si>
+    <t>vt. 主张；为...斗争</t>
+  </si>
+  <si>
+    <t>vestige</t>
+  </si>
+  <si>
+    <t>n. 遗迹；残余；退化的器官</t>
+  </si>
+  <si>
+    <t>unviable</t>
+  </si>
+  <si>
+    <t>adj. （尤指经济上）不能成功的，行不通的</t>
+  </si>
+  <si>
+    <t>ingenious</t>
+  </si>
+  <si>
+    <t>adj. 有独创性的；机灵的，精制的；心灵手巧的</t>
+  </si>
+  <si>
+    <t>milieu</t>
+  </si>
+  <si>
+    <t>n. 环境；周围；出身背景</t>
+  </si>
+  <si>
+    <t>urbane</t>
+  </si>
+  <si>
+    <t>adj. 彬彬有礼的，温文尔雅的；都市化的</t>
+  </si>
+  <si>
+    <t>lurid</t>
+  </si>
+  <si>
+    <t>adj. 可怕的，耸人听闻的；火烧似的；苍白的；血红的；华丽而庸俗的</t>
+  </si>
+  <si>
+    <t>nonplussed</t>
+  </si>
+  <si>
+    <t>adj. 困惑的；陷于窘境的</t>
+  </si>
+  <si>
+    <t>v. 迷惑；为难（nonplus的过去分词形式）</t>
+  </si>
+  <si>
+    <t>disgusted</t>
+  </si>
+  <si>
+    <t>adj. 厌恶的；厌烦的</t>
+  </si>
+  <si>
+    <t>v. 使恶心；使讨厌（disgust的过去分词）</t>
+  </si>
+  <si>
+    <t>confounded</t>
+  </si>
+  <si>
+    <t>adj. 困惑的；糊涂的；讨厌的；惊慌失措的</t>
+  </si>
+  <si>
+    <t>aggravated</t>
+  </si>
+  <si>
+    <t>adj. 加重的；恶化的</t>
+  </si>
+  <si>
+    <t>v. 加重；恶化（aggravate的过去分词）；刺激</t>
+  </si>
+  <si>
+    <t>amenable</t>
+  </si>
+  <si>
+    <t>adj. 有责任的：顺从的，服从的；有义务的；经得起检验的</t>
+  </si>
+  <si>
+    <t>undermine</t>
+  </si>
+  <si>
+    <t>vt. 破坏，渐渐破坏；挖掘地基</t>
+  </si>
+  <si>
+    <t>meteorological</t>
+  </si>
+  <si>
+    <t>adj. 气象的；气象学的</t>
+  </si>
+  <si>
+    <t>rambling</t>
+  </si>
+  <si>
+    <t>adj. 漫步的；闲聊的；蔓生的</t>
+  </si>
+  <si>
+    <t>labyrinthine</t>
+  </si>
+  <si>
+    <t>adj. 迷宫的；复杂的</t>
+  </si>
+  <si>
+    <t>shun</t>
+  </si>
+  <si>
+    <t>vt. 避开，避免；回避</t>
+  </si>
+  <si>
+    <t>terse</t>
+  </si>
+  <si>
+    <t>adj. 简洁的，精练的，扼要的</t>
+  </si>
+  <si>
+    <t>vertebrae</t>
+  </si>
+  <si>
+    <t>n. （解剖）椎骨，脊椎（vertebra 的复数）</t>
+  </si>
+  <si>
+    <t>ignominy</t>
+  </si>
+  <si>
+    <t>n. 耻辱；不体面；丑行</t>
+  </si>
+  <si>
+    <t>tepid</t>
+  </si>
+  <si>
+    <t>adj. 微温的，温热的；不太热烈的；不热情的</t>
+  </si>
+  <si>
+    <t>reverential</t>
+  </si>
+  <si>
+    <t>adj. 虔诚的；表示尊敬的；可尊敬的</t>
+  </si>
+  <si>
+    <t>ambivalent</t>
+  </si>
+  <si>
+    <t>adj. 矛盾的；好恶相克的</t>
+  </si>
+  <si>
+    <t>hushed</t>
+  </si>
+  <si>
+    <t>adj. 寂静的；安静的</t>
+  </si>
+  <si>
+    <t>v. 安静；缄默；肃静（hush的过去分词）</t>
+  </si>
+  <si>
+    <t>n. [化学] 挥发性；易变；活泼</t>
+  </si>
+  <si>
+    <t>tantamount</t>
+  </si>
+  <si>
+    <t>adj. 同等的；相当于…的</t>
+  </si>
+  <si>
+    <t>reversion</t>
+  </si>
+  <si>
+    <t>n. 逆转；回复；归还；[遗] 隔代遗传；[法] 继承权</t>
+  </si>
+  <si>
+    <t>heresy</t>
+  </si>
+  <si>
+    <t>n. 异端；异端邪说；异教</t>
+  </si>
+  <si>
+    <t>ostracize</t>
+  </si>
+  <si>
+    <t>vt. 放逐；排斥；按贝壳流放法放逐</t>
+  </si>
+  <si>
+    <t>vanquish</t>
+  </si>
+  <si>
+    <t>vt. 征服；击败；克服；抑制（感情等）</t>
+  </si>
+  <si>
+    <t>disposed</t>
+  </si>
+  <si>
+    <t>adj. 有…倾向的；打算做…的；有某种健康状态的</t>
+  </si>
+  <si>
+    <t>v. 处理；配置；使适应（dispose的过去分词）；使有倾向</t>
+  </si>
+  <si>
+    <t>reluctant</t>
+  </si>
+  <si>
+    <t>adj. 不情愿的；勉强的；顽抗的</t>
+  </si>
+  <si>
+    <t>prone</t>
+  </si>
+  <si>
+    <t>adj. 俯卧的；有…倾向的，易于…的</t>
+  </si>
+  <si>
+    <t>deride</t>
+  </si>
+  <si>
+    <t>vt. 嘲笑；嘲弄</t>
+  </si>
+  <si>
+    <t>concoct</t>
+  </si>
+  <si>
+    <t>vt. 捏造；混合而制；调合；图谋</t>
+  </si>
+  <si>
+    <t>provisional</t>
+  </si>
+  <si>
+    <t>adj. 临时的，暂时的；暂定的</t>
+  </si>
+  <si>
+    <t>confounding</t>
+  </si>
+  <si>
+    <t>v. 使困惑，弄糊涂；证明……有错（confound 的现在分词）</t>
+  </si>
+  <si>
+    <t>coda</t>
+  </si>
+  <si>
+    <t>n. 结尾部分；终结句；尾声；终曲</t>
+  </si>
+  <si>
+    <t>inducement</t>
+  </si>
+  <si>
+    <t>n. 诱因，刺激物</t>
+  </si>
+  <si>
+    <t>synopsis</t>
+  </si>
+  <si>
+    <t>n. 概要，大纲</t>
+  </si>
+  <si>
+    <t>adj. （建筑物、车辆等）摇摇欲坠的，破烂不堪的；（组织或体制）
+松散的，东拼西凑的</t>
+  </si>
+  <si>
+    <t>v. 衰退，衰弱；支吾地说，结巴，（嗓音）颤抖；蹒跚，犹豫，畏缩
+(falter 的现在分词）</t>
+  </si>
+  <si>
+    <t>annotation</t>
+  </si>
+  <si>
+    <t>afield</t>
+  </si>
+  <si>
+    <t>adv. 在远方地；遥远地；远离家乡地；在田野，在野外</t>
+  </si>
+  <si>
+    <t>adj. 远方的；遥远的；远离家乡的</t>
+  </si>
+  <si>
+    <t>combative</t>
+  </si>
+  <si>
+    <t>adj. 好战的；好事的</t>
+  </si>
+  <si>
+    <t>docile</t>
+  </si>
+  <si>
+    <t>adj. 温顺的，驯服的；容易教的</t>
+  </si>
+  <si>
+    <t>allegiance</t>
+  </si>
+  <si>
+    <t>n. 效忠，忠诚；忠贞</t>
+  </si>
+  <si>
+    <t>entrenched</t>
+  </si>
+  <si>
+    <t>adj. 根深蒂固的；确立的，不容易改的</t>
+  </si>
+  <si>
+    <t>entice</t>
+  </si>
+  <si>
+    <t>vt. 诱使；怂恿</t>
+  </si>
+  <si>
+    <t>proselytize</t>
+  </si>
+  <si>
+    <t>vi. 劝诱改宗</t>
+  </si>
+  <si>
+    <t>vt. 使改宗</t>
+  </si>
+  <si>
+    <t>deceive</t>
+  </si>
+  <si>
+    <t>v. 欺骗；行骗</t>
+  </si>
+  <si>
+    <t>ephemeral</t>
+  </si>
+  <si>
+    <t>adj. 短暂的；朝生暮死的</t>
+  </si>
+  <si>
+    <t>n. 只生存一天的事物</t>
+  </si>
+  <si>
+    <t>hinder</t>
+  </si>
+  <si>
+    <t>vi. 成为阻碍</t>
+  </si>
+  <si>
+    <t>vt. 阻碍；打扰</t>
+  </si>
+  <si>
+    <t>adj. 后面的</t>
+  </si>
+  <si>
+    <t>debilitate</t>
+  </si>
+  <si>
+    <t>vt. 使衰弱；使虚弱</t>
+  </si>
+  <si>
+    <t>distinctly</t>
+  </si>
+  <si>
+    <t>adv. 明显地；无疑地，确实地</t>
+  </si>
+  <si>
+    <t>coax</t>
+  </si>
+  <si>
+    <t>vt. 哄；哄诱；慢慢将…弄好</t>
+  </si>
+  <si>
+    <t>vi. 哄骗；劝诱</t>
+  </si>
+  <si>
+    <t>palpable</t>
+  </si>
+  <si>
+    <t>adj. 明显的；可感知的；易觉察的</t>
+  </si>
+  <si>
+    <t>bucolic</t>
+  </si>
+  <si>
+    <t>adj. 牧歌的；牧羊的；乡下风味的</t>
+  </si>
+  <si>
+    <t>n. 田园诗；农夫</t>
+  </si>
+  <si>
+    <t>adroitly</t>
+  </si>
+  <si>
+    <t>adv. 熟练地；敏捷地</t>
+  </si>
+  <si>
+    <t>subsume</t>
+  </si>
+  <si>
+    <t>vt. 把……归入；把……包括在内</t>
+  </si>
+  <si>
+    <t>belie</t>
+  </si>
+  <si>
+    <t>vt. 掩饰；与…不符；使失望；证明…虚假错误</t>
+  </si>
+  <si>
+    <t>untutored</t>
+  </si>
+  <si>
+    <t>adj. 未受教育的；粗野的；天真的</t>
+  </si>
+  <si>
+    <t>latticework</t>
+  </si>
+  <si>
+    <t>n. 格子；格子细工</t>
+  </si>
+  <si>
+    <t xml:space="preserve">veritable </t>
+  </si>
+  <si>
+    <t>adj. 真正的，名副其实的</t>
+  </si>
+  <si>
+    <t>cornucopia</t>
+  </si>
+  <si>
+    <t>n. 哺乳宙斯的羊角；装满花果及谷穗表丰饶的羊角状物；丰饶的象征</t>
+  </si>
+  <si>
+    <t>dissemination</t>
+  </si>
+  <si>
+    <t>n. 宣传；散播；传染（病毒）</t>
+  </si>
+  <si>
+    <t>allot</t>
+  </si>
+  <si>
+    <t>n. (Allot)人名；(英)阿洛特；(西)阿略特；(法)阿洛</t>
+  </si>
+  <si>
+    <t>purge</t>
+  </si>
+  <si>
+    <t>v. 清除（不愿有的情感）；消除（回忆、心情等）；清除（一群不受
+欢迎的人）；把某人从……上清除掉；弥补；将（某物）彻底清除；
+通便；净化；催吐</t>
+  </si>
+  <si>
+    <t>ethnobotany</t>
+  </si>
+  <si>
+    <t>n. 人类植物学</t>
+  </si>
+  <si>
+    <t>bounty</t>
+  </si>
+  <si>
+    <t>n. 慷慨；丰富；奖励金；赠款</t>
+  </si>
+  <si>
+    <t>glean</t>
+  </si>
+  <si>
+    <t>vt. 收集（资料）；拾（落穗）</t>
+  </si>
+  <si>
+    <t>vi. 收集；拾落穗</t>
+  </si>
+  <si>
+    <t>cloak</t>
+  </si>
+  <si>
+    <t>v. 遮掩；隐匿；掩盖（事实、情感等）；给……披斗篷</t>
+  </si>
+  <si>
+    <t>venality</t>
+  </si>
+  <si>
+    <t>n. 唯利是图；贪赃枉法；受贿</t>
+  </si>
+  <si>
+    <t>diligent</t>
+  </si>
+  <si>
+    <t>adj. 勤勉的；用功的，费尽心血的</t>
+  </si>
+  <si>
+    <t>inkling</t>
+  </si>
+  <si>
+    <t>n. 暗示；略知；模糊概念</t>
+  </si>
+  <si>
+    <t>dismiss</t>
+  </si>
+  <si>
+    <t>vt. 解散；解雇；开除；让...离开；不予理会、不予考虑</t>
+  </si>
+  <si>
+    <t>consent</t>
+  </si>
+  <si>
+    <t>n. 准许，同意；赞同，同意；正式批准文件，批文；（古）一致，和谐</t>
+  </si>
+  <si>
+    <t>penury</t>
+  </si>
+  <si>
+    <t>n. 贫困；贫穷</t>
+  </si>
+  <si>
+    <t>covet</t>
+  </si>
+  <si>
+    <t>vt. 垂涎；觊觎</t>
+  </si>
+  <si>
+    <t>lambaste</t>
+  </si>
+  <si>
+    <t>vt. 痛打；严责；鞭打</t>
+  </si>
+  <si>
+    <t>contingent</t>
+  </si>
+  <si>
+    <t>adj. 偶然（发生）的；（损失、责任等）附带的；以事实为依据的；
+依情况而变的</t>
+  </si>
+  <si>
+    <t>sabotage</t>
+  </si>
+  <si>
+    <t>v. 妨害；蓄意破坏</t>
+  </si>
+  <si>
+    <t>n. 蓄意毁坏；刻意阻碍</t>
+  </si>
+  <si>
+    <t>chafe</t>
+  </si>
+  <si>
+    <t>vt. 擦破；擦热；擦痛；激怒</t>
+  </si>
+  <si>
+    <t>peripheral</t>
+  </si>
+  <si>
+    <t>adj. 外围的；次要的；（神经）末梢区域的</t>
+  </si>
+  <si>
+    <t>coterminous</t>
+  </si>
+  <si>
+    <t>adj. 相连的；毗连的（等于conterminous）</t>
+  </si>
+  <si>
+    <t>haughty</t>
+  </si>
+  <si>
+    <t>adj. 傲慢的；自大的</t>
+  </si>
+  <si>
+    <t>smitten</t>
+  </si>
+  <si>
+    <t>v.（诗/文）打击，重打；击败（某人），占领（某地）；（疾病）侵袭，袭击；使深感（不安、不快等）（smite 的过去分词）</t>
+  </si>
+  <si>
+    <t>inarticulate</t>
+  </si>
+  <si>
+    <t>adj. 口齿不清的；说不出话的；[无脊椎] 无关节的</t>
+  </si>
+  <si>
+    <t>conciliatory</t>
+  </si>
+  <si>
+    <t>adj. 安抚的；调和的；调停的</t>
+  </si>
+  <si>
+    <t>dissertation</t>
+  </si>
+  <si>
+    <t>n. 论文，专题；学术演讲</t>
+  </si>
+  <si>
+    <t>debonair</t>
+  </si>
+  <si>
+    <t>adj. 高兴的，快活的；温文尔雅的；殷勤的</t>
+  </si>
+  <si>
+    <t>smug</t>
+  </si>
+  <si>
+    <t>adj. 自鸣得意的；自以为是的；整洁的</t>
+  </si>
+  <si>
+    <t>n. 书呆子；自命不凡的家伙</t>
+  </si>
+  <si>
+    <t>adj. 博学的；有学问的</t>
+  </si>
+  <si>
+    <t>n. 饱学之士</t>
+  </si>
+  <si>
+    <t>histrionic</t>
+  </si>
+  <si>
+    <t>adj. 戏剧的；演员的，表演的</t>
+  </si>
+  <si>
+    <t>n. 演员</t>
+  </si>
+  <si>
+    <t>industriously</t>
+  </si>
+  <si>
+    <t>adv. 勤奋地，努力地</t>
+  </si>
+  <si>
+    <t>diligently</t>
+  </si>
+  <si>
+    <t>monotonously</t>
+  </si>
+  <si>
+    <t>adv. 无变化地，单调地</t>
+  </si>
+  <si>
+    <t>sporadically</t>
+  </si>
+  <si>
+    <t>adv. 零星地；偶发地</t>
+  </si>
+  <si>
+    <t>fruitfully</t>
+  </si>
+  <si>
+    <t>adv. 产量多地；肥沃地</t>
+  </si>
+  <si>
+    <t>adv. 勤奋地；勤勉地</t>
+  </si>
+  <si>
+    <t>extol</t>
+  </si>
+  <si>
+    <t>vt. 颂扬；赞美；赞颂</t>
+  </si>
+  <si>
+    <t>intricate</t>
+  </si>
+  <si>
+    <t>semblance</t>
+  </si>
+  <si>
+    <t>n. 表象，假象；外观，外貌；（情况或性质的）相似之处，类似；幽灵，
+幻影</t>
+  </si>
+  <si>
+    <t>adj. 复杂的；错综的，缠结的</t>
+  </si>
+  <si>
+    <t>embellish</t>
+  </si>
+  <si>
+    <t>vt. 修饰；装饰；润色</t>
+  </si>
+  <si>
+    <t>vi. 装饰起来；加以润色</t>
+  </si>
+  <si>
+    <t>truculent</t>
+  </si>
+  <si>
+    <t>adj. 好斗的；野蛮的；言词刻毒的</t>
+  </si>
+  <si>
+    <t>seductive</t>
+  </si>
+  <si>
+    <t>adj. 有魅力的；性感的；引人注意的</t>
+  </si>
+  <si>
+    <t>disingenuous</t>
+  </si>
+  <si>
+    <t>adj. 虚伪的；不诚实的；不老实的；狡猾的</t>
+  </si>
+  <si>
+    <t>ebb</t>
+  </si>
+  <si>
+    <t>n. 衰退；退潮；衰落</t>
+  </si>
+  <si>
+    <t>vi. 衰退；减少；衰落；潮退</t>
+  </si>
+  <si>
+    <t>belated</t>
+  </si>
+  <si>
+    <t>adj. 迟来的；误期的</t>
+  </si>
+  <si>
+    <t>hackneyed</t>
+  </si>
+  <si>
+    <t>adj. 陈腐的；平庸的</t>
+  </si>
+  <si>
+    <t>posterity</t>
+  </si>
+  <si>
+    <t>n. 子孙，后裔；后代</t>
+  </si>
+  <si>
+    <t>pristine</t>
+  </si>
+  <si>
+    <t>adj. 崭新的，清新的，干净的；未开发的，原始的</t>
+  </si>
+  <si>
+    <t>imperil</t>
+  </si>
+  <si>
+    <t>vt. 危及；使陷于危险</t>
+  </si>
+  <si>
+    <t>necropolis</t>
+  </si>
+  <si>
+    <t>n. 大墓地；史前时期的坟场</t>
+  </si>
+  <si>
+    <t>bonanza</t>
+  </si>
+  <si>
+    <t>n. 富矿带；带来好运之事；幸运</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>n. 纬度；界限；活动范围</t>
+  </si>
+  <si>
+    <t>condemnatory</t>
+  </si>
+  <si>
+    <t>adj. 处罚的；非难的；定罪的</t>
+  </si>
+  <si>
+    <t>regale</t>
+  </si>
+  <si>
+    <t>vt. 取悦；盛情款待</t>
+  </si>
+  <si>
+    <t>dissembler</t>
+  </si>
+  <si>
+    <t>n. 伪善者，伪君子</t>
+  </si>
+  <si>
+    <t>iconoclast</t>
+  </si>
+  <si>
+    <t>raconteur</t>
+  </si>
+  <si>
+    <t>n. 偶像破坏者；提倡打破旧习的人</t>
+  </si>
+  <si>
+    <t>n. 健谈者；善谈者；擅长讲故事的人</t>
+  </si>
+  <si>
+    <t>sentimentalist</t>
+  </si>
+  <si>
+    <t>n. 感伤主义者；多愁善感的人</t>
+  </si>
+  <si>
+    <t>maverick</t>
+  </si>
+  <si>
+    <t>n. 没打烙印的动物；持不同意见的人</t>
+  </si>
+  <si>
+    <t>Enticing</t>
+  </si>
+  <si>
+    <t>adj. 有诱惑力的；诱人的；有吸引力的</t>
+  </si>
+  <si>
+    <t>Thwarting</t>
+  </si>
+  <si>
+    <t>v. 阻挠，妨碍（thwart 的现在分词）</t>
+  </si>
+  <si>
+    <t>obsolete</t>
+  </si>
+  <si>
+    <t>adj. 废弃的；老式的</t>
+  </si>
+  <si>
+    <t>impregnable</t>
+  </si>
+  <si>
+    <t>adj. （要塞）坚固的，无法攻取的；不受影响的，难以改变的；可受孕的，
+可生育的</t>
+  </si>
+  <si>
+    <t>reprehensible</t>
+  </si>
+  <si>
+    <t>adj. 应斥责的；应该谴责的</t>
+  </si>
+  <si>
+    <t>stem</t>
+  </si>
+  <si>
+    <t>vt. 阻止</t>
+  </si>
+  <si>
+    <t>indulge</t>
+  </si>
+  <si>
+    <t>vt. 满足；纵容；使高兴；使沉迷于…</t>
+  </si>
+  <si>
+    <t>obsequious</t>
+  </si>
+  <si>
+    <t>adj. 谄媚的；奉承的；顺从的</t>
+  </si>
+  <si>
+    <t>outlandish</t>
+  </si>
+  <si>
+    <t>adj. 古怪的；奇异的；异国风格的；偏僻的</t>
+  </si>
+  <si>
+    <t>involved</t>
+  </si>
+  <si>
+    <r>
+      <t>adj. 有关的；卷入的；</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>复杂的</t>
+    </r>
+  </si>
+  <si>
+    <t>rudimentary</t>
+  </si>
+  <si>
+    <t>adj. 基本的；初步的；退化的；残遗的；未发展的</t>
+  </si>
+  <si>
+    <t>trumpet</t>
+  </si>
+  <si>
+    <t>vt. 吹喇叭；吹嘘</t>
+  </si>
+  <si>
+    <t xml:space="preserve">predisposition </t>
+  </si>
+  <si>
+    <t>n. 倾向；素质；易染病体质</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disposition </t>
+  </si>
+  <si>
+    <t>n. 处置；[心理] 性情；[军] 部署；倾向</t>
+  </si>
+  <si>
+    <t>stratigraphy</t>
+  </si>
+  <si>
+    <t>n. 地层学；地层中的岩石组成</t>
+  </si>
+  <si>
+    <t>axiomatic</t>
+  </si>
+  <si>
+    <t>adj. 公理的；自明的</t>
+  </si>
+  <si>
+    <t>prohibitive</t>
+  </si>
+  <si>
+    <r>
+      <t>adj. 禁止的，禁止性的；抑制的；</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（费用，价格等）过高的；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类同禁止的</t>
+    </r>
+  </si>
+  <si>
+    <t>opulent</t>
+  </si>
+  <si>
+    <t>adj. 丰富的；富裕的；大量的</t>
+  </si>
+  <si>
+    <t>grandiose</t>
+  </si>
+  <si>
+    <t>adj. 宏伟的；堂皇的；浮夸的；宏大的</t>
+  </si>
+  <si>
+    <t>abstain</t>
+  </si>
+  <si>
+    <t>v. （投票时）弃权，放弃；避免，回避；自制，戒除</t>
+  </si>
+  <si>
+    <t>hasten</t>
+  </si>
+  <si>
+    <t>vt. 加速；使赶紧；催促</t>
+  </si>
+  <si>
+    <t>vi. 赶快；急忙</t>
+  </si>
+  <si>
+    <t>desist</t>
+  </si>
+  <si>
+    <t>vi. 停止；断念</t>
+  </si>
+  <si>
+    <t>concede</t>
+  </si>
+  <si>
+    <t>vt. 承认；退让；给予，容许</t>
+  </si>
+  <si>
+    <t>vi. 让步</t>
+  </si>
+  <si>
+    <t>asceticism</t>
+  </si>
+  <si>
+    <t>n. 禁欲主义；苦行主义；苦行生活</t>
+  </si>
+  <si>
+    <t>abnegate</t>
+  </si>
+  <si>
+    <t>vt. 放弃；舍弃；禁忌</t>
+  </si>
+  <si>
+    <t>sybarite</t>
+  </si>
+  <si>
+    <t>n. 爱奢侈享乐的人</t>
+  </si>
+  <si>
+    <t>agnostic</t>
+  </si>
+  <si>
+    <t>n. 不可知论者; adj. 不可知论的；怀疑的</t>
+  </si>
+  <si>
+    <t>hedonist</t>
+  </si>
+  <si>
+    <t>n. 快乐主义者；享乐主义者</t>
+  </si>
+  <si>
+    <t>puritan</t>
+  </si>
+  <si>
+    <t>n. 禁欲者；清教徒; adj. 清教徒的；禁欲的</t>
+  </si>
+  <si>
+    <t>diffident</t>
+  </si>
+  <si>
+    <t>adj. 羞怯的；缺乏自信的；谦虚谨慎的</t>
+  </si>
+  <si>
+    <t>plucky</t>
+  </si>
+  <si>
+    <t>adj. 有勇气的，大胆的</t>
+  </si>
+  <si>
+    <t>meek</t>
+  </si>
+  <si>
+    <t>adj. 温顺的；谦恭的；驯服的</t>
+  </si>
+  <si>
+    <t>underwhelmed</t>
+  </si>
+  <si>
+    <t>adj. 无动于衷的，毫不激动的；未激起热情的，未给……留下深刻印象的</t>
+  </si>
+  <si>
+    <t>snide</t>
+  </si>
+  <si>
+    <t>adj. 伪造的；卑鄙的；暗讽的</t>
+  </si>
+  <si>
+    <t>derogative</t>
+  </si>
+  <si>
+    <t>adj. 减损的；毁损的</t>
+  </si>
+  <si>
+    <t>hasty</t>
+  </si>
+  <si>
+    <t>adj. 轻率的；匆忙的；草率的；懈怠的</t>
+  </si>
+  <si>
+    <t>snub</t>
+  </si>
+  <si>
+    <t>v. 冷落；斥责；抵制；（使）（马、船等）停住；掐灭（香烟等）</t>
+  </si>
+  <si>
+    <t>simpering</t>
+  </si>
+  <si>
+    <t>adj. 傻笑的；皮笑肉不笑的</t>
+  </si>
+  <si>
+    <t>celerity</t>
+  </si>
+  <si>
+    <t>n. 快速；敏捷</t>
+  </si>
+  <si>
+    <t>fecklessness</t>
+  </si>
+  <si>
+    <t>n. 徒劳；低效率；无能；不负责任</t>
+  </si>
+  <si>
+    <t>n. 表象，假象；外观，外貌；（情况或性质的）相似之处，类似；幽灵，幻影</t>
+  </si>
+  <si>
+    <t>deliberation</t>
+  </si>
+  <si>
+    <t>n. 审议；考虑；从容；熟思</t>
+  </si>
+  <si>
+    <t>purity</t>
+  </si>
+  <si>
+    <t>n. [化学] 纯度；纯洁；纯净；纯粹</t>
+  </si>
+  <si>
+    <t>pastoral</t>
+  </si>
+  <si>
+    <t>adj. 牧师的；牧人的；田园生活的；乡村的</t>
+  </si>
+  <si>
+    <t>sentimental</t>
+  </si>
+  <si>
+    <t>adj. 伤感的；多愁善感的；感情用事的；寓有情感的</t>
+  </si>
+  <si>
+    <t>scrupulously</t>
+  </si>
+  <si>
+    <t>adv. 严谨地；小心翼翼地；多顾虑地</t>
+  </si>
+  <si>
+    <t>glib</t>
+  </si>
+  <si>
+    <t>adj. 口齿伶俐的，油嘴滑舌的</t>
+  </si>
+  <si>
+    <t>racket</t>
+  </si>
+  <si>
+    <t>n. 球拍；吵闹，喧闹; fraud</t>
+  </si>
+  <si>
+    <t>myriad</t>
+  </si>
+  <si>
+    <t>adj. 无数的；种种的</t>
+  </si>
+  <si>
+    <t>notwithstanding</t>
+  </si>
+  <si>
+    <t>prep. 尽管，虽然</t>
+  </si>
+  <si>
+    <t>contempt</t>
+  </si>
+  <si>
+    <t>n. 轻视，蔑视；耻辱</t>
+  </si>
+  <si>
+    <t>exaltation</t>
+  </si>
+  <si>
+    <t>n. 得意洋洋，欣喜；提拔；举起</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,6 +1748,14 @@
       <color rgb="FF434343"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -493,9 +1778,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -776,16 +2064,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="132" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A262" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B296" sqref="B296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="84.36328125" customWidth="1"/>
+    <col min="2" max="2" width="70.54296875" customWidth="1"/>
     <col min="3" max="3" width="25.54296875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -796,6 +2084,9 @@
       <c r="B1" t="s">
         <v>10</v>
       </c>
+      <c r="C1" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -891,12 +2182,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="B14" t="s">
-        <v>27</v>
+      <c r="B14" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -906,462 +2197,3901 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
         <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
         <v>31</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
         <v>33</v>
-      </c>
-      <c r="B19" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
         <v>35</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
         <v>37</v>
-      </c>
-      <c r="B21" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
         <v>39</v>
-      </c>
-      <c r="B22" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
         <v>41</v>
-      </c>
-      <c r="B23" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
         <v>43</v>
-      </c>
-      <c r="B24" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
         <v>45</v>
-      </c>
-      <c r="B25" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s">
         <v>47</v>
-      </c>
-      <c r="B26" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s">
         <v>49</v>
-      </c>
-      <c r="B27" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" t="s">
         <v>51</v>
-      </c>
-      <c r="B28" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
         <v>53</v>
-      </c>
-      <c r="B29" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" t="s">
         <v>55</v>
-      </c>
-      <c r="B30" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" t="s">
         <v>57</v>
-      </c>
-      <c r="B31" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" t="s">
         <v>59</v>
-      </c>
-      <c r="B32" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" t="s">
         <v>62</v>
-      </c>
-      <c r="B34" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" t="s">
         <v>65</v>
-      </c>
-      <c r="B35" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" t="s">
         <v>67</v>
-      </c>
-      <c r="B36" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" t="s">
         <v>69</v>
-      </c>
-      <c r="B37" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" t="s">
         <v>71</v>
-      </c>
-      <c r="B38" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" t="s">
         <v>75</v>
-      </c>
-      <c r="B40" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" t="s">
         <v>77</v>
-      </c>
-      <c r="B41" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" t="s">
         <v>81</v>
-      </c>
-      <c r="B42" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" t="s">
         <v>79</v>
-      </c>
-      <c r="B43" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" t="s">
         <v>83</v>
-      </c>
-      <c r="B44" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" t="s">
         <v>85</v>
-      </c>
-      <c r="B45" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" t="s">
         <v>87</v>
-      </c>
-      <c r="B46" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" t="s">
         <v>89</v>
-      </c>
-      <c r="B47" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" t="s">
         <v>91</v>
-      </c>
-      <c r="B48" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" t="s">
         <v>94</v>
-      </c>
-      <c r="B50" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" t="s">
         <v>96</v>
-      </c>
-      <c r="B51" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" t="s">
         <v>98</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>99</v>
-      </c>
-      <c r="C52" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" t="s">
         <v>101</v>
-      </c>
-      <c r="B53" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B54" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>103</v>
-      </c>
-      <c r="B55" t="s">
-        <v>104</v>
+        <v>102</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B56" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>110</v>
+        <v>108</v>
+      </c>
+      <c r="B58" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B59" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B60" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B61" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B62" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B63" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B64" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B66" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B67" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B68" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B69" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B70" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
+        <v>132</v>
+      </c>
+      <c r="B71" t="s">
         <v>134</v>
-      </c>
-      <c r="B71" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
+        <v>133</v>
+      </c>
+      <c r="B72" t="s">
         <v>135</v>
-      </c>
-      <c r="B72" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B73" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
+        <v>138</v>
+      </c>
+      <c r="B74" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>140</v>
       </c>
+      <c r="B75" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B76" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>143</v>
+      </c>
+      <c r="B77" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>145</v>
+      </c>
+      <c r="B78" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>147</v>
+      </c>
+      <c r="B79" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>149</v>
+      </c>
+      <c r="B80" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>151</v>
+      </c>
+      <c r="B81" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>153</v>
+      </c>
+      <c r="B82" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>155</v>
+      </c>
+      <c r="B83" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>157</v>
+      </c>
+      <c r="B84" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>159</v>
+      </c>
+      <c r="B85" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>161</v>
+      </c>
+      <c r="B86" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>171</v>
+      </c>
+      <c r="B87" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>163</v>
+      </c>
+      <c r="B88" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>165</v>
+      </c>
+      <c r="B89" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>167</v>
+      </c>
+      <c r="B90" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>169</v>
+      </c>
+      <c r="B91" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>173</v>
+      </c>
+      <c r="B92" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>175</v>
+      </c>
+      <c r="B93" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>177</v>
+      </c>
+      <c r="B94" t="s">
+        <v>178</v>
+      </c>
+      <c r="C94" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>179</v>
+      </c>
+      <c r="B95" t="s">
+        <v>180</v>
+      </c>
+      <c r="C95" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>181</v>
+      </c>
+      <c r="B96" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>183</v>
+      </c>
+      <c r="B97" t="s">
+        <v>184</v>
+      </c>
+      <c r="C97" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>187</v>
+      </c>
+      <c r="B98" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>189</v>
+      </c>
+      <c r="B99" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B100" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>192</v>
+      </c>
+      <c r="B101" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>194</v>
+      </c>
+      <c r="B102" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>196</v>
+      </c>
+      <c r="B103" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>198</v>
+      </c>
+      <c r="B104" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>200</v>
+      </c>
+      <c r="B105" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>202</v>
+      </c>
+      <c r="B106" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>204</v>
+      </c>
+      <c r="B107" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B108" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>207</v>
+      </c>
+      <c r="B109" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B110" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>210</v>
+      </c>
+      <c r="B111" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>212</v>
+      </c>
+      <c r="B112" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B113" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>215</v>
+      </c>
+      <c r="B114" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>217</v>
+      </c>
+      <c r="B115" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>219</v>
+      </c>
+      <c r="B116" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>221</v>
+      </c>
+      <c r="B117" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>223</v>
+      </c>
+      <c r="B118" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>225</v>
+      </c>
+      <c r="B119" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>227</v>
+      </c>
+      <c r="B120" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>229</v>
+      </c>
+      <c r="B121" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>231</v>
+      </c>
+      <c r="B122" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>233</v>
+      </c>
+      <c r="B123" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>235</v>
+      </c>
+      <c r="B124" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>237</v>
+      </c>
+      <c r="B125" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>239</v>
+      </c>
+      <c r="B126" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B127" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>243</v>
+      </c>
+      <c r="B128" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>245</v>
+      </c>
+      <c r="B129" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>247</v>
+      </c>
+      <c r="B130" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>251</v>
+      </c>
+      <c r="B131" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>249</v>
+      </c>
+      <c r="B132" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>253</v>
+      </c>
+      <c r="B133" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B134" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>256</v>
+      </c>
+      <c r="B135" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>258</v>
+      </c>
+      <c r="B136" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>260</v>
+      </c>
+      <c r="B137" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>262</v>
+      </c>
+      <c r="B138" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>147</v>
+      </c>
+      <c r="B139" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>264</v>
+      </c>
+      <c r="B140" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>266</v>
+      </c>
+      <c r="B141" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>268</v>
+      </c>
+      <c r="B142" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>270</v>
+      </c>
+      <c r="B143" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>272</v>
+      </c>
+      <c r="B144" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>277</v>
+      </c>
+      <c r="B145" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B146" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>280</v>
+      </c>
+      <c r="B147" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>282</v>
+      </c>
+      <c r="B148" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>284</v>
+      </c>
+      <c r="B149" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>286</v>
+      </c>
+      <c r="B150" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>288</v>
+      </c>
+      <c r="B151" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>290</v>
+      </c>
+      <c r="B152" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B153" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>293</v>
+      </c>
+      <c r="B154" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>295</v>
+      </c>
+      <c r="B155" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B156" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>298</v>
+      </c>
+      <c r="B157" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B158" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B159" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>302</v>
+      </c>
+      <c r="B160" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>304</v>
+      </c>
+      <c r="B161" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>306</v>
+      </c>
+      <c r="B162" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B163" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>309</v>
+      </c>
+      <c r="B164" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>311</v>
+      </c>
+      <c r="B165" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B166" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>314</v>
+      </c>
+      <c r="B167" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>316</v>
+      </c>
+      <c r="B168" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>318</v>
+      </c>
+      <c r="B169" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>320</v>
+      </c>
+      <c r="B170" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>322</v>
+      </c>
+      <c r="B171" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>324</v>
+      </c>
+      <c r="B172" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>326</v>
+      </c>
+      <c r="B173" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>328</v>
+      </c>
+      <c r="B174" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>338</v>
+      </c>
+      <c r="B175" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B176" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>330</v>
+      </c>
+      <c r="B177" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>332</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>334</v>
+      </c>
+      <c r="B179" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>336</v>
+      </c>
+      <c r="B180" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>341</v>
+      </c>
+      <c r="B181" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>343</v>
+      </c>
+      <c r="B182" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>345</v>
+      </c>
+      <c r="B183" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>181</v>
+      </c>
+      <c r="B184" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>347</v>
+      </c>
+      <c r="B185" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>349</v>
+      </c>
+      <c r="B186" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>351</v>
+      </c>
+      <c r="B187" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>353</v>
+      </c>
+      <c r="B188" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>355</v>
+      </c>
+      <c r="B189" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>357</v>
+      </c>
+      <c r="B190" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>359</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>361</v>
+      </c>
+      <c r="B192" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B193" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>364</v>
+      </c>
+      <c r="B194" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>366</v>
+      </c>
+      <c r="B195" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>368</v>
+      </c>
+      <c r="B196" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>370</v>
+      </c>
+      <c r="B197" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>372</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>374</v>
+      </c>
+      <c r="B199" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>376</v>
+      </c>
+      <c r="B200" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>378</v>
+      </c>
+      <c r="B201" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>380</v>
+      </c>
+      <c r="B202" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>382</v>
+      </c>
+      <c r="B203" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B204" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>36</v>
+      </c>
+      <c r="B205" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B206" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>387</v>
+      </c>
+      <c r="B207" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B208" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>390</v>
+      </c>
+      <c r="B209" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>392</v>
+      </c>
+      <c r="B210" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>393</v>
+      </c>
+      <c r="B211" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>395</v>
+      </c>
+      <c r="B212" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>397</v>
+      </c>
+      <c r="B213" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>400</v>
+      </c>
+      <c r="B214" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>402</v>
+      </c>
+      <c r="B215" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>403</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>406</v>
+      </c>
+      <c r="B217" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B218" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>409</v>
+      </c>
+      <c r="B219" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>411</v>
+      </c>
+      <c r="B220" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>413</v>
+      </c>
+      <c r="B221" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>415</v>
+      </c>
+      <c r="B222" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B223" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>295</v>
+      </c>
+      <c r="B224" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>418</v>
+      </c>
+      <c r="B225" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>420</v>
+      </c>
+      <c r="B226" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>422</v>
+      </c>
+      <c r="B227" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>424</v>
+      </c>
+      <c r="B228" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>426</v>
+      </c>
+      <c r="B229" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>428</v>
+      </c>
+      <c r="B230" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>430</v>
+      </c>
+      <c r="B231" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>432</v>
+      </c>
+      <c r="B232" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>434</v>
+      </c>
+      <c r="B233" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>436</v>
+      </c>
+      <c r="B234" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>438</v>
+      </c>
+      <c r="B235" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>440</v>
+      </c>
+      <c r="B236" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>441</v>
+      </c>
+      <c r="B237" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>444</v>
+      </c>
+      <c r="B238" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>446</v>
+      </c>
+      <c r="B239" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>448</v>
+      </c>
+      <c r="B240" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>450</v>
+      </c>
+      <c r="B241" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>452</v>
+      </c>
+      <c r="B242" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>454</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>456</v>
+      </c>
+      <c r="B244" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>458</v>
+      </c>
+      <c r="B245" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>460</v>
+      </c>
+      <c r="B246" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>462</v>
+      </c>
+      <c r="B247" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>464</v>
+      </c>
+      <c r="B248" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>466</v>
+      </c>
+      <c r="B249" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>468</v>
+      </c>
+      <c r="B250" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>260</v>
+      </c>
+      <c r="B251" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>470</v>
+      </c>
+      <c r="B252" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>472</v>
+      </c>
+      <c r="B253" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>474</v>
+      </c>
+      <c r="B254" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>476</v>
+      </c>
+      <c r="B255" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>478</v>
+      </c>
+      <c r="B256" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>480</v>
+      </c>
+      <c r="B257" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>482</v>
+      </c>
+      <c r="B258" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>484</v>
+      </c>
+      <c r="B259" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>486</v>
+      </c>
+      <c r="B260" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
+        <v>488</v>
+      </c>
+      <c r="B261" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B262" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>491</v>
+      </c>
+      <c r="B263" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
+        <v>493</v>
+      </c>
+      <c r="B264" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B265" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
+        <v>496</v>
+      </c>
+      <c r="B266" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
+        <v>498</v>
+      </c>
+      <c r="B267" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
+        <v>500</v>
+      </c>
+      <c r="B268" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
+        <v>502</v>
+      </c>
+      <c r="B269" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
+        <v>504</v>
+      </c>
+      <c r="B270" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
+        <v>506</v>
+      </c>
+      <c r="B271" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
+        <v>508</v>
+      </c>
+      <c r="B272" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A273" t="s">
+        <v>510</v>
+      </c>
+      <c r="B273" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A274" t="s">
+        <v>512</v>
+      </c>
+      <c r="B274" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
+        <v>514</v>
+      </c>
+      <c r="B275" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A276" t="s">
+        <v>516</v>
+      </c>
+      <c r="B276" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A277" t="s">
+        <v>518</v>
+      </c>
+      <c r="B277" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A278" t="s">
+        <v>520</v>
+      </c>
+      <c r="B278" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A279" t="s">
+        <v>522</v>
+      </c>
+      <c r="B279" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A280" t="s">
+        <v>524</v>
+      </c>
+      <c r="B280" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A281" t="s">
+        <v>526</v>
+      </c>
+      <c r="B281" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A282" t="s">
+        <v>528</v>
+      </c>
+      <c r="B282" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A283" t="s">
+        <v>403</v>
+      </c>
+      <c r="B283" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A284" t="s">
+        <v>531</v>
+      </c>
+      <c r="B284" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A285" t="s">
+        <v>533</v>
+      </c>
+      <c r="B285" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A286" t="s">
+        <v>535</v>
+      </c>
+      <c r="B286" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
+        <v>537</v>
+      </c>
+      <c r="B287" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A288" t="s">
+        <v>539</v>
+      </c>
+      <c r="B288" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
+        <v>395</v>
+      </c>
+      <c r="B289" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>541</v>
+      </c>
+      <c r="B290" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>543</v>
+      </c>
+      <c r="B291" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
+        <v>547</v>
+      </c>
+      <c r="B292" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
+        <v>545</v>
+      </c>
+      <c r="B293" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A294" t="s">
+        <v>549</v>
+      </c>
+      <c r="B294" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
+        <v>551</v>
+      </c>
+      <c r="B295" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A296" t="s">
+        <v>66</v>
+      </c>
+      <c r="B296" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E920BA49-E4B4-47FC-A950-86C5CCE2F1FC}">
+  <dimension ref="A1:B223"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.54296875" customWidth="1"/>
+    <col min="2" max="2" width="58.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>102</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>103</v>
+      </c>
+      <c r="B56" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>109</v>
+      </c>
+      <c r="B59" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>111</v>
+      </c>
+      <c r="B60" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>115</v>
+      </c>
+      <c r="B62" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B65" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>124</v>
+      </c>
+      <c r="B67" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>126</v>
+      </c>
+      <c r="B68" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>128</v>
+      </c>
+      <c r="B69" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>130</v>
+      </c>
+      <c r="B70" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>132</v>
+      </c>
+      <c r="B71" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>133</v>
+      </c>
+      <c r="B72" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>136</v>
+      </c>
+      <c r="B73" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>138</v>
+      </c>
       <c r="B74" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>140</v>
+      </c>
+      <c r="B75" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B76" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>143</v>
+      </c>
+      <c r="B77" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>145</v>
+      </c>
+      <c r="B78" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>147</v>
+      </c>
+      <c r="B79" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>149</v>
+      </c>
+      <c r="B80" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>151</v>
+      </c>
+      <c r="B81" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>153</v>
+      </c>
+      <c r="B82" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>155</v>
+      </c>
+      <c r="B83" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>157</v>
+      </c>
+      <c r="B84" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>159</v>
+      </c>
+      <c r="B85" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>161</v>
+      </c>
+      <c r="B86" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>171</v>
+      </c>
+      <c r="B87" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>163</v>
+      </c>
+      <c r="B88" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>165</v>
+      </c>
+      <c r="B89" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>167</v>
+      </c>
+      <c r="B90" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>169</v>
+      </c>
+      <c r="B91" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>173</v>
+      </c>
+      <c r="B92" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>175</v>
+      </c>
+      <c r="B93" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>177</v>
+      </c>
+      <c r="B94" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>179</v>
+      </c>
+      <c r="B95" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>181</v>
+      </c>
+      <c r="B96" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>183</v>
+      </c>
+      <c r="B97" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>187</v>
+      </c>
+      <c r="B98" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>189</v>
+      </c>
+      <c r="B99" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B100" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>192</v>
+      </c>
+      <c r="B101" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>194</v>
+      </c>
+      <c r="B102" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>196</v>
+      </c>
+      <c r="B103" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>198</v>
+      </c>
+      <c r="B104" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>200</v>
+      </c>
+      <c r="B105" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>202</v>
+      </c>
+      <c r="B106" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>204</v>
+      </c>
+      <c r="B107" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B108" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>207</v>
+      </c>
+      <c r="B109" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B110" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>210</v>
+      </c>
+      <c r="B111" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>212</v>
+      </c>
+      <c r="B112" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B113" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>215</v>
+      </c>
+      <c r="B114" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>217</v>
+      </c>
+      <c r="B115" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>219</v>
+      </c>
+      <c r="B116" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>221</v>
+      </c>
+      <c r="B117" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>223</v>
+      </c>
+      <c r="B118" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>225</v>
+      </c>
+      <c r="B119" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>227</v>
+      </c>
+      <c r="B120" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>229</v>
+      </c>
+      <c r="B121" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>231</v>
+      </c>
+      <c r="B122" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>233</v>
+      </c>
+      <c r="B123" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>235</v>
+      </c>
+      <c r="B124" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>237</v>
+      </c>
+      <c r="B125" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>239</v>
+      </c>
+      <c r="B126" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B127" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>243</v>
+      </c>
+      <c r="B128" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>245</v>
+      </c>
+      <c r="B129" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>247</v>
+      </c>
+      <c r="B130" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>251</v>
+      </c>
+      <c r="B131" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>249</v>
+      </c>
+      <c r="B132" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>253</v>
+      </c>
+      <c r="B133" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B134" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>256</v>
+      </c>
+      <c r="B135" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>258</v>
+      </c>
+      <c r="B136" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>260</v>
+      </c>
+      <c r="B137" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>262</v>
+      </c>
+      <c r="B138" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>147</v>
+      </c>
+      <c r="B139" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>264</v>
+      </c>
+      <c r="B140" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>266</v>
+      </c>
+      <c r="B141" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>268</v>
+      </c>
+      <c r="B142" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>270</v>
+      </c>
+      <c r="B143" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>272</v>
+      </c>
+      <c r="B144" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>277</v>
+      </c>
+      <c r="B145" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B146" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>280</v>
+      </c>
+      <c r="B147" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>282</v>
+      </c>
+      <c r="B148" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>284</v>
+      </c>
+      <c r="B149" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>286</v>
+      </c>
+      <c r="B150" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>288</v>
+      </c>
+      <c r="B151" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>290</v>
+      </c>
+      <c r="B152" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B153" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>293</v>
+      </c>
+      <c r="B154" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>295</v>
+      </c>
+      <c r="B155" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B156" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>298</v>
+      </c>
+      <c r="B157" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B158" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B159" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>302</v>
+      </c>
+      <c r="B160" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>304</v>
+      </c>
+      <c r="B161" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>306</v>
+      </c>
+      <c r="B162" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B163" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>309</v>
+      </c>
+      <c r="B164" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>311</v>
+      </c>
+      <c r="B165" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B166" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>314</v>
+      </c>
+      <c r="B167" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>316</v>
+      </c>
+      <c r="B168" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>318</v>
+      </c>
+      <c r="B169" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>320</v>
+      </c>
+      <c r="B170" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>322</v>
+      </c>
+      <c r="B171" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>324</v>
+      </c>
+      <c r="B172" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>326</v>
+      </c>
+      <c r="B173" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>328</v>
+      </c>
+      <c r="B174" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>338</v>
+      </c>
+      <c r="B175" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B176" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>330</v>
+      </c>
+      <c r="B177" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>332</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>334</v>
+      </c>
+      <c r="B179" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>336</v>
+      </c>
+      <c r="B180" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>341</v>
+      </c>
+      <c r="B181" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>343</v>
+      </c>
+      <c r="B182" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>345</v>
+      </c>
+      <c r="B183" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>181</v>
+      </c>
+      <c r="B184" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>347</v>
+      </c>
+      <c r="B185" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>349</v>
+      </c>
+      <c r="B186" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>351</v>
+      </c>
+      <c r="B187" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>353</v>
+      </c>
+      <c r="B188" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>355</v>
+      </c>
+      <c r="B189" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>357</v>
+      </c>
+      <c r="B190" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>359</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>361</v>
+      </c>
+      <c r="B192" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B193" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>364</v>
+      </c>
+      <c r="B194" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>366</v>
+      </c>
+      <c r="B195" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>368</v>
+      </c>
+      <c r="B196" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>370</v>
+      </c>
+      <c r="B197" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>372</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>374</v>
+      </c>
+      <c r="B199" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>376</v>
+      </c>
+      <c r="B200" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>378</v>
+      </c>
+      <c r="B201" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>380</v>
+      </c>
+      <c r="B202" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>382</v>
+      </c>
+      <c r="B203" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B204" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>36</v>
+      </c>
+      <c r="B205" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B206" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>387</v>
+      </c>
+      <c r="B207" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B208" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>390</v>
+      </c>
+      <c r="B209" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>392</v>
+      </c>
+      <c r="B210" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>393</v>
+      </c>
+      <c r="B211" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>395</v>
+      </c>
+      <c r="B212" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>397</v>
+      </c>
+      <c r="B213" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>400</v>
+      </c>
+      <c r="B214" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>402</v>
+      </c>
+      <c r="B215" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>403</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>406</v>
+      </c>
+      <c r="B217" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B218" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>409</v>
+      </c>
+      <c r="B219" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>411</v>
+      </c>
+      <c r="B220" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>413</v>
+      </c>
+      <c r="B221" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>415</v>
+      </c>
+      <c r="B222" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B223" t="s">
+        <v>417</v>
       </c>
     </row>
   </sheetData>

--- a/Vocab_grabbed_on_the_way.xlsx
+++ b/Vocab_grabbed_on_the_way.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yxk\Documents\github\gre_resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7562D30E-81CF-4BE2-BE7E-68CA58F3690B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF945BEF-6E98-46B7-B416-03959B6D54E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21850" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="638">
   <si>
     <t>word</t>
   </si>
@@ -1728,6 +1728,263 @@
   </si>
   <si>
     <t>n. 得意洋洋，欣喜；提拔；举起</t>
+  </si>
+  <si>
+    <t>blighted</t>
+  </si>
+  <si>
+    <t>adj. 枯萎的；摧残的</t>
+  </si>
+  <si>
+    <t>v. 使染上枯萎病；毁坏（blight的过去式和过去分词）</t>
+  </si>
+  <si>
+    <t>picturesque</t>
+  </si>
+  <si>
+    <t>adj. 独特的；生动的；别致的；图画般的</t>
+  </si>
+  <si>
+    <t>decimated</t>
+  </si>
+  <si>
+    <t>vt. 摧毁；大幅度下降（decimate的过去式及过去分词）</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>adj. 易受攻击的，易受…的攻击；易受伤害的；有弱点的</t>
+  </si>
+  <si>
+    <t>inclusive</t>
+  </si>
+  <si>
+    <t>adj. 包含的，包括的；包含全部费用的； 包括提到的所有……在内的；范围广泛
+的；一切服务包含在内的；包括明示界限在内的；不排斥任何一方的；有意避免
+性别歧视的；兼收并蓄的</t>
+  </si>
+  <si>
+    <t>proxy</t>
+  </si>
+  <si>
+    <t>n. 代理人；委托书；代用品</t>
+  </si>
+  <si>
+    <t>surrogate</t>
+  </si>
+  <si>
+    <t>adj. 替代的，代理的</t>
+  </si>
+  <si>
+    <t>v. 取代，替代；指定（某人）为自己的代理人</t>
+  </si>
+  <si>
+    <t>n. 代理人；主教代理人；遗嘱检验法官</t>
+  </si>
+  <si>
+    <t>erstwhile</t>
+  </si>
+  <si>
+    <t>adj. 以前的；从前的；往昔的</t>
+  </si>
+  <si>
+    <t>florid</t>
+  </si>
+  <si>
+    <t>adj. 绚丽的；气色好的</t>
+  </si>
+  <si>
+    <t>defamatory</t>
+  </si>
+  <si>
+    <t>adj. 诽谤的；中伤的；破坏名誉的</t>
+  </si>
+  <si>
+    <t>calumnious</t>
+  </si>
+  <si>
+    <t>inveigle</t>
+  </si>
+  <si>
+    <t>adj. 中伤的；毁谤的</t>
+  </si>
+  <si>
+    <t>vt. 诱骗；诱使</t>
+  </si>
+  <si>
+    <t>timorous</t>
+  </si>
+  <si>
+    <t>adj. 胆怯的；胆小的；羞怯的</t>
+  </si>
+  <si>
+    <t>daring</t>
+  </si>
+  <si>
+    <t>adj. 大胆的，勇敢的</t>
+  </si>
+  <si>
+    <t>slander</t>
+  </si>
+  <si>
+    <t>n. 诽谤，中伤</t>
+  </si>
+  <si>
+    <t>courteous</t>
+  </si>
+  <si>
+    <t>adj. 有礼貌的；谦恭的</t>
+  </si>
+  <si>
+    <t>in that</t>
+  </si>
+  <si>
+    <t>因为；由于；既然</t>
+  </si>
+  <si>
+    <t>repudiate</t>
+  </si>
+  <si>
+    <t>vt. 拒绝；否定；批判；与…断绝关系；拒付</t>
+  </si>
+  <si>
+    <t>recapitulate</t>
+  </si>
+  <si>
+    <t>vi. vt. 概括；重述要点；摘要</t>
+  </si>
+  <si>
+    <t>eclectic</t>
+  </si>
+  <si>
+    <t>adj. 兼收并蓄的；不拘一格的；折中的，折中主义的</t>
+  </si>
+  <si>
+    <t>cynical</t>
+  </si>
+  <si>
+    <t>adj. 愤世嫉俗的；冷嘲的</t>
+  </si>
+  <si>
+    <t>grasp</t>
+  </si>
+  <si>
+    <t>comprehend, understand</t>
+  </si>
+  <si>
+    <t>triumph</t>
+  </si>
+  <si>
+    <t>arcane</t>
+  </si>
+  <si>
+    <t>adj. 神秘的；晦涩难解的；秘传的</t>
+  </si>
+  <si>
+    <t>n. 胜利，凯旋；欢欣</t>
+  </si>
+  <si>
+    <t>spurious</t>
+  </si>
+  <si>
+    <t>adj. 假的；伪造的；欺骗的</t>
+  </si>
+  <si>
+    <t>collude</t>
+  </si>
+  <si>
+    <t>vi. 勾结；串通；共谋</t>
+  </si>
+  <si>
+    <t>construe</t>
+  </si>
+  <si>
+    <t>vt. 分析；解释；翻译</t>
+  </si>
+  <si>
+    <t>anoint</t>
+  </si>
+  <si>
+    <t>vt. 给…涂油；用油擦；抹油使神圣化</t>
+  </si>
+  <si>
+    <t>playwright</t>
+  </si>
+  <si>
+    <t>n. 剧作家</t>
+  </si>
+  <si>
+    <t>jettison</t>
+  </si>
+  <si>
+    <t>n. 扔，投；废弃；投弃（船舶遇难时投弃货物以减轻负载）</t>
+  </si>
+  <si>
+    <t>distill</t>
+  </si>
+  <si>
+    <t>vt. 提取；蒸馏；使滴下</t>
+  </si>
+  <si>
+    <t>prevailing</t>
+  </si>
+  <si>
+    <t>adj. 流行的；一般的，最普通的；占优势的；盛行很广的</t>
+  </si>
+  <si>
+    <t>referenda</t>
+  </si>
+  <si>
+    <t>n. 普通投票</t>
+  </si>
+  <si>
+    <t>condole</t>
+  </si>
+  <si>
+    <t>vi. 慰问；吊唁；哀悼</t>
+  </si>
+  <si>
+    <t>sparing</t>
+  </si>
+  <si>
+    <t>adj. 适度的；节俭的；缺乏的</t>
+  </si>
+  <si>
+    <t>salubrious</t>
+  </si>
+  <si>
+    <t>adj. 清爽的；气候有益健康的</t>
+  </si>
+  <si>
+    <t>pernicious</t>
+  </si>
+  <si>
+    <t>adj. 有害的；恶性的；致命的；险恶的</t>
+  </si>
+  <si>
+    <t>pronoun</t>
+  </si>
+  <si>
+    <t>n. 代词</t>
+  </si>
+  <si>
+    <t>treacherous</t>
+  </si>
+  <si>
+    <t>adj. 奸诈的，叛逆的，背叛的；危险的；不牢靠的</t>
+  </si>
+  <si>
+    <t>allude</t>
+  </si>
+  <si>
+    <t>vi. 暗指，转弯抹角地说到；略为提及，顺便提到</t>
+  </si>
+  <si>
+    <t>infallibility</t>
+  </si>
+  <si>
+    <t>n. 无误；教皇永无谬误论</t>
   </si>
 </sst>
 </file>
@@ -2064,16 +2321,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C296"/>
+  <dimension ref="A1:XFD340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B296" sqref="B296"/>
+    <sheetView tabSelected="1" topLeftCell="A311" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B340" sqref="B340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="70.54296875" customWidth="1"/>
+    <col min="2" max="2" width="72.7265625" customWidth="1"/>
     <col min="3" max="3" width="25.54296875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4372,6 +4629,352 @@
       </c>
       <c r="B296" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
+        <v>553</v>
+      </c>
+      <c r="B297" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B298" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A299" t="s">
+        <v>556</v>
+      </c>
+      <c r="B299" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A300" t="s">
+        <v>558</v>
+      </c>
+      <c r="B300" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A301" t="s">
+        <v>560</v>
+      </c>
+      <c r="B301" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A302" t="s">
+        <v>562</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A303" t="s">
+        <v>564</v>
+      </c>
+      <c r="B303" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A304" t="s">
+        <v>566</v>
+      </c>
+      <c r="B304" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
+      <c r="B305" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
+      <c r="B306" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
+      <c r="A307" t="s">
+        <v>570</v>
+      </c>
+      <c r="B307" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
+      <c r="A308" t="s">
+        <v>572</v>
+      </c>
+      <c r="B308" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
+      <c r="A309" t="s">
+        <v>574</v>
+      </c>
+      <c r="B309" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
+      <c r="A310" t="s">
+        <v>576</v>
+      </c>
+      <c r="B310" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
+      <c r="A311" t="s">
+        <v>577</v>
+      </c>
+      <c r="B311" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
+      <c r="A312" t="s">
+        <v>580</v>
+      </c>
+      <c r="B312" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
+      <c r="A313" t="s">
+        <v>582</v>
+      </c>
+      <c r="B313" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
+      <c r="A314" t="s">
+        <v>584</v>
+      </c>
+      <c r="B314" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
+      <c r="A315" t="s">
+        <v>586</v>
+      </c>
+      <c r="B315" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
+      <c r="A316" t="s">
+        <v>588</v>
+      </c>
+      <c r="B316" t="s">
+        <v>589</v>
+      </c>
+      <c r="XFD316" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
+      <c r="A317" t="s">
+        <v>590</v>
+      </c>
+      <c r="B317" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
+      <c r="A318" t="s">
+        <v>592</v>
+      </c>
+      <c r="B318" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
+      <c r="A319" t="s">
+        <v>594</v>
+      </c>
+      <c r="B319" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
+      <c r="A320" t="s">
+        <v>596</v>
+      </c>
+      <c r="B320" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A321" t="s">
+        <v>598</v>
+      </c>
+      <c r="B321" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A322" t="s">
+        <v>601</v>
+      </c>
+      <c r="B322" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A323" t="s">
+        <v>600</v>
+      </c>
+      <c r="B323" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A324" t="s">
+        <v>604</v>
+      </c>
+      <c r="B324" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A325" t="s">
+        <v>606</v>
+      </c>
+      <c r="B325" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A326" t="s">
+        <v>608</v>
+      </c>
+      <c r="B326" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A327" t="s">
+        <v>610</v>
+      </c>
+      <c r="B327" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A328" t="s">
+        <v>612</v>
+      </c>
+      <c r="B328" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A329" t="s">
+        <v>614</v>
+      </c>
+      <c r="B329" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A330" t="s">
+        <v>616</v>
+      </c>
+      <c r="B330" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A331" t="s">
+        <v>618</v>
+      </c>
+      <c r="B331" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A332" t="s">
+        <v>620</v>
+      </c>
+      <c r="B332" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A333" t="s">
+        <v>622</v>
+      </c>
+      <c r="B333" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A334" t="s">
+        <v>624</v>
+      </c>
+      <c r="B334" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A335" t="s">
+        <v>626</v>
+      </c>
+      <c r="B335" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A336" t="s">
+        <v>628</v>
+      </c>
+      <c r="B336" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A337" t="s">
+        <v>630</v>
+      </c>
+      <c r="B337" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A338" t="s">
+        <v>632</v>
+      </c>
+      <c r="B338" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A339" t="s">
+        <v>634</v>
+      </c>
+      <c r="B339" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A340" t="s">
+        <v>636</v>
+      </c>
+      <c r="B340" t="s">
+        <v>637</v>
       </c>
     </row>
   </sheetData>
@@ -4382,10 +4985,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E920BA49-E4B4-47FC-A950-86C5CCE2F1FC}">
-  <dimension ref="A1:B223"/>
+  <dimension ref="A1:B296"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection sqref="A1:B296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6094,6 +6697,584 @@
         <v>417</v>
       </c>
     </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>295</v>
+      </c>
+      <c r="B224" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>418</v>
+      </c>
+      <c r="B225" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>420</v>
+      </c>
+      <c r="B226" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>422</v>
+      </c>
+      <c r="B227" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>424</v>
+      </c>
+      <c r="B228" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>426</v>
+      </c>
+      <c r="B229" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>428</v>
+      </c>
+      <c r="B230" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>430</v>
+      </c>
+      <c r="B231" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>432</v>
+      </c>
+      <c r="B232" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>434</v>
+      </c>
+      <c r="B233" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>436</v>
+      </c>
+      <c r="B234" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>438</v>
+      </c>
+      <c r="B235" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>440</v>
+      </c>
+      <c r="B236" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>441</v>
+      </c>
+      <c r="B237" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>444</v>
+      </c>
+      <c r="B238" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>446</v>
+      </c>
+      <c r="B239" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>448</v>
+      </c>
+      <c r="B240" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>450</v>
+      </c>
+      <c r="B241" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>452</v>
+      </c>
+      <c r="B242" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>454</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>456</v>
+      </c>
+      <c r="B244" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>458</v>
+      </c>
+      <c r="B245" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>460</v>
+      </c>
+      <c r="B246" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>462</v>
+      </c>
+      <c r="B247" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>464</v>
+      </c>
+      <c r="B248" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>466</v>
+      </c>
+      <c r="B249" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>468</v>
+      </c>
+      <c r="B250" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>260</v>
+      </c>
+      <c r="B251" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>470</v>
+      </c>
+      <c r="B252" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>472</v>
+      </c>
+      <c r="B253" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>474</v>
+      </c>
+      <c r="B254" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>476</v>
+      </c>
+      <c r="B255" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>478</v>
+      </c>
+      <c r="B256" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>480</v>
+      </c>
+      <c r="B257" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>482</v>
+      </c>
+      <c r="B258" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>484</v>
+      </c>
+      <c r="B259" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>486</v>
+      </c>
+      <c r="B260" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
+        <v>488</v>
+      </c>
+      <c r="B261" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B262" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>491</v>
+      </c>
+      <c r="B263" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
+        <v>493</v>
+      </c>
+      <c r="B264" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B265" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
+        <v>496</v>
+      </c>
+      <c r="B266" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
+        <v>498</v>
+      </c>
+      <c r="B267" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
+        <v>500</v>
+      </c>
+      <c r="B268" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
+        <v>502</v>
+      </c>
+      <c r="B269" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
+        <v>504</v>
+      </c>
+      <c r="B270" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
+        <v>506</v>
+      </c>
+      <c r="B271" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
+        <v>508</v>
+      </c>
+      <c r="B272" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A273" t="s">
+        <v>510</v>
+      </c>
+      <c r="B273" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A274" t="s">
+        <v>512</v>
+      </c>
+      <c r="B274" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
+        <v>514</v>
+      </c>
+      <c r="B275" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A276" t="s">
+        <v>516</v>
+      </c>
+      <c r="B276" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A277" t="s">
+        <v>518</v>
+      </c>
+      <c r="B277" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A278" t="s">
+        <v>520</v>
+      </c>
+      <c r="B278" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A279" t="s">
+        <v>522</v>
+      </c>
+      <c r="B279" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A280" t="s">
+        <v>524</v>
+      </c>
+      <c r="B280" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A281" t="s">
+        <v>526</v>
+      </c>
+      <c r="B281" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A282" t="s">
+        <v>528</v>
+      </c>
+      <c r="B282" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A283" t="s">
+        <v>403</v>
+      </c>
+      <c r="B283" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A284" t="s">
+        <v>531</v>
+      </c>
+      <c r="B284" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A285" t="s">
+        <v>533</v>
+      </c>
+      <c r="B285" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A286" t="s">
+        <v>535</v>
+      </c>
+      <c r="B286" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
+        <v>537</v>
+      </c>
+      <c r="B287" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A288" t="s">
+        <v>539</v>
+      </c>
+      <c r="B288" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
+        <v>395</v>
+      </c>
+      <c r="B289" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>541</v>
+      </c>
+      <c r="B290" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>543</v>
+      </c>
+      <c r="B291" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
+        <v>547</v>
+      </c>
+      <c r="B292" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
+        <v>545</v>
+      </c>
+      <c r="B293" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A294" t="s">
+        <v>549</v>
+      </c>
+      <c r="B294" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
+        <v>551</v>
+      </c>
+      <c r="B295" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A296" t="s">
+        <v>66</v>
+      </c>
+      <c r="B296" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Vocab_grabbed_on_the_way.xlsx
+++ b/Vocab_grabbed_on_the_way.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yxk\Documents\github\gre_resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF945BEF-6E98-46B7-B416-03959B6D54E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0066FB39-39DF-4622-AEDA-818D95101F20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21850" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="668">
   <si>
     <t>word</t>
   </si>
@@ -1985,6 +1985,96 @@
   </si>
   <si>
     <t>n. 无误；教皇永无谬误论</t>
+  </si>
+  <si>
+    <t>immunity</t>
+  </si>
+  <si>
+    <t>n. 免疫力；豁免权；免除</t>
+  </si>
+  <si>
+    <t>impartially</t>
+  </si>
+  <si>
+    <t>adv. 公平地；无私地</t>
+  </si>
+  <si>
+    <t>remedial</t>
+  </si>
+  <si>
+    <t>adj. 治疗的；补救的；矫正的</t>
+  </si>
+  <si>
+    <t>discomfit</t>
+  </si>
+  <si>
+    <t>vt. 挫败；扰乱，破坏；使…为难；使…破灭</t>
+  </si>
+  <si>
+    <t>expedient</t>
+  </si>
+  <si>
+    <t>adj. 权宜的；方便的；有利的</t>
+  </si>
+  <si>
+    <t>n. 权宜之计；应急手段</t>
+  </si>
+  <si>
+    <t>reside</t>
+  </si>
+  <si>
+    <t>vi. 住，居住；属于</t>
+  </si>
+  <si>
+    <t>comet</t>
+  </si>
+  <si>
+    <t>n. [天] 彗星</t>
+  </si>
+  <si>
+    <t>elliptical</t>
+  </si>
+  <si>
+    <t>adj. 椭圆的；省略的</t>
+  </si>
+  <si>
+    <t>slingshot</t>
+  </si>
+  <si>
+    <t>n. 弹弓</t>
+  </si>
+  <si>
+    <t>munificence</t>
+  </si>
+  <si>
+    <t>n. 慷慨给与；宽宏大量</t>
+  </si>
+  <si>
+    <t>inure</t>
+  </si>
+  <si>
+    <t>bode</t>
+  </si>
+  <si>
+    <t>vt. 预示；为…的兆头</t>
+  </si>
+  <si>
+    <t>sting</t>
+  </si>
+  <si>
+    <t>vt. 刺；驱使；使…苦恼；使…疼痛</t>
+  </si>
+  <si>
+    <t>vt. 使…习惯；使…适应</t>
+  </si>
+  <si>
+    <t>deviously</t>
+  </si>
+  <si>
+    <t>adv. 绕道地；弯曲地</t>
+  </si>
+  <si>
+    <t>craftily</t>
   </si>
 </sst>
 </file>
@@ -2321,10 +2411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD340"/>
+  <dimension ref="A1:XFD356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A311" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B340" sqref="B340"/>
+    <sheetView tabSelected="1" topLeftCell="A324" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B356" sqref="B356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4975,6 +5065,131 @@
       </c>
       <c r="B340" t="s">
         <v>637</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A341" t="s">
+        <v>638</v>
+      </c>
+      <c r="B341" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A342" t="s">
+        <v>640</v>
+      </c>
+      <c r="B342" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A343" t="s">
+        <v>642</v>
+      </c>
+      <c r="B343" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A344" t="s">
+        <v>644</v>
+      </c>
+      <c r="B344" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A345" t="s">
+        <v>646</v>
+      </c>
+      <c r="B345" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B346" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A347" t="s">
+        <v>649</v>
+      </c>
+      <c r="B347" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A348" t="s">
+        <v>651</v>
+      </c>
+      <c r="B348" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A349" t="s">
+        <v>653</v>
+      </c>
+      <c r="B349" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A350" t="s">
+        <v>655</v>
+      </c>
+      <c r="B350" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A351" t="s">
+        <v>657</v>
+      </c>
+      <c r="B351" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A352" t="s">
+        <v>659</v>
+      </c>
+      <c r="B352" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A353" t="s">
+        <v>660</v>
+      </c>
+      <c r="B353" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A354" t="s">
+        <v>662</v>
+      </c>
+      <c r="B354" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A355" t="s">
+        <v>665</v>
+      </c>
+      <c r="B355" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A356" t="s">
+        <v>667</v>
+      </c>
+      <c r="B356" t="s">
+        <v>667</v>
       </c>
     </row>
   </sheetData>

--- a/Vocab_grabbed_on_the_way.xlsx
+++ b/Vocab_grabbed_on_the_way.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yxk\Documents\github\gre_resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\gre_resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0066FB39-39DF-4622-AEDA-818D95101F20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F58A1D-2BAB-4528-8C17-8723C93E38A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21850" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="22302" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="729">
   <si>
     <t>word</t>
   </si>
@@ -2075,6 +2075,189 @@
   </si>
   <si>
     <t>craftily</t>
+  </si>
+  <si>
+    <t>adv. 狡猾地；熟练地；诡诈地</t>
+  </si>
+  <si>
+    <t>dubious</t>
+  </si>
+  <si>
+    <t>adj. 可疑的；暧昧的；无把握的；半信半疑的</t>
+  </si>
+  <si>
+    <t>ballyhooed</t>
+  </si>
+  <si>
+    <t>adj. 大肆宣传的；哗众取宠的</t>
+  </si>
+  <si>
+    <t>drollness</t>
+  </si>
+  <si>
+    <t>n. 幽默；诙谐</t>
+  </si>
+  <si>
+    <t>pensive</t>
+  </si>
+  <si>
+    <t>adj. 沉思的，忧郁的；悲伤的，哀愁的</t>
+  </si>
+  <si>
+    <t>stoicism</t>
+  </si>
+  <si>
+    <t>n. 默默忍受困难或痛苦</t>
+  </si>
+  <si>
+    <t>congeniality</t>
+  </si>
+  <si>
+    <t>n. 同性质；适意；意气相投；同精神</t>
+  </si>
+  <si>
+    <t>intriguing</t>
+  </si>
+  <si>
+    <t>adj. 有趣的；迷人的</t>
+  </si>
+  <si>
+    <t>fastidiousness</t>
+  </si>
+  <si>
+    <t>n. 一丝不苟；严格</t>
+  </si>
+  <si>
+    <t>innocuously</t>
+  </si>
+  <si>
+    <t>adv. 无害地；无毒地</t>
+  </si>
+  <si>
+    <t>commence</t>
+  </si>
+  <si>
+    <t>v. 开始；着手；&lt;英&gt;获得学位</t>
+  </si>
+  <si>
+    <t>panacea</t>
+  </si>
+  <si>
+    <t>n. 灵丹妙药；万能药</t>
+  </si>
+  <si>
+    <t>touted</t>
+  </si>
+  <si>
+    <t>adj. 被吹捧的 v. 招来顾客（tout过去式）</t>
+  </si>
+  <si>
+    <t>tenuous</t>
+  </si>
+  <si>
+    <t>adj. 纤细的；稀薄的；贫乏的</t>
+  </si>
+  <si>
+    <t>disgorge</t>
+  </si>
+  <si>
+    <t>vt. 吐出</t>
+  </si>
+  <si>
+    <t>consolidation</t>
+  </si>
+  <si>
+    <t>n. 巩固；合并；团结</t>
+  </si>
+  <si>
+    <t>acute</t>
+  </si>
+  <si>
+    <t>adj. 严重的，[医] 急性的；敏锐的；激烈的；尖声的</t>
+  </si>
+  <si>
+    <t>facet</t>
+  </si>
+  <si>
+    <t>n. 面；方面；小平面</t>
+  </si>
+  <si>
+    <t>avert</t>
+  </si>
+  <si>
+    <t>vt. 避免，防止；转移</t>
+  </si>
+  <si>
+    <t>portend</t>
+  </si>
+  <si>
+    <t>vt. 预示；预兆；意味着</t>
+  </si>
+  <si>
+    <t>arduous</t>
+  </si>
+  <si>
+    <t>adj. 努力的；费力的；险峻的</t>
+  </si>
+  <si>
+    <t>precarious</t>
+  </si>
+  <si>
+    <t>adj. 危险的；不确定的</t>
+  </si>
+  <si>
+    <t>exhilarating</t>
+  </si>
+  <si>
+    <t>v. 使高兴，使兴奋（exhilarate 的现在分词）</t>
+  </si>
+  <si>
+    <t>clandestine</t>
+  </si>
+  <si>
+    <t>adj. 秘密的，私下的；偷偷摸摸的</t>
+  </si>
+  <si>
+    <t>perilous</t>
+  </si>
+  <si>
+    <t>adj. 危险的，冒险的</t>
+  </si>
+  <si>
+    <t>indelible</t>
+  </si>
+  <si>
+    <t>adj. 难忘的；擦不掉的</t>
+  </si>
+  <si>
+    <t>diversion</t>
+  </si>
+  <si>
+    <t>n. 转移；消遣；分散注意力</t>
+  </si>
+  <si>
+    <t>accolade</t>
+  </si>
+  <si>
+    <t>n. 荣誉；荣誉称号授予仪式；连谱号；称赞</t>
+  </si>
+  <si>
+    <t>garner</t>
+  </si>
+  <si>
+    <t>vt. 获得；储存；把…储入谷仓</t>
+  </si>
+  <si>
+    <t>punctilious</t>
+  </si>
+  <si>
+    <t>myopic</t>
+  </si>
+  <si>
+    <t>adj. 近视的；目光短浅的</t>
+  </si>
+  <si>
+    <t>adj. 一丝不苟的；精密细心的；拘泥形式的</t>
   </si>
 </sst>
 </file>
@@ -2133,7 +2316,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2411,20 +2594,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD356"/>
+  <dimension ref="A1:XFD386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A324" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B356" sqref="B356"/>
+    <sheetView tabSelected="1" topLeftCell="A360" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B385" sqref="B385"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="72.7265625" customWidth="1"/>
-    <col min="3" max="3" width="25.54296875" customWidth="1"/>
+    <col min="2" max="2" width="72.734375" customWidth="1"/>
+    <col min="3" max="3" width="25.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2435,7 +2618,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2444,12 +2627,12 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2457,7 +2640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2465,7 +2648,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2473,7 +2656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2481,7 +2664,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2489,7 +2672,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2497,7 +2680,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2505,7 +2688,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -2513,7 +2696,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -2521,7 +2704,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -2529,7 +2712,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -2537,12 +2720,12 @@
         <v>275</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2550,12 +2733,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -2563,7 +2746,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -2571,7 +2754,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -2579,7 +2762,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -2587,7 +2770,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -2595,7 +2778,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -2603,7 +2786,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -2611,7 +2794,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -2619,7 +2802,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -2627,7 +2810,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -2635,7 +2818,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -2643,7 +2826,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -2651,7 +2834,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -2659,7 +2842,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -2667,7 +2850,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -2675,7 +2858,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>60</v>
       </c>
@@ -2683,7 +2866,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -2691,7 +2874,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>64</v>
       </c>
@@ -2699,7 +2882,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>66</v>
       </c>
@@ -2707,7 +2890,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>68</v>
       </c>
@@ -2715,7 +2898,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>70</v>
       </c>
@@ -2726,12 +2909,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>74</v>
       </c>
@@ -2739,7 +2922,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>76</v>
       </c>
@@ -2747,7 +2930,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -2755,7 +2938,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -2763,7 +2946,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>82</v>
       </c>
@@ -2771,7 +2954,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>84</v>
       </c>
@@ -2779,7 +2962,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>86</v>
       </c>
@@ -2787,7 +2970,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>88</v>
       </c>
@@ -2795,7 +2978,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>90</v>
       </c>
@@ -2803,12 +2986,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>93</v>
       </c>
@@ -2816,7 +2999,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>95</v>
       </c>
@@ -2824,7 +3007,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>97</v>
       </c>
@@ -2835,7 +3018,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>100</v>
       </c>
@@ -2843,7 +3026,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>106</v>
       </c>
@@ -2851,7 +3034,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>102</v>
       </c>
@@ -2859,7 +3042,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>103</v>
       </c>
@@ -2867,12 +3050,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>108</v>
       </c>
@@ -2880,7 +3063,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>109</v>
       </c>
@@ -2888,7 +3071,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>111</v>
       </c>
@@ -2896,7 +3079,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>113</v>
       </c>
@@ -2904,7 +3087,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>115</v>
       </c>
@@ -2912,7 +3095,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>117</v>
       </c>
@@ -2920,7 +3103,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>119</v>
       </c>
@@ -2928,12 +3111,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>122</v>
       </c>
@@ -2941,7 +3124,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>124</v>
       </c>
@@ -2949,7 +3132,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>126</v>
       </c>
@@ -2957,7 +3140,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>128</v>
       </c>
@@ -2965,7 +3148,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>130</v>
       </c>
@@ -2973,7 +3156,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>132</v>
       </c>
@@ -2981,7 +3164,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>133</v>
       </c>
@@ -2989,7 +3172,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>136</v>
       </c>
@@ -2997,7 +3180,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>138</v>
       </c>
@@ -3005,7 +3188,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>140</v>
       </c>
@@ -3013,12 +3196,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>143</v>
       </c>
@@ -3026,7 +3209,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>145</v>
       </c>
@@ -3034,7 +3217,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>147</v>
       </c>
@@ -3042,7 +3225,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>149</v>
       </c>
@@ -3050,7 +3233,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>151</v>
       </c>
@@ -3058,7 +3241,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>153</v>
       </c>
@@ -3066,7 +3249,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>155</v>
       </c>
@@ -3074,7 +3257,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>157</v>
       </c>
@@ -3082,7 +3265,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>159</v>
       </c>
@@ -3090,7 +3273,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>161</v>
       </c>
@@ -3098,7 +3281,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>171</v>
       </c>
@@ -3106,7 +3289,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>163</v>
       </c>
@@ -3114,7 +3297,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>165</v>
       </c>
@@ -3122,7 +3305,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>167</v>
       </c>
@@ -3130,7 +3313,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>169</v>
       </c>
@@ -3138,7 +3321,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>173</v>
       </c>
@@ -3146,7 +3329,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>175</v>
       </c>
@@ -3154,7 +3337,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>177</v>
       </c>
@@ -3165,7 +3348,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>179</v>
       </c>
@@ -3176,7 +3359,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>181</v>
       </c>
@@ -3184,7 +3367,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>183</v>
       </c>
@@ -3195,7 +3378,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>187</v>
       </c>
@@ -3203,7 +3386,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>189</v>
       </c>
@@ -3211,12 +3394,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B100" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>192</v>
       </c>
@@ -3224,7 +3407,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>194</v>
       </c>
@@ -3232,7 +3415,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>196</v>
       </c>
@@ -3240,7 +3423,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>198</v>
       </c>
@@ -3248,7 +3431,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>200</v>
       </c>
@@ -3256,7 +3439,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>202</v>
       </c>
@@ -3264,7 +3447,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>204</v>
       </c>
@@ -3272,12 +3455,12 @@
         <v>205</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B108" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>207</v>
       </c>
@@ -3285,12 +3468,12 @@
         <v>208</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B110" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>210</v>
       </c>
@@ -3298,7 +3481,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>212</v>
       </c>
@@ -3306,12 +3489,12 @@
         <v>213</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B113" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>215</v>
       </c>
@@ -3319,7 +3502,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>217</v>
       </c>
@@ -3327,7 +3510,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>219</v>
       </c>
@@ -3335,7 +3518,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>221</v>
       </c>
@@ -3343,7 +3526,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>223</v>
       </c>
@@ -3351,7 +3534,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>225</v>
       </c>
@@ -3359,7 +3542,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>227</v>
       </c>
@@ -3367,7 +3550,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>229</v>
       </c>
@@ -3375,7 +3558,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>231</v>
       </c>
@@ -3383,7 +3566,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>233</v>
       </c>
@@ -3391,7 +3574,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>235</v>
       </c>
@@ -3399,7 +3582,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>237</v>
       </c>
@@ -3407,7 +3590,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>239</v>
       </c>
@@ -3415,12 +3598,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B127" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>243</v>
       </c>
@@ -3428,7 +3611,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>245</v>
       </c>
@@ -3436,7 +3619,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>247</v>
       </c>
@@ -3444,7 +3627,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>251</v>
       </c>
@@ -3452,7 +3635,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>249</v>
       </c>
@@ -3460,7 +3643,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>253</v>
       </c>
@@ -3468,12 +3651,12 @@
         <v>254</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B134" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>256</v>
       </c>
@@ -3481,7 +3664,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>258</v>
       </c>
@@ -3489,7 +3672,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>260</v>
       </c>
@@ -3497,7 +3680,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>262</v>
       </c>
@@ -3505,7 +3688,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>147</v>
       </c>
@@ -3513,7 +3696,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>264</v>
       </c>
@@ -3521,7 +3704,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>266</v>
       </c>
@@ -3529,7 +3712,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
         <v>268</v>
       </c>
@@ -3537,7 +3720,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>270</v>
       </c>
@@ -3545,7 +3728,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
         <v>272</v>
       </c>
@@ -3553,7 +3736,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
         <v>277</v>
       </c>
@@ -3561,12 +3744,12 @@
         <v>278</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B146" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>280</v>
       </c>
@@ -3574,7 +3757,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>282</v>
       </c>
@@ -3582,7 +3765,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>284</v>
       </c>
@@ -3590,7 +3773,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>286</v>
       </c>
@@ -3598,7 +3781,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
         <v>288</v>
       </c>
@@ -3606,7 +3789,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>290</v>
       </c>
@@ -3614,12 +3797,12 @@
         <v>291</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B153" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>293</v>
       </c>
@@ -3627,7 +3810,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>295</v>
       </c>
@@ -3635,12 +3818,12 @@
         <v>296</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B156" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
         <v>298</v>
       </c>
@@ -3648,17 +3831,17 @@
         <v>299</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B158" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B159" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>302</v>
       </c>
@@ -3666,7 +3849,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
         <v>304</v>
       </c>
@@ -3674,7 +3857,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
         <v>306</v>
       </c>
@@ -3682,12 +3865,12 @@
         <v>307</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B163" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
         <v>309</v>
       </c>
@@ -3695,7 +3878,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
         <v>311</v>
       </c>
@@ -3703,12 +3886,12 @@
         <v>312</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B166" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
         <v>314</v>
       </c>
@@ -3716,7 +3899,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
         <v>316</v>
       </c>
@@ -3724,7 +3907,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
         <v>318</v>
       </c>
@@ -3732,7 +3915,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
         <v>320</v>
       </c>
@@ -3740,7 +3923,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
         <v>322</v>
       </c>
@@ -3748,7 +3931,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
         <v>324</v>
       </c>
@@ -3756,7 +3939,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
         <v>326</v>
       </c>
@@ -3764,7 +3947,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
         <v>328</v>
       </c>
@@ -3772,7 +3955,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
         <v>338</v>
       </c>
@@ -3780,12 +3963,12 @@
         <v>339</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B176" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
         <v>330</v>
       </c>
@@ -3793,7 +3976,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
         <v>332</v>
       </c>
@@ -3801,7 +3984,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
         <v>334</v>
       </c>
@@ -3809,7 +3992,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
         <v>336</v>
       </c>
@@ -3817,7 +4000,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
         <v>341</v>
       </c>
@@ -3825,7 +4008,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
         <v>343</v>
       </c>
@@ -3833,7 +4016,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
         <v>345</v>
       </c>
@@ -3841,7 +4024,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
         <v>181</v>
       </c>
@@ -3849,7 +4032,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
         <v>347</v>
       </c>
@@ -3857,7 +4040,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
         <v>349</v>
       </c>
@@ -3865,7 +4048,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
         <v>351</v>
       </c>
@@ -3873,7 +4056,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
         <v>353</v>
       </c>
@@ -3881,7 +4064,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
         <v>355</v>
       </c>
@@ -3889,7 +4072,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
         <v>357</v>
       </c>
@@ -3897,7 +4080,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
         <v>359</v>
       </c>
@@ -3905,7 +4088,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
         <v>361</v>
       </c>
@@ -3913,12 +4096,12 @@
         <v>362</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B193" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
         <v>364</v>
       </c>
@@ -3926,7 +4109,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
         <v>366</v>
       </c>
@@ -3934,7 +4117,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
         <v>368</v>
       </c>
@@ -3942,7 +4125,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
         <v>370</v>
       </c>
@@ -3950,7 +4133,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
         <v>372</v>
       </c>
@@ -3958,7 +4141,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
         <v>374</v>
       </c>
@@ -3966,7 +4149,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
         <v>376</v>
       </c>
@@ -3974,7 +4157,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
         <v>378</v>
       </c>
@@ -3982,7 +4165,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
         <v>380</v>
       </c>
@@ -3990,7 +4173,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
         <v>382</v>
       </c>
@@ -3998,12 +4181,12 @@
         <v>383</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B204" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
         <v>36</v>
       </c>
@@ -4011,12 +4194,12 @@
         <v>385</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B206" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
         <v>387</v>
       </c>
@@ -4024,12 +4207,12 @@
         <v>388</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B208" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
         <v>390</v>
       </c>
@@ -4037,7 +4220,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
         <v>392</v>
       </c>
@@ -4045,7 +4228,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
         <v>393</v>
       </c>
@@ -4053,7 +4236,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
         <v>395</v>
       </c>
@@ -4061,7 +4244,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
         <v>397</v>
       </c>
@@ -4069,7 +4252,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
         <v>400</v>
       </c>
@@ -4077,7 +4260,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
         <v>402</v>
       </c>
@@ -4085,7 +4268,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
         <v>403</v>
       </c>
@@ -4093,7 +4276,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
         <v>406</v>
       </c>
@@ -4101,12 +4284,12 @@
         <v>407</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B218" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
         <v>409</v>
       </c>
@@ -4114,7 +4297,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
         <v>411</v>
       </c>
@@ -4122,7 +4305,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
         <v>413</v>
       </c>
@@ -4130,7 +4313,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
         <v>415</v>
       </c>
@@ -4138,12 +4321,12 @@
         <v>416</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B223" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
         <v>295</v>
       </c>
@@ -4151,7 +4334,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
         <v>418</v>
       </c>
@@ -4159,7 +4342,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
         <v>420</v>
       </c>
@@ -4167,7 +4350,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
         <v>422</v>
       </c>
@@ -4175,7 +4358,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
         <v>424</v>
       </c>
@@ -4183,7 +4366,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
         <v>426</v>
       </c>
@@ -4191,7 +4374,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
         <v>428</v>
       </c>
@@ -4199,7 +4382,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
         <v>430</v>
       </c>
@@ -4207,7 +4390,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
         <v>432</v>
       </c>
@@ -4215,7 +4398,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
         <v>434</v>
       </c>
@@ -4223,7 +4406,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
         <v>436</v>
       </c>
@@ -4231,7 +4414,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
         <v>438</v>
       </c>
@@ -4239,7 +4422,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="s">
         <v>440</v>
       </c>
@@ -4247,7 +4430,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="s">
         <v>441</v>
       </c>
@@ -4255,7 +4438,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="s">
         <v>444</v>
       </c>
@@ -4263,7 +4446,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="s">
         <v>446</v>
       </c>
@@ -4271,7 +4454,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="s">
         <v>448</v>
       </c>
@@ -4279,7 +4462,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="s">
         <v>450</v>
       </c>
@@ -4287,7 +4470,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="s">
         <v>452</v>
       </c>
@@ -4295,7 +4478,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" t="s">
         <v>454</v>
       </c>
@@ -4303,7 +4486,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" t="s">
         <v>456</v>
       </c>
@@ -4311,7 +4494,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" t="s">
         <v>458</v>
       </c>
@@ -4319,7 +4502,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" t="s">
         <v>460</v>
       </c>
@@ -4327,7 +4510,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="s">
         <v>462</v>
       </c>
@@ -4335,7 +4518,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="s">
         <v>464</v>
       </c>
@@ -4343,7 +4526,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="s">
         <v>466</v>
       </c>
@@ -4351,7 +4534,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" t="s">
         <v>468</v>
       </c>
@@ -4359,7 +4542,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" t="s">
         <v>260</v>
       </c>
@@ -4367,7 +4550,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" t="s">
         <v>470</v>
       </c>
@@ -4375,7 +4558,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" t="s">
         <v>472</v>
       </c>
@@ -4383,7 +4566,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" t="s">
         <v>474</v>
       </c>
@@ -4391,7 +4574,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" t="s">
         <v>476</v>
       </c>
@@ -4399,7 +4582,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" t="s">
         <v>478</v>
       </c>
@@ -4407,7 +4590,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" t="s">
         <v>480</v>
       </c>
@@ -4415,7 +4598,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" t="s">
         <v>482</v>
       </c>
@@ -4423,7 +4606,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" t="s">
         <v>484</v>
       </c>
@@ -4431,7 +4614,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" t="s">
         <v>486</v>
       </c>
@@ -4439,7 +4622,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" t="s">
         <v>488</v>
       </c>
@@ -4447,12 +4630,12 @@
         <v>489</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B262" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" t="s">
         <v>491</v>
       </c>
@@ -4460,7 +4643,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" t="s">
         <v>493</v>
       </c>
@@ -4468,12 +4651,12 @@
         <v>494</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B265" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" t="s">
         <v>496</v>
       </c>
@@ -4481,7 +4664,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" t="s">
         <v>498</v>
       </c>
@@ -4489,7 +4672,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" t="s">
         <v>500</v>
       </c>
@@ -4497,7 +4680,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" t="s">
         <v>502</v>
       </c>
@@ -4505,7 +4688,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" t="s">
         <v>504</v>
       </c>
@@ -4513,7 +4696,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" t="s">
         <v>506</v>
       </c>
@@ -4521,7 +4704,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" t="s">
         <v>508</v>
       </c>
@@ -4529,7 +4712,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" t="s">
         <v>510</v>
       </c>
@@ -4537,7 +4720,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" t="s">
         <v>512</v>
       </c>
@@ -4545,7 +4728,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" t="s">
         <v>514</v>
       </c>
@@ -4553,7 +4736,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" t="s">
         <v>516</v>
       </c>
@@ -4561,7 +4744,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" t="s">
         <v>518</v>
       </c>
@@ -4569,7 +4752,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" t="s">
         <v>520</v>
       </c>
@@ -4577,7 +4760,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" t="s">
         <v>522</v>
       </c>
@@ -4585,7 +4768,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" t="s">
         <v>524</v>
       </c>
@@ -4593,7 +4776,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" t="s">
         <v>526</v>
       </c>
@@ -4601,7 +4784,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" t="s">
         <v>528</v>
       </c>
@@ -4609,7 +4792,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" t="s">
         <v>403</v>
       </c>
@@ -4617,7 +4800,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" t="s">
         <v>531</v>
       </c>
@@ -4625,7 +4808,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" t="s">
         <v>533</v>
       </c>
@@ -4633,7 +4816,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" t="s">
         <v>535</v>
       </c>
@@ -4641,7 +4824,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" t="s">
         <v>537</v>
       </c>
@@ -4649,7 +4832,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" t="s">
         <v>539</v>
       </c>
@@ -4657,7 +4840,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" t="s">
         <v>395</v>
       </c>
@@ -4665,7 +4848,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" t="s">
         <v>541</v>
       </c>
@@ -4673,7 +4856,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" t="s">
         <v>543</v>
       </c>
@@ -4681,7 +4864,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" t="s">
         <v>547</v>
       </c>
@@ -4689,7 +4872,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" t="s">
         <v>545</v>
       </c>
@@ -4697,7 +4880,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" t="s">
         <v>549</v>
       </c>
@@ -4705,7 +4888,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" t="s">
         <v>551</v>
       </c>
@@ -4713,7 +4896,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" t="s">
         <v>66</v>
       </c>
@@ -4721,7 +4904,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" t="s">
         <v>553</v>
       </c>
@@ -4729,12 +4912,12 @@
         <v>554</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B298" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" t="s">
         <v>556</v>
       </c>
@@ -4742,7 +4925,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" t="s">
         <v>558</v>
       </c>
@@ -4750,7 +4933,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" t="s">
         <v>560</v>
       </c>
@@ -4758,7 +4941,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" t="s">
         <v>562</v>
       </c>
@@ -4766,7 +4949,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" t="s">
         <v>564</v>
       </c>
@@ -4774,7 +4957,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" t="s">
         <v>566</v>
       </c>
@@ -4782,17 +4965,17 @@
         <v>567</v>
       </c>
     </row>
-    <row r="305" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:2 16384:16384" x14ac:dyDescent="0.55000000000000004">
       <c r="B305" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="306" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:2 16384:16384" x14ac:dyDescent="0.55000000000000004">
       <c r="B306" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="307" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:2 16384:16384" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" t="s">
         <v>570</v>
       </c>
@@ -4800,7 +4983,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="308" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:2 16384:16384" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" t="s">
         <v>572</v>
       </c>
@@ -4808,7 +4991,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="309" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:2 16384:16384" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" t="s">
         <v>574</v>
       </c>
@@ -4816,7 +4999,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="310" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:2 16384:16384" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" t="s">
         <v>576</v>
       </c>
@@ -4824,7 +5007,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="311" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:2 16384:16384" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" t="s">
         <v>577</v>
       </c>
@@ -4832,7 +5015,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="312" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:2 16384:16384" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" t="s">
         <v>580</v>
       </c>
@@ -4840,7 +5023,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="313" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:2 16384:16384" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" t="s">
         <v>582</v>
       </c>
@@ -4848,7 +5031,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="314" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:2 16384:16384" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" t="s">
         <v>584</v>
       </c>
@@ -4856,7 +5039,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="315" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:2 16384:16384" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" t="s">
         <v>586</v>
       </c>
@@ -4864,7 +5047,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="316" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:2 16384:16384" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" t="s">
         <v>588</v>
       </c>
@@ -4875,7 +5058,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="317" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:2 16384:16384" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" t="s">
         <v>590</v>
       </c>
@@ -4883,7 +5066,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="318" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:2 16384:16384" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" t="s">
         <v>592</v>
       </c>
@@ -4891,7 +5074,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="319" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:2 16384:16384" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" t="s">
         <v>594</v>
       </c>
@@ -4899,7 +5082,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="320" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:2 16384:16384" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" t="s">
         <v>596</v>
       </c>
@@ -4907,7 +5090,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" t="s">
         <v>598</v>
       </c>
@@ -4915,7 +5098,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" t="s">
         <v>601</v>
       </c>
@@ -4923,7 +5106,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" t="s">
         <v>600</v>
       </c>
@@ -4931,7 +5114,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" t="s">
         <v>604</v>
       </c>
@@ -4939,7 +5122,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" t="s">
         <v>606</v>
       </c>
@@ -4947,7 +5130,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" t="s">
         <v>608</v>
       </c>
@@ -4955,7 +5138,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" t="s">
         <v>610</v>
       </c>
@@ -4963,7 +5146,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" t="s">
         <v>612</v>
       </c>
@@ -4971,7 +5154,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" t="s">
         <v>614</v>
       </c>
@@ -4979,7 +5162,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" t="s">
         <v>616</v>
       </c>
@@ -4987,7 +5170,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" t="s">
         <v>618</v>
       </c>
@@ -4995,7 +5178,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" t="s">
         <v>620</v>
       </c>
@@ -5003,7 +5186,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" t="s">
         <v>622</v>
       </c>
@@ -5011,7 +5194,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" t="s">
         <v>624</v>
       </c>
@@ -5019,7 +5202,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" t="s">
         <v>626</v>
       </c>
@@ -5027,7 +5210,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" t="s">
         <v>628</v>
       </c>
@@ -5035,7 +5218,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" t="s">
         <v>630</v>
       </c>
@@ -5043,7 +5226,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" t="s">
         <v>632</v>
       </c>
@@ -5051,7 +5234,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" t="s">
         <v>634</v>
       </c>
@@ -5059,7 +5242,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" t="s">
         <v>636</v>
       </c>
@@ -5067,7 +5250,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" t="s">
         <v>638</v>
       </c>
@@ -5075,7 +5258,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" t="s">
         <v>640</v>
       </c>
@@ -5083,7 +5266,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" t="s">
         <v>642</v>
       </c>
@@ -5091,7 +5274,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" t="s">
         <v>644</v>
       </c>
@@ -5099,7 +5282,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" t="s">
         <v>646</v>
       </c>
@@ -5107,12 +5290,12 @@
         <v>647</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B346" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" t="s">
         <v>649</v>
       </c>
@@ -5120,7 +5303,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" t="s">
         <v>651</v>
       </c>
@@ -5128,7 +5311,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" t="s">
         <v>653</v>
       </c>
@@ -5136,7 +5319,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" t="s">
         <v>655</v>
       </c>
@@ -5144,7 +5327,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" t="s">
         <v>657</v>
       </c>
@@ -5152,7 +5335,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" t="s">
         <v>659</v>
       </c>
@@ -5160,7 +5343,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" t="s">
         <v>660</v>
       </c>
@@ -5168,7 +5351,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" t="s">
         <v>662</v>
       </c>
@@ -5176,7 +5359,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" t="s">
         <v>665</v>
       </c>
@@ -5184,12 +5367,252 @@
         <v>666</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" t="s">
         <v>667</v>
       </c>
       <c r="B356" t="s">
-        <v>667</v>
+        <v>668</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A357" t="s">
+        <v>669</v>
+      </c>
+      <c r="B357" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A358" t="s">
+        <v>671</v>
+      </c>
+      <c r="B358" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A359" t="s">
+        <v>673</v>
+      </c>
+      <c r="B359" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A360" t="s">
+        <v>675</v>
+      </c>
+      <c r="B360" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A361" t="s">
+        <v>677</v>
+      </c>
+      <c r="B361" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A362" t="s">
+        <v>679</v>
+      </c>
+      <c r="B362" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A363" t="s">
+        <v>681</v>
+      </c>
+      <c r="B363" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A364" t="s">
+        <v>683</v>
+      </c>
+      <c r="B364" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A365" t="s">
+        <v>685</v>
+      </c>
+      <c r="B365" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A366" t="s">
+        <v>687</v>
+      </c>
+      <c r="B366" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A367" t="s">
+        <v>689</v>
+      </c>
+      <c r="B367" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A368" t="s">
+        <v>691</v>
+      </c>
+      <c r="B368" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A369" t="s">
+        <v>693</v>
+      </c>
+      <c r="B369" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A370" t="s">
+        <v>695</v>
+      </c>
+      <c r="B370" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A371" t="s">
+        <v>697</v>
+      </c>
+      <c r="B371" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A372" t="s">
+        <v>699</v>
+      </c>
+      <c r="B372" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A373" t="s">
+        <v>701</v>
+      </c>
+      <c r="B373" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A374" t="s">
+        <v>703</v>
+      </c>
+      <c r="B374" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A375" t="s">
+        <v>705</v>
+      </c>
+      <c r="B375" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A376" t="s">
+        <v>707</v>
+      </c>
+      <c r="B376" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A377" t="s">
+        <v>709</v>
+      </c>
+      <c r="B377" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A378" t="s">
+        <v>711</v>
+      </c>
+      <c r="B378" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A379" t="s">
+        <v>713</v>
+      </c>
+      <c r="B379" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A380" t="s">
+        <v>715</v>
+      </c>
+      <c r="B380" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A381" t="s">
+        <v>717</v>
+      </c>
+      <c r="B381" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A382" t="s">
+        <v>719</v>
+      </c>
+      <c r="B382" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A383" t="s">
+        <v>721</v>
+      </c>
+      <c r="B383" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A384" t="s">
+        <v>723</v>
+      </c>
+      <c r="B384" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A385" t="s">
+        <v>725</v>
+      </c>
+      <c r="B385" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A386" t="s">
+        <v>726</v>
+      </c>
+      <c r="B386" t="s">
+        <v>727</v>
       </c>
     </row>
   </sheetData>
@@ -5206,13 +5629,13 @@
       <selection sqref="A1:B296"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" customWidth="1"/>
-    <col min="2" max="2" width="58.7265625" customWidth="1"/>
+    <col min="1" max="1" width="12.5234375" customWidth="1"/>
+    <col min="2" max="2" width="58.734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5220,7 +5643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5228,12 +5651,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -5241,7 +5664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -5249,7 +5672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -5257,7 +5680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -5265,7 +5688,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -5273,7 +5696,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -5281,7 +5704,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -5289,7 +5712,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -5297,7 +5720,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -5305,7 +5728,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -5313,7 +5736,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -5321,12 +5744,12 @@
         <v>275</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -5334,12 +5757,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -5347,7 +5770,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -5355,7 +5778,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -5363,7 +5786,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -5371,7 +5794,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -5379,7 +5802,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -5387,7 +5810,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -5395,7 +5818,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -5403,7 +5826,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -5411,7 +5834,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -5419,7 +5842,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -5427,7 +5850,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -5435,7 +5858,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -5443,7 +5866,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -5451,7 +5874,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -5459,7 +5882,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>60</v>
       </c>
@@ -5467,7 +5890,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -5475,7 +5898,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>64</v>
       </c>
@@ -5483,7 +5906,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>66</v>
       </c>
@@ -5491,7 +5914,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>68</v>
       </c>
@@ -5499,7 +5922,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>70</v>
       </c>
@@ -5507,12 +5930,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>74</v>
       </c>
@@ -5520,7 +5943,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>76</v>
       </c>
@@ -5528,7 +5951,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -5536,7 +5959,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -5544,7 +5967,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>82</v>
       </c>
@@ -5552,7 +5975,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>84</v>
       </c>
@@ -5560,7 +5983,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>86</v>
       </c>
@@ -5568,7 +5991,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>88</v>
       </c>
@@ -5576,7 +5999,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>90</v>
       </c>
@@ -5584,12 +6007,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>93</v>
       </c>
@@ -5597,7 +6020,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>95</v>
       </c>
@@ -5605,7 +6028,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>97</v>
       </c>
@@ -5613,7 +6036,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>100</v>
       </c>
@@ -5621,7 +6044,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>106</v>
       </c>
@@ -5629,7 +6052,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>102</v>
       </c>
@@ -5637,7 +6060,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>103</v>
       </c>
@@ -5645,12 +6068,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>108</v>
       </c>
@@ -5658,7 +6081,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>109</v>
       </c>
@@ -5666,7 +6089,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>111</v>
       </c>
@@ -5674,7 +6097,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>113</v>
       </c>
@@ -5682,7 +6105,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>115</v>
       </c>
@@ -5690,7 +6113,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>117</v>
       </c>
@@ -5698,7 +6121,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>119</v>
       </c>
@@ -5706,12 +6129,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>122</v>
       </c>
@@ -5719,7 +6142,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>124</v>
       </c>
@@ -5727,7 +6150,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>126</v>
       </c>
@@ -5735,7 +6158,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>128</v>
       </c>
@@ -5743,7 +6166,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>130</v>
       </c>
@@ -5751,7 +6174,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>132</v>
       </c>
@@ -5759,7 +6182,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>133</v>
       </c>
@@ -5767,7 +6190,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>136</v>
       </c>
@@ -5775,7 +6198,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>138</v>
       </c>
@@ -5783,7 +6206,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>140</v>
       </c>
@@ -5791,12 +6214,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>143</v>
       </c>
@@ -5804,7 +6227,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>145</v>
       </c>
@@ -5812,7 +6235,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>147</v>
       </c>
@@ -5820,7 +6243,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>149</v>
       </c>
@@ -5828,7 +6251,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>151</v>
       </c>
@@ -5836,7 +6259,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>153</v>
       </c>
@@ -5844,7 +6267,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>155</v>
       </c>
@@ -5852,7 +6275,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>157</v>
       </c>
@@ -5860,7 +6283,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>159</v>
       </c>
@@ -5868,7 +6291,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>161</v>
       </c>
@@ -5876,7 +6299,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>171</v>
       </c>
@@ -5884,7 +6307,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>163</v>
       </c>
@@ -5892,7 +6315,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>165</v>
       </c>
@@ -5900,7 +6323,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>167</v>
       </c>
@@ -5908,7 +6331,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>169</v>
       </c>
@@ -5916,7 +6339,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>173</v>
       </c>
@@ -5924,7 +6347,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>175</v>
       </c>
@@ -5932,7 +6355,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>177</v>
       </c>
@@ -5940,7 +6363,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>179</v>
       </c>
@@ -5948,7 +6371,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>181</v>
       </c>
@@ -5956,7 +6379,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>183</v>
       </c>
@@ -5964,7 +6387,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>187</v>
       </c>
@@ -5972,7 +6395,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>189</v>
       </c>
@@ -5980,12 +6403,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B100" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>192</v>
       </c>
@@ -5993,7 +6416,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>194</v>
       </c>
@@ -6001,7 +6424,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>196</v>
       </c>
@@ -6009,7 +6432,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>198</v>
       </c>
@@ -6017,7 +6440,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>200</v>
       </c>
@@ -6025,7 +6448,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>202</v>
       </c>
@@ -6033,7 +6456,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>204</v>
       </c>
@@ -6041,12 +6464,12 @@
         <v>205</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B108" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>207</v>
       </c>
@@ -6054,12 +6477,12 @@
         <v>208</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B110" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>210</v>
       </c>
@@ -6067,7 +6490,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>212</v>
       </c>
@@ -6075,12 +6498,12 @@
         <v>213</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B113" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>215</v>
       </c>
@@ -6088,7 +6511,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>217</v>
       </c>
@@ -6096,7 +6519,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>219</v>
       </c>
@@ -6104,7 +6527,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>221</v>
       </c>
@@ -6112,7 +6535,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>223</v>
       </c>
@@ -6120,7 +6543,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>225</v>
       </c>
@@ -6128,7 +6551,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>227</v>
       </c>
@@ -6136,7 +6559,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>229</v>
       </c>
@@ -6144,7 +6567,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>231</v>
       </c>
@@ -6152,7 +6575,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>233</v>
       </c>
@@ -6160,7 +6583,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>235</v>
       </c>
@@ -6168,7 +6591,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>237</v>
       </c>
@@ -6176,7 +6599,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>239</v>
       </c>
@@ -6184,12 +6607,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B127" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>243</v>
       </c>
@@ -6197,7 +6620,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>245</v>
       </c>
@@ -6205,7 +6628,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>247</v>
       </c>
@@ -6213,7 +6636,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>251</v>
       </c>
@@ -6221,7 +6644,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>249</v>
       </c>
@@ -6229,7 +6652,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>253</v>
       </c>
@@ -6237,12 +6660,12 @@
         <v>254</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B134" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>256</v>
       </c>
@@ -6250,7 +6673,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>258</v>
       </c>
@@ -6258,7 +6681,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>260</v>
       </c>
@@ -6266,7 +6689,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>262</v>
       </c>
@@ -6274,7 +6697,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>147</v>
       </c>
@@ -6282,7 +6705,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>264</v>
       </c>
@@ -6290,7 +6713,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>266</v>
       </c>
@@ -6298,7 +6721,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
         <v>268</v>
       </c>
@@ -6306,7 +6729,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>270</v>
       </c>
@@ -6314,7 +6737,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
         <v>272</v>
       </c>
@@ -6322,7 +6745,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
         <v>277</v>
       </c>
@@ -6330,12 +6753,12 @@
         <v>278</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B146" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>280</v>
       </c>
@@ -6343,7 +6766,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>282</v>
       </c>
@@ -6351,7 +6774,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>284</v>
       </c>
@@ -6359,7 +6782,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>286</v>
       </c>
@@ -6367,7 +6790,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
         <v>288</v>
       </c>
@@ -6375,7 +6798,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>290</v>
       </c>
@@ -6383,12 +6806,12 @@
         <v>291</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B153" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>293</v>
       </c>
@@ -6396,7 +6819,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>295</v>
       </c>
@@ -6404,12 +6827,12 @@
         <v>296</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B156" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
         <v>298</v>
       </c>
@@ -6417,17 +6840,17 @@
         <v>299</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B158" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B159" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>302</v>
       </c>
@@ -6435,7 +6858,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
         <v>304</v>
       </c>
@@ -6443,7 +6866,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
         <v>306</v>
       </c>
@@ -6451,12 +6874,12 @@
         <v>307</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B163" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
         <v>309</v>
       </c>
@@ -6464,7 +6887,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
         <v>311</v>
       </c>
@@ -6472,12 +6895,12 @@
         <v>312</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B166" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
         <v>314</v>
       </c>
@@ -6485,7 +6908,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
         <v>316</v>
       </c>
@@ -6493,7 +6916,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
         <v>318</v>
       </c>
@@ -6501,7 +6924,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
         <v>320</v>
       </c>
@@ -6509,7 +6932,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
         <v>322</v>
       </c>
@@ -6517,7 +6940,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
         <v>324</v>
       </c>
@@ -6525,7 +6948,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
         <v>326</v>
       </c>
@@ -6533,7 +6956,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
         <v>328</v>
       </c>
@@ -6541,7 +6964,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
         <v>338</v>
       </c>
@@ -6549,12 +6972,12 @@
         <v>339</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B176" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
         <v>330</v>
       </c>
@@ -6562,7 +6985,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
         <v>332</v>
       </c>
@@ -6570,7 +6993,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
         <v>334</v>
       </c>
@@ -6578,7 +7001,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
         <v>336</v>
       </c>
@@ -6586,7 +7009,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
         <v>341</v>
       </c>
@@ -6594,7 +7017,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
         <v>343</v>
       </c>
@@ -6602,7 +7025,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
         <v>345</v>
       </c>
@@ -6610,7 +7033,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
         <v>181</v>
       </c>
@@ -6618,7 +7041,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
         <v>347</v>
       </c>
@@ -6626,7 +7049,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
         <v>349</v>
       </c>
@@ -6634,7 +7057,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
         <v>351</v>
       </c>
@@ -6642,7 +7065,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
         <v>353</v>
       </c>
@@ -6650,7 +7073,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
         <v>355</v>
       </c>
@@ -6658,7 +7081,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
         <v>357</v>
       </c>
@@ -6666,7 +7089,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
         <v>359</v>
       </c>
@@ -6674,7 +7097,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
         <v>361</v>
       </c>
@@ -6682,12 +7105,12 @@
         <v>362</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B193" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
         <v>364</v>
       </c>
@@ -6695,7 +7118,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
         <v>366</v>
       </c>
@@ -6703,7 +7126,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
         <v>368</v>
       </c>
@@ -6711,7 +7134,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
         <v>370</v>
       </c>
@@ -6719,7 +7142,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
         <v>372</v>
       </c>
@@ -6727,7 +7150,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
         <v>374</v>
       </c>
@@ -6735,7 +7158,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
         <v>376</v>
       </c>
@@ -6743,7 +7166,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
         <v>378</v>
       </c>
@@ -6751,7 +7174,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
         <v>380</v>
       </c>
@@ -6759,7 +7182,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
         <v>382</v>
       </c>
@@ -6767,12 +7190,12 @@
         <v>383</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B204" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
         <v>36</v>
       </c>
@@ -6780,12 +7203,12 @@
         <v>385</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B206" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
         <v>387</v>
       </c>
@@ -6793,12 +7216,12 @@
         <v>388</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B208" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
         <v>390</v>
       </c>
@@ -6806,7 +7229,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
         <v>392</v>
       </c>
@@ -6814,7 +7237,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
         <v>393</v>
       </c>
@@ -6822,7 +7245,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
         <v>395</v>
       </c>
@@ -6830,7 +7253,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
         <v>397</v>
       </c>
@@ -6838,7 +7261,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
         <v>400</v>
       </c>
@@ -6846,7 +7269,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
         <v>402</v>
       </c>
@@ -6854,7 +7277,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
         <v>403</v>
       </c>
@@ -6862,7 +7285,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
         <v>406</v>
       </c>
@@ -6870,12 +7293,12 @@
         <v>407</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B218" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
         <v>409</v>
       </c>
@@ -6883,7 +7306,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
         <v>411</v>
       </c>
@@ -6891,7 +7314,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
         <v>413</v>
       </c>
@@ -6899,7 +7322,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
         <v>415</v>
       </c>
@@ -6907,12 +7330,12 @@
         <v>416</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B223" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
         <v>295</v>
       </c>
@@ -6920,7 +7343,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
         <v>418</v>
       </c>
@@ -6928,7 +7351,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
         <v>420</v>
       </c>
@@ -6936,7 +7359,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
         <v>422</v>
       </c>
@@ -6944,7 +7367,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
         <v>424</v>
       </c>
@@ -6952,7 +7375,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
         <v>426</v>
       </c>
@@ -6960,7 +7383,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
         <v>428</v>
       </c>
@@ -6968,7 +7391,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
         <v>430</v>
       </c>
@@ -6976,7 +7399,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
         <v>432</v>
       </c>
@@ -6984,7 +7407,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
         <v>434</v>
       </c>
@@ -6992,7 +7415,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
         <v>436</v>
       </c>
@@ -7000,7 +7423,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
         <v>438</v>
       </c>
@@ -7008,7 +7431,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="s">
         <v>440</v>
       </c>
@@ -7016,7 +7439,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="s">
         <v>441</v>
       </c>
@@ -7024,7 +7447,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="s">
         <v>444</v>
       </c>
@@ -7032,7 +7455,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="s">
         <v>446</v>
       </c>
@@ -7040,7 +7463,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="s">
         <v>448</v>
       </c>
@@ -7048,7 +7471,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="s">
         <v>450</v>
       </c>
@@ -7056,7 +7479,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="s">
         <v>452</v>
       </c>
@@ -7064,7 +7487,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" t="s">
         <v>454</v>
       </c>
@@ -7072,7 +7495,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" t="s">
         <v>456</v>
       </c>
@@ -7080,7 +7503,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" t="s">
         <v>458</v>
       </c>
@@ -7088,7 +7511,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" t="s">
         <v>460</v>
       </c>
@@ -7096,7 +7519,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="s">
         <v>462</v>
       </c>
@@ -7104,7 +7527,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="s">
         <v>464</v>
       </c>
@@ -7112,7 +7535,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="s">
         <v>466</v>
       </c>
@@ -7120,7 +7543,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" t="s">
         <v>468</v>
       </c>
@@ -7128,7 +7551,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" t="s">
         <v>260</v>
       </c>
@@ -7136,7 +7559,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" t="s">
         <v>470</v>
       </c>
@@ -7144,7 +7567,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" t="s">
         <v>472</v>
       </c>
@@ -7152,7 +7575,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" t="s">
         <v>474</v>
       </c>
@@ -7160,7 +7583,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" t="s">
         <v>476</v>
       </c>
@@ -7168,7 +7591,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" t="s">
         <v>478</v>
       </c>
@@ -7176,7 +7599,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" t="s">
         <v>480</v>
       </c>
@@ -7184,7 +7607,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" t="s">
         <v>482</v>
       </c>
@@ -7192,7 +7615,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" t="s">
         <v>484</v>
       </c>
@@ -7200,7 +7623,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" t="s">
         <v>486</v>
       </c>
@@ -7208,7 +7631,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" t="s">
         <v>488</v>
       </c>
@@ -7216,12 +7639,12 @@
         <v>489</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B262" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" t="s">
         <v>491</v>
       </c>
@@ -7229,7 +7652,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" t="s">
         <v>493</v>
       </c>
@@ -7237,12 +7660,12 @@
         <v>494</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B265" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" t="s">
         <v>496</v>
       </c>
@@ -7250,7 +7673,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" t="s">
         <v>498</v>
       </c>
@@ -7258,7 +7681,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" t="s">
         <v>500</v>
       </c>
@@ -7266,7 +7689,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" t="s">
         <v>502</v>
       </c>
@@ -7274,7 +7697,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" t="s">
         <v>504</v>
       </c>
@@ -7282,7 +7705,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" t="s">
         <v>506</v>
       </c>
@@ -7290,7 +7713,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" t="s">
         <v>508</v>
       </c>
@@ -7298,7 +7721,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" t="s">
         <v>510</v>
       </c>
@@ -7306,7 +7729,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" t="s">
         <v>512</v>
       </c>
@@ -7314,7 +7737,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" t="s">
         <v>514</v>
       </c>
@@ -7322,7 +7745,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" t="s">
         <v>516</v>
       </c>
@@ -7330,7 +7753,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" t="s">
         <v>518</v>
       </c>
@@ -7338,7 +7761,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" t="s">
         <v>520</v>
       </c>
@@ -7346,7 +7769,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" t="s">
         <v>522</v>
       </c>
@@ -7354,7 +7777,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" t="s">
         <v>524</v>
       </c>
@@ -7362,7 +7785,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" t="s">
         <v>526</v>
       </c>
@@ -7370,7 +7793,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" t="s">
         <v>528</v>
       </c>
@@ -7378,7 +7801,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" t="s">
         <v>403</v>
       </c>
@@ -7386,7 +7809,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" t="s">
         <v>531</v>
       </c>
@@ -7394,7 +7817,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" t="s">
         <v>533</v>
       </c>
@@ -7402,7 +7825,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" t="s">
         <v>535</v>
       </c>
@@ -7410,7 +7833,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" t="s">
         <v>537</v>
       </c>
@@ -7418,7 +7841,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" t="s">
         <v>539</v>
       </c>
@@ -7426,7 +7849,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" t="s">
         <v>395</v>
       </c>
@@ -7434,7 +7857,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" t="s">
         <v>541</v>
       </c>
@@ -7442,7 +7865,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" t="s">
         <v>543</v>
       </c>
@@ -7450,7 +7873,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" t="s">
         <v>547</v>
       </c>
@@ -7458,7 +7881,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" t="s">
         <v>545</v>
       </c>
@@ -7466,7 +7889,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" t="s">
         <v>549</v>
       </c>
@@ -7474,7 +7897,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" t="s">
         <v>551</v>
       </c>
@@ -7482,7 +7905,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" t="s">
         <v>66</v>
       </c>

--- a/Vocab_grabbed_on_the_way.xlsx
+++ b/Vocab_grabbed_on_the_way.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\gre_resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F58A1D-2BAB-4528-8C17-8723C93E38A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E93F4C-F55F-471D-8F69-B7C901224834}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="22302" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="735">
   <si>
     <t>word</t>
   </si>
@@ -2258,6 +2258,24 @@
   </si>
   <si>
     <t>adj. 一丝不苟的；精密细心的；拘泥形式的</t>
+  </si>
+  <si>
+    <t>blithe</t>
+  </si>
+  <si>
+    <t>adj. 愉快的；快乐无忧的</t>
+  </si>
+  <si>
+    <t>megalomaniacal</t>
+  </si>
+  <si>
+    <t>夸大狂(者)的</t>
+  </si>
+  <si>
+    <t>indolent</t>
+  </si>
+  <si>
+    <t>adj. 懒惰的；无痛的</t>
   </si>
 </sst>
 </file>
@@ -2594,10 +2612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD386"/>
+  <dimension ref="A1:XFD389"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A360" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B385" sqref="B385"/>
+      <selection activeCell="B389" sqref="B389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5613,6 +5631,30 @@
       </c>
       <c r="B386" t="s">
         <v>727</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A387" t="s">
+        <v>729</v>
+      </c>
+      <c r="B387" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A388" t="s">
+        <v>731</v>
+      </c>
+      <c r="B388" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A389" t="s">
+        <v>733</v>
+      </c>
+      <c r="B389" t="s">
+        <v>734</v>
       </c>
     </row>
   </sheetData>

--- a/Vocab_grabbed_on_the_way.xlsx
+++ b/Vocab_grabbed_on_the_way.xlsx
@@ -8,25 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\gre_resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E93F4C-F55F-471D-8F69-B7C901224834}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1037B79-0A1A-4215-9908-33D051821585}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="22302" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="22302" windowHeight="13152" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="907">
   <si>
     <t>word</t>
   </si>
@@ -2276,6 +2284,522 @@
   </si>
   <si>
     <t>adj. 懒惰的；无痛的</t>
+  </si>
+  <si>
+    <t>exalt</t>
+  </si>
+  <si>
+    <t>vt. 提升；提拔；赞扬；使得意</t>
+  </si>
+  <si>
+    <t>veracity</t>
+  </si>
+  <si>
+    <t>n. 真实，准确；诚实</t>
+  </si>
+  <si>
+    <t>anomalous</t>
+  </si>
+  <si>
+    <t>adj. 异常的；不规则的；不恰当的</t>
+  </si>
+  <si>
+    <t>hominid</t>
+  </si>
+  <si>
+    <t>n. 原始人类；人科动物</t>
+  </si>
+  <si>
+    <t>conjectural</t>
+  </si>
+  <si>
+    <t>adj. 推测的；好推测的</t>
+  </si>
+  <si>
+    <t>extraneous</t>
+  </si>
+  <si>
+    <t>adj. 外来的；没有关联的；来自体外的</t>
+  </si>
+  <si>
+    <t>improbable</t>
+  </si>
+  <si>
+    <t>adj. 不大可能的，未必确实的；不可信的；未必会发生的</t>
+  </si>
+  <si>
+    <t>aver</t>
+  </si>
+  <si>
+    <t>vt. 断言，极力声明；主张</t>
+  </si>
+  <si>
+    <t>feeble</t>
+  </si>
+  <si>
+    <t>adj. 微弱的，无力的；虚弱的；薄弱的</t>
+  </si>
+  <si>
+    <t>robust</t>
+  </si>
+  <si>
+    <t>adj. 强健的；健康的；粗野的；粗鲁的</t>
+  </si>
+  <si>
+    <t>swift</t>
+  </si>
+  <si>
+    <t>adj. 迅速的，快的，敏捷的；立刻的</t>
+  </si>
+  <si>
+    <t>fervor</t>
+  </si>
+  <si>
+    <t>n. 热情；热烈；热心；炽热</t>
+  </si>
+  <si>
+    <t>prestigious</t>
+  </si>
+  <si>
+    <t>adj. 享有声望的，受尊敬的，地位显赫的</t>
+  </si>
+  <si>
+    <t>discern</t>
+  </si>
+  <si>
+    <t>vt. 觉察出；识别；了解；隐约看见</t>
+  </si>
+  <si>
+    <t>acquaint</t>
+  </si>
+  <si>
+    <t>vt. 使熟悉；使认识</t>
+  </si>
+  <si>
+    <t>pugnacious</t>
+  </si>
+  <si>
+    <t>adj. 好斗的，好战的</t>
+  </si>
+  <si>
+    <t>complacent</t>
+  </si>
+  <si>
+    <t>adj. 自满的；得意的；满足的</t>
+  </si>
+  <si>
+    <t>dissent</t>
+  </si>
+  <si>
+    <t>v. 不同意；对国教（或东正教教义）不遵循</t>
+  </si>
+  <si>
+    <t>pursuit</t>
+  </si>
+  <si>
+    <t>n. 追赶，追求；职业，工作</t>
+  </si>
+  <si>
+    <t>unequivocal</t>
+  </si>
+  <si>
+    <t>adj. 明确的；不含糊的</t>
+  </si>
+  <si>
+    <t>mercenary</t>
+  </si>
+  <si>
+    <t>adj. 雇佣的；唯利是图的</t>
+  </si>
+  <si>
+    <t>paradigmatic</t>
+  </si>
+  <si>
+    <t>adj. 纵聚合关系的；典范的</t>
+  </si>
+  <si>
+    <t>contentious</t>
+  </si>
+  <si>
+    <t>adj. 诉讼的；有异议的，引起争论的；爱争论的</t>
+  </si>
+  <si>
+    <t>bewilder</t>
+  </si>
+  <si>
+    <t>vt. 使迷惑，使不知所措</t>
+  </si>
+  <si>
+    <t>tenuously</t>
+  </si>
+  <si>
+    <t>adv. 微弱地；不确定地</t>
+  </si>
+  <si>
+    <t>apt</t>
+  </si>
+  <si>
+    <t>adj. 恰当的；有…倾向的；灵敏的</t>
+  </si>
+  <si>
+    <t>ingenuous</t>
+  </si>
+  <si>
+    <t>adj. 天真的；坦白的；正直的；朴实的</t>
+  </si>
+  <si>
+    <t>perplexing</t>
+  </si>
+  <si>
+    <t>vt. 使困惑，使为难；使复杂化</t>
+  </si>
+  <si>
+    <t>tainted</t>
+  </si>
+  <si>
+    <t>adj. 污染的；感染的</t>
+  </si>
+  <si>
+    <t>confined</t>
+  </si>
+  <si>
+    <t>adj. 有限制的；封闭的，狭窄的；幽禁的；在分娩中的</t>
+  </si>
+  <si>
+    <t>onerous</t>
+  </si>
+  <si>
+    <t>adj. 繁重的；麻烦的；负有义务的；负有法律责任的</t>
+  </si>
+  <si>
+    <t>multifarious</t>
+  </si>
+  <si>
+    <t>adj. 多种的；各式各样的；多方面的；多样性的</t>
+  </si>
+  <si>
+    <t>overt</t>
+  </si>
+  <si>
+    <t>adj. 明显的；公然的；蓄意的</t>
+  </si>
+  <si>
+    <t>exacting</t>
+  </si>
+  <si>
+    <t>adj. 严格的；苛求的；吃力的 v. 逼取；急需（exact的ing形式）</t>
+  </si>
+  <si>
+    <t>pensiveness</t>
+  </si>
+  <si>
+    <t>n. 沉思（pensive的变形）</t>
+  </si>
+  <si>
+    <t>hectic</t>
+  </si>
+  <si>
+    <t>adj. 繁忙的，忙乱的</t>
+  </si>
+  <si>
+    <t>despair</t>
+  </si>
+  <si>
+    <t>n. 绝望；令人绝望的人或事</t>
+  </si>
+  <si>
+    <t>irritation</t>
+  </si>
+  <si>
+    <t>n. 刺激；激怒，恼怒，生气；兴奋；令人恼火的事</t>
+  </si>
+  <si>
+    <t>susceptible</t>
+  </si>
+  <si>
+    <t>adj. 易受影响的；易感动的；容许……的</t>
+  </si>
+  <si>
+    <t>fad</t>
+  </si>
+  <si>
+    <t>n. 时尚；一时的爱好；一时流行的狂热</t>
+  </si>
+  <si>
+    <t>fads</t>
+  </si>
+  <si>
+    <t>n. 时尚（fad的复数）</t>
+  </si>
+  <si>
+    <t>averse</t>
+  </si>
+  <si>
+    <t>adj. 反对的；不愿意的</t>
+  </si>
+  <si>
+    <t>empiricism</t>
+  </si>
+  <si>
+    <t>n. 经验主义；经验论</t>
+  </si>
+  <si>
+    <t>utilitarianism</t>
+  </si>
+  <si>
+    <t>n. 功利主义；实用主义</t>
+  </si>
+  <si>
+    <t>irk</t>
+  </si>
+  <si>
+    <t>vt. 使烦恼；使厌倦</t>
+  </si>
+  <si>
+    <t>immerse</t>
+  </si>
+  <si>
+    <t>immersed</t>
+  </si>
+  <si>
+    <t>adj. 浸入的；专注的</t>
+  </si>
+  <si>
+    <t>vt. 沉浸；使陷入</t>
+  </si>
+  <si>
+    <t>tendentiousness</t>
+  </si>
+  <si>
+    <t>n. 有偏见；易引起争议</t>
+  </si>
+  <si>
+    <t>subtlety</t>
+  </si>
+  <si>
+    <t>n. 微妙；敏锐；精明</t>
+  </si>
+  <si>
+    <t>subtle</t>
+  </si>
+  <si>
+    <t>adj. 微妙的；精细的；敏感的；狡猾的；稀薄的</t>
+  </si>
+  <si>
+    <t>discursion</t>
+  </si>
+  <si>
+    <t>n. 离题，跑题</t>
+  </si>
+  <si>
+    <t>exhaustiveness</t>
+  </si>
+  <si>
+    <t>n. 穷尽性；用尽一切</t>
+  </si>
+  <si>
+    <t>obsequiousness</t>
+  </si>
+  <si>
+    <t>n. 谄媚；奉承</t>
+  </si>
+  <si>
+    <t>compliance</t>
+  </si>
+  <si>
+    <t>n. 顺从，服从；符合；屈从；可塑性</t>
+  </si>
+  <si>
+    <t>acquiescence</t>
+  </si>
+  <si>
+    <t>n. 默许；默从</t>
+  </si>
+  <si>
+    <t>condemn</t>
+  </si>
+  <si>
+    <t>vt. 谴责；判刑，定罪；声讨</t>
+  </si>
+  <si>
+    <t>cynicism</t>
+  </si>
+  <si>
+    <t>n. 玩世不恭，愤世嫉俗；犬儒主义；冷嘲热讽</t>
+  </si>
+  <si>
+    <t>veil</t>
+  </si>
+  <si>
+    <t>vt. 遮蔽；掩饰；以面纱遮掩；用帷幕分隔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fervent </t>
+  </si>
+  <si>
+    <t>adj. 热心的；强烈的；炽热的；热烈的</t>
+  </si>
+  <si>
+    <t>discreetly</t>
+  </si>
+  <si>
+    <t>adv. 谨慎地；小心地；不显眼地</t>
+  </si>
+  <si>
+    <t>detestation</t>
+  </si>
+  <si>
+    <t>n. 嫌恶，痛恨，憎恶；令人厌恶的人</t>
+  </si>
+  <si>
+    <t>veneration</t>
+  </si>
+  <si>
+    <t>n. 尊敬；崇拜</t>
+  </si>
+  <si>
+    <t>dispute</t>
+  </si>
+  <si>
+    <t>n. 辩论；争吵；意见不同</t>
+  </si>
+  <si>
+    <t>refute</t>
+  </si>
+  <si>
+    <t>vt. 反驳，驳斥；驳倒</t>
+  </si>
+  <si>
+    <t>sway</t>
+  </si>
+  <si>
+    <t>vt. 影响；统治；使摇动</t>
+  </si>
+  <si>
+    <t>defy</t>
+  </si>
+  <si>
+    <t>vt. 藐视；公然反抗；挑衅；使落空</t>
+  </si>
+  <si>
+    <t>deify</t>
+  </si>
+  <si>
+    <t>vt. 把…奉若神明；把…神化；崇拜</t>
+  </si>
+  <si>
+    <t>encomium</t>
+  </si>
+  <si>
+    <t>n. 赞美，称赞；赞辞</t>
+  </si>
+  <si>
+    <t>coagulation</t>
+  </si>
+  <si>
+    <t>n. 凝固，凝结；凝结物</t>
+  </si>
+  <si>
+    <t>obviate</t>
+  </si>
+  <si>
+    <t>vt. 排除；避免；消除</t>
+  </si>
+  <si>
+    <t>deceptive</t>
+  </si>
+  <si>
+    <t>adj. 欺诈的；迷惑的；虚伪的</t>
+  </si>
+  <si>
+    <t>discretionary</t>
+  </si>
+  <si>
+    <t>adj. 任意的；自由决定的</t>
+  </si>
+  <si>
+    <t>replete</t>
+  </si>
+  <si>
+    <t>adj. 充满的；装满的</t>
+  </si>
+  <si>
+    <t>skirt</t>
+  </si>
+  <si>
+    <t>n. 裙子 vt. 绕过，回避；位于…边缘</t>
+  </si>
+  <si>
+    <t>n. 启示；揭露；出乎意料的事；被揭露的真相</t>
+  </si>
+  <si>
+    <t>distortion</t>
+  </si>
+  <si>
+    <t>n. 变形；[物] 失真；扭曲；曲解</t>
+  </si>
+  <si>
+    <t>revelation</t>
+  </si>
+  <si>
+    <t>stigma</t>
+  </si>
+  <si>
+    <t>n. [植] 柱头；耻辱；污名；烙印；特征</t>
+  </si>
+  <si>
+    <t>blemish</t>
+  </si>
+  <si>
+    <t>n. 瑕疵；污点；缺点</t>
+  </si>
+  <si>
+    <t>inveterate</t>
+  </si>
+  <si>
+    <t>adj. 根深的；积习的；成癖的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> suffocate</t>
+  </si>
+  <si>
+    <t>vi. 受阻，受扼制；窒息</t>
+  </si>
+  <si>
+    <t>acquainted</t>
+  </si>
+  <si>
+    <t>adj. 熟识的；知晓的；有知识的</t>
+  </si>
+  <si>
+    <t>vividly</t>
+  </si>
+  <si>
+    <t>adv. 生动地；强烈地</t>
+  </si>
+  <si>
+    <t>enliven</t>
+  </si>
+  <si>
+    <t>vt. 使活泼；使生动；使有生气，使活跃</t>
+  </si>
+  <si>
+    <t>momentous</t>
+  </si>
+  <si>
+    <t>adj. 重要的；重大的</t>
+  </si>
+  <si>
+    <t>recant</t>
+  </si>
+  <si>
+    <t>vi. 宣布放弃；公开认错 vt. 放弃；撤回</t>
+  </si>
+  <si>
+    <t>oust</t>
+  </si>
+  <si>
+    <t>vt. 驱逐；剥夺；取代</t>
   </si>
 </sst>
 </file>
@@ -2612,10 +3136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD389"/>
+  <dimension ref="A1:XFD480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A360" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B389" sqref="B389"/>
+    <sheetView topLeftCell="A455" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A473" sqref="A473"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5657,6 +6181,734 @@
         <v>734</v>
       </c>
     </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A390" t="s">
+        <v>735</v>
+      </c>
+      <c r="B390" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A391" t="s">
+        <v>737</v>
+      </c>
+      <c r="B391" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A392" t="s">
+        <v>739</v>
+      </c>
+      <c r="B392" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A393" t="s">
+        <v>741</v>
+      </c>
+      <c r="B393" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A394" t="s">
+        <v>743</v>
+      </c>
+      <c r="B394" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A395" t="s">
+        <v>745</v>
+      </c>
+      <c r="B395" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A396" t="s">
+        <v>747</v>
+      </c>
+      <c r="B396" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A397" t="s">
+        <v>749</v>
+      </c>
+      <c r="B397" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A398" t="s">
+        <v>751</v>
+      </c>
+      <c r="B398" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A399" t="s">
+        <v>753</v>
+      </c>
+      <c r="B399" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A400" t="s">
+        <v>755</v>
+      </c>
+      <c r="B400" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A401" t="s">
+        <v>757</v>
+      </c>
+      <c r="B401" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A402" t="s">
+        <v>376</v>
+      </c>
+      <c r="B402" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A403" t="s">
+        <v>759</v>
+      </c>
+      <c r="B403" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A404" t="s">
+        <v>761</v>
+      </c>
+      <c r="B404" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A405" t="s">
+        <v>763</v>
+      </c>
+      <c r="B405" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A406" t="s">
+        <v>765</v>
+      </c>
+      <c r="B406" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A407" t="s">
+        <v>409</v>
+      </c>
+      <c r="B407" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A408" t="s">
+        <v>586</v>
+      </c>
+      <c r="B408" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A409" t="s">
+        <v>767</v>
+      </c>
+      <c r="B409" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A410" t="s">
+        <v>769</v>
+      </c>
+      <c r="B410" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A411" t="s">
+        <v>771</v>
+      </c>
+      <c r="B411" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A412" t="s">
+        <v>773</v>
+      </c>
+      <c r="B412" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A413" t="s">
+        <v>775</v>
+      </c>
+      <c r="B413" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A414" t="s">
+        <v>777</v>
+      </c>
+      <c r="B414" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A415" t="s">
+        <v>779</v>
+      </c>
+      <c r="B415" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A416" t="s">
+        <v>781</v>
+      </c>
+      <c r="B416" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A417" t="s">
+        <v>783</v>
+      </c>
+      <c r="B417" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A418" t="s">
+        <v>785</v>
+      </c>
+      <c r="B418" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A419" t="s">
+        <v>787</v>
+      </c>
+      <c r="B419" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A420" t="s">
+        <v>789</v>
+      </c>
+      <c r="B420" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A421" t="s">
+        <v>791</v>
+      </c>
+      <c r="B421" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A422" t="s">
+        <v>298</v>
+      </c>
+      <c r="B422" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A423" t="s">
+        <v>793</v>
+      </c>
+      <c r="B423" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A424" t="s">
+        <v>795</v>
+      </c>
+      <c r="B424" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A425" t="s">
+        <v>797</v>
+      </c>
+      <c r="B425" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A426" t="s">
+        <v>799</v>
+      </c>
+      <c r="B426" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A427" t="s">
+        <v>801</v>
+      </c>
+      <c r="B427" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A428" t="s">
+        <v>803</v>
+      </c>
+      <c r="B428" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A429" t="s">
+        <v>805</v>
+      </c>
+      <c r="B429" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A430" t="s">
+        <v>807</v>
+      </c>
+      <c r="B430" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A431" t="s">
+        <v>809</v>
+      </c>
+      <c r="B431" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A432" t="s">
+        <v>811</v>
+      </c>
+      <c r="B432" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A433" t="s">
+        <v>815</v>
+      </c>
+      <c r="B433" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A434" t="s">
+        <v>813</v>
+      </c>
+      <c r="B434" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A435" t="s">
+        <v>817</v>
+      </c>
+      <c r="B435" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A436" t="s">
+        <v>819</v>
+      </c>
+      <c r="B436" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A437" t="s">
+        <v>821</v>
+      </c>
+      <c r="B437" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A438" t="s">
+        <v>823</v>
+      </c>
+      <c r="B438" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A439" t="s">
+        <v>826</v>
+      </c>
+      <c r="B439" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A440" t="s">
+        <v>825</v>
+      </c>
+      <c r="B440" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A441" t="s">
+        <v>829</v>
+      </c>
+      <c r="B441" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A442" t="s">
+        <v>831</v>
+      </c>
+      <c r="B442" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A443" t="s">
+        <v>833</v>
+      </c>
+      <c r="B443" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A444" t="s">
+        <v>835</v>
+      </c>
+      <c r="B444" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A445" t="s">
+        <v>837</v>
+      </c>
+      <c r="B445" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A446" t="s">
+        <v>839</v>
+      </c>
+      <c r="B446" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A447" t="s">
+        <v>841</v>
+      </c>
+      <c r="B447" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A448" t="s">
+        <v>843</v>
+      </c>
+      <c r="B448" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A449" t="s">
+        <v>845</v>
+      </c>
+      <c r="B449" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A450" t="s">
+        <v>847</v>
+      </c>
+      <c r="B450" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A451" t="s">
+        <v>849</v>
+      </c>
+      <c r="B451" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A452" t="s">
+        <v>851</v>
+      </c>
+      <c r="B452" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A453" t="s">
+        <v>853</v>
+      </c>
+      <c r="B453" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A454" t="s">
+        <v>855</v>
+      </c>
+      <c r="B454" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A455" t="s">
+        <v>857</v>
+      </c>
+      <c r="B455" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A456" t="s">
+        <v>859</v>
+      </c>
+      <c r="B456" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A457" t="s">
+        <v>861</v>
+      </c>
+      <c r="B457" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A458" t="s">
+        <v>863</v>
+      </c>
+      <c r="B458" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A459" t="s">
+        <v>865</v>
+      </c>
+      <c r="B459" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A460" t="s">
+        <v>867</v>
+      </c>
+      <c r="B460" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A461" t="s">
+        <v>869</v>
+      </c>
+      <c r="B461" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A462" t="s">
+        <v>871</v>
+      </c>
+      <c r="B462" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A463" t="s">
+        <v>873</v>
+      </c>
+      <c r="B463" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A464" t="s">
+        <v>875</v>
+      </c>
+      <c r="B464" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A465" t="s">
+        <v>877</v>
+      </c>
+      <c r="B465" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A466" t="s">
+        <v>879</v>
+      </c>
+      <c r="B466" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A467" t="s">
+        <v>881</v>
+      </c>
+      <c r="B467" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A468" t="s">
+        <v>886</v>
+      </c>
+      <c r="B468" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A469" t="s">
+        <v>884</v>
+      </c>
+      <c r="B469" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A470" t="s">
+        <v>887</v>
+      </c>
+      <c r="B470" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A471" t="s">
+        <v>889</v>
+      </c>
+      <c r="B471" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A472" t="s">
+        <v>891</v>
+      </c>
+      <c r="B472" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A473" t="s">
+        <v>893</v>
+      </c>
+      <c r="B473" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A474" t="s">
+        <v>895</v>
+      </c>
+      <c r="B474" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A475" t="s">
+        <v>897</v>
+      </c>
+      <c r="B475" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A476" t="s">
+        <v>899</v>
+      </c>
+      <c r="B476" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A477" t="s">
+        <v>709</v>
+      </c>
+      <c r="B477" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A478" t="s">
+        <v>901</v>
+      </c>
+      <c r="B478" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A479" t="s">
+        <v>903</v>
+      </c>
+      <c r="B479" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A480" t="s">
+        <v>905</v>
+      </c>
+      <c r="B480" t="s">
+        <v>906</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5665,2297 +6917,3760 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E920BA49-E4B4-47FC-A950-86C5CCE2F1FC}">
-  <dimension ref="A1:B296"/>
+  <dimension ref="A1:B480"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection sqref="A1:B296"/>
+    <sheetView tabSelected="1" topLeftCell="A470" workbookViewId="0">
+      <selection activeCell="B477" sqref="B477"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="12.5234375" customWidth="1"/>
-    <col min="2" max="2" width="58.734375" customWidth="1"/>
+    <col min="2" max="2" width="62.47265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>316</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>450</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>817</v>
+      </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>818</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>260</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>737</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>738</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>701</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>702</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>721</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>722</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>403</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>530</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>491</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>492</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>843</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>844</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>264</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B14" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>403</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>275</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>452</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>453</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>295</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>801</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>802</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>258</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>194</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>826</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>827</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" t="s">
-        <v>44</v>
-      </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>490</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>464</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>531</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>532</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>697</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>698</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>420</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>421</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>171</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>833</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>834</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>468</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>469</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>735</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>736</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>572</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>573</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>590</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>591</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>484</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>485</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>210</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>217</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>891</v>
+      </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>892</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>743</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>744</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>815</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>816</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>649</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>650</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>84</v>
+        <v>767</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>768</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>86</v>
+        <v>777</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>778</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" t="s">
-        <v>88</v>
-      </c>
       <c r="B47" t="s">
-        <v>89</v>
+        <v>313</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>90</v>
+        <v>181</v>
       </c>
       <c r="B48" t="s">
-        <v>91</v>
+        <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" t="s">
+        <v>330</v>
+      </c>
       <c r="B49" t="s">
-        <v>92</v>
+        <v>331</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>646</v>
       </c>
       <c r="B50" t="s">
-        <v>94</v>
+        <v>647</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>95</v>
+        <v>553</v>
       </c>
       <c r="B51" t="s">
-        <v>96</v>
+        <v>554</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>97</v>
+        <v>183</v>
       </c>
       <c r="B52" t="s">
-        <v>98</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>614</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>102</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>274</v>
+        <v>574</v>
+      </c>
+      <c r="B55" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>103</v>
+        <v>167</v>
       </c>
       <c r="B56" t="s">
-        <v>104</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" t="s">
+        <v>434</v>
+      </c>
       <c r="B57" t="s">
-        <v>105</v>
+        <v>435</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>108</v>
+        <v>376</v>
       </c>
       <c r="B58" t="s">
-        <v>242</v>
+        <v>377</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>109</v>
+        <v>448</v>
       </c>
       <c r="B59" t="s">
-        <v>110</v>
+        <v>449</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>111</v>
+        <v>338</v>
       </c>
       <c r="B60" t="s">
-        <v>112</v>
+        <v>339</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>113</v>
+        <v>857</v>
       </c>
       <c r="B61" t="s">
-        <v>114</v>
+        <v>858</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" t="s">
-        <v>115</v>
-      </c>
       <c r="B62" t="s">
-        <v>116</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>117</v>
+        <v>899</v>
       </c>
       <c r="B63" t="s">
-        <v>118</v>
+        <v>900</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>119</v>
+        <v>498</v>
       </c>
       <c r="B64" t="s">
-        <v>120</v>
+        <v>499</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" t="s">
+        <v>486</v>
+      </c>
       <c r="B65" t="s">
-        <v>121</v>
+        <v>487</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>122</v>
+        <v>432</v>
       </c>
       <c r="B66" t="s">
-        <v>123</v>
+        <v>433</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>124</v>
+        <v>364</v>
       </c>
       <c r="B67" t="s">
-        <v>125</v>
+        <v>365</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" t="s">
-        <v>128</v>
-      </c>
       <c r="B69" t="s">
-        <v>129</v>
+        <v>648</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" t="s">
-        <v>130</v>
-      </c>
       <c r="B70" t="s">
-        <v>131</v>
+        <v>495</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
-        <v>132</v>
+        <v>493</v>
       </c>
       <c r="B71" t="s">
-        <v>134</v>
+        <v>494</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
-        <v>133</v>
+        <v>380</v>
       </c>
       <c r="B72" t="s">
-        <v>135</v>
+        <v>381</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" t="s">
-        <v>136</v>
-      </c>
       <c r="B73" t="s">
-        <v>137</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" t="s">
-        <v>138</v>
-      </c>
       <c r="B74" t="s">
-        <v>139</v>
+        <v>300</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
-        <v>140</v>
+        <v>280</v>
       </c>
       <c r="B75" t="s">
-        <v>141</v>
+        <v>281</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" t="s">
+        <v>145</v>
+      </c>
       <c r="B76" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
-        <v>143</v>
+        <v>366</v>
       </c>
       <c r="B77" t="s">
-        <v>144</v>
+        <v>367</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
-        <v>145</v>
+        <v>695</v>
       </c>
       <c r="B78" t="s">
-        <v>146</v>
+        <v>696</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
-        <v>147</v>
+        <v>334</v>
       </c>
       <c r="B79" t="s">
-        <v>148</v>
+        <v>335</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
-        <v>149</v>
+        <v>753</v>
       </c>
       <c r="B80" t="s">
-        <v>150</v>
+        <v>754</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
-        <v>151</v>
+        <v>512</v>
       </c>
       <c r="B81" t="s">
-        <v>152</v>
+        <v>513</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="B82" t="s">
-        <v>154</v>
+        <v>49</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
-        <v>155</v>
+        <v>353</v>
       </c>
       <c r="B83" t="s">
-        <v>156</v>
+        <v>354</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
-        <v>157</v>
+        <v>861</v>
       </c>
       <c r="B84" t="s">
-        <v>158</v>
+        <v>862</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
-        <v>159</v>
+        <v>769</v>
       </c>
       <c r="B85" t="s">
-        <v>160</v>
+        <v>770</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
-        <v>161</v>
+        <v>893</v>
       </c>
       <c r="B86" t="s">
-        <v>162</v>
+        <v>894</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
-        <v>171</v>
+        <v>302</v>
       </c>
       <c r="B87" t="s">
-        <v>172</v>
+        <v>303</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
-        <v>163</v>
+        <v>488</v>
       </c>
       <c r="B88" t="s">
-        <v>164</v>
+        <v>489</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
-        <v>165</v>
+        <v>655</v>
       </c>
       <c r="B89" t="s">
-        <v>166</v>
+        <v>656</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
-        <v>167</v>
+        <v>288</v>
       </c>
       <c r="B90" t="s">
-        <v>168</v>
+        <v>289</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
-        <v>169</v>
+        <v>14</v>
       </c>
       <c r="B91" t="s">
-        <v>170</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="B92" t="s">
-        <v>174</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
-        <v>175</v>
+        <v>392</v>
       </c>
       <c r="B93" t="s">
-        <v>176</v>
+        <v>399</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
-        <v>177</v>
+        <v>839</v>
       </c>
       <c r="B94" t="s">
-        <v>178</v>
+        <v>840</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
-        <v>179</v>
+        <v>739</v>
       </c>
       <c r="B95" t="s">
-        <v>180</v>
+        <v>740</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
-        <v>181</v>
+        <v>699</v>
       </c>
       <c r="B96" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
-        <v>183</v>
-      </c>
-      <c r="B97" t="s">
-        <v>184</v>
+        <v>562</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
-        <v>187</v>
+        <v>58</v>
       </c>
       <c r="B98" t="s">
-        <v>188</v>
+        <v>59</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
-        <v>189</v>
+        <v>476</v>
       </c>
       <c r="B99" t="s">
-        <v>190</v>
+        <v>477</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" t="s">
+        <v>831</v>
+      </c>
       <c r="B100" t="s">
-        <v>191</v>
+        <v>832</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
-        <v>192</v>
+        <v>370</v>
       </c>
       <c r="B101" t="s">
-        <v>193</v>
+        <v>371</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
-        <v>194</v>
+        <v>549</v>
       </c>
       <c r="B102" t="s">
-        <v>195</v>
+        <v>550</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
-        <v>196</v>
+        <v>400</v>
       </c>
       <c r="B103" t="s">
-        <v>197</v>
+        <v>401</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
-        <v>198</v>
+        <v>634</v>
       </c>
       <c r="B104" t="s">
-        <v>199</v>
+        <v>635</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
-        <v>200</v>
+        <v>409</v>
       </c>
       <c r="B105" t="s">
-        <v>201</v>
+        <v>410</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
-        <v>202</v>
+        <v>122</v>
       </c>
       <c r="B106" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
-        <v>204</v>
-      </c>
-      <c r="B107" t="s">
-        <v>205</v>
+        <v>454</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" t="s">
+        <v>577</v>
+      </c>
       <c r="B108" t="s">
-        <v>206</v>
+        <v>579</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
-        <v>207</v>
+        <v>368</v>
       </c>
       <c r="B109" t="s">
-        <v>208</v>
+        <v>369</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" t="s">
+        <v>66</v>
+      </c>
       <c r="B110" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
-        <v>210</v>
+        <v>711</v>
       </c>
       <c r="B111" t="s">
-        <v>211</v>
+        <v>712</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B112" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" t="s">
+        <v>8</v>
+      </c>
       <c r="B113" t="s">
-        <v>214</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
-        <v>215</v>
+        <v>56</v>
       </c>
       <c r="B114" t="s">
-        <v>216</v>
+        <v>57</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
-        <v>217</v>
+        <v>761</v>
       </c>
       <c r="B115" t="s">
-        <v>218</v>
+        <v>762</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
-        <v>219</v>
+        <v>502</v>
       </c>
       <c r="B116" t="s">
-        <v>220</v>
+        <v>503</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="B117" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
-        <v>223</v>
+        <v>97</v>
       </c>
       <c r="B118" t="s">
-        <v>224</v>
+        <v>98</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
-        <v>225</v>
+        <v>713</v>
       </c>
       <c r="B119" t="s">
-        <v>226</v>
+        <v>714</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
-        <v>227</v>
+        <v>853</v>
       </c>
       <c r="B120" t="s">
-        <v>228</v>
+        <v>854</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
-        <v>229</v>
+        <v>153</v>
       </c>
       <c r="B121" t="s">
-        <v>230</v>
+        <v>154</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
-        <v>231</v>
+        <v>508</v>
       </c>
       <c r="B122" t="s">
-        <v>232</v>
+        <v>509</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
-        <v>233</v>
+        <v>61</v>
       </c>
       <c r="B123" t="s">
-        <v>234</v>
+        <v>62</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
-        <v>235</v>
+        <v>143</v>
       </c>
       <c r="B124" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
-        <v>237</v>
-      </c>
-      <c r="B125" t="s">
-        <v>238</v>
+        <v>359</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
-        <v>239</v>
+        <v>42</v>
       </c>
       <c r="B126" t="s">
-        <v>240</v>
+        <v>43</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" t="s">
+        <v>560</v>
+      </c>
       <c r="B127" t="s">
-        <v>241</v>
+        <v>561</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
-        <v>243</v>
+        <v>618</v>
       </c>
       <c r="B128" t="s">
-        <v>244</v>
+        <v>619</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
-        <v>245</v>
+        <v>636</v>
       </c>
       <c r="B129" t="s">
-        <v>246</v>
+        <v>637</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
-        <v>247</v>
+        <v>52</v>
       </c>
       <c r="B130" t="s">
-        <v>248</v>
+        <v>53</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
-        <v>251</v>
+        <v>671</v>
       </c>
       <c r="B131" t="s">
-        <v>252</v>
+        <v>672</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
-        <v>249</v>
+        <v>829</v>
       </c>
       <c r="B132" t="s">
-        <v>250</v>
+        <v>830</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
-        <v>253</v>
+        <v>200</v>
       </c>
       <c r="B133" t="s">
-        <v>254</v>
+        <v>201</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" t="s">
+        <v>847</v>
+      </c>
       <c r="B134" t="s">
-        <v>255</v>
+        <v>848</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="B135" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
-        <v>258</v>
+        <v>38</v>
       </c>
       <c r="B136" t="s">
-        <v>259</v>
+        <v>39</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
-        <v>260</v>
+        <v>875</v>
       </c>
       <c r="B137" t="s">
-        <v>261</v>
+        <v>876</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
-        <v>262</v>
+        <v>592</v>
       </c>
       <c r="B138" t="s">
-        <v>263</v>
+        <v>593</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
-        <v>147</v>
+        <v>541</v>
       </c>
       <c r="B139" t="s">
-        <v>148</v>
+        <v>542</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
-        <v>264</v>
+        <v>136</v>
       </c>
       <c r="B140" t="s">
-        <v>265</v>
+        <v>137</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
-        <v>266</v>
+        <v>709</v>
       </c>
       <c r="B141" t="s">
-        <v>267</v>
+        <v>710</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
-        <v>268</v>
+        <v>745</v>
       </c>
       <c r="B142" t="s">
-        <v>269</v>
+        <v>746</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
-        <v>270</v>
+        <v>395</v>
       </c>
       <c r="B143" t="s">
-        <v>271</v>
+        <v>396</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
-        <v>272</v>
+        <v>598</v>
       </c>
       <c r="B144" t="s">
-        <v>273</v>
+        <v>599</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A145" t="s">
-        <v>277</v>
-      </c>
       <c r="B145" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146" t="s">
+        <v>151</v>
+      </c>
       <c r="B146" t="s">
-        <v>279</v>
+        <v>152</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
-        <v>280</v>
+        <v>811</v>
       </c>
       <c r="B147" t="s">
-        <v>281</v>
+        <v>812</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
-        <v>282</v>
+        <v>586</v>
       </c>
       <c r="B148" t="s">
-        <v>283</v>
+        <v>587</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B149" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
-        <v>286</v>
+        <v>612</v>
       </c>
       <c r="B150" t="s">
-        <v>287</v>
+        <v>613</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
-        <v>288</v>
+        <v>444</v>
       </c>
       <c r="B151" t="s">
-        <v>289</v>
+        <v>445</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
-        <v>290</v>
+        <v>903</v>
       </c>
       <c r="B152" t="s">
-        <v>291</v>
+        <v>904</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153" t="s">
+        <v>306</v>
+      </c>
       <c r="B153" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
-        <v>293</v>
+        <v>879</v>
       </c>
       <c r="B154" t="s">
-        <v>294</v>
+        <v>880</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
-        <v>295</v>
+        <v>905</v>
       </c>
       <c r="B155" t="s">
-        <v>296</v>
+        <v>906</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156" t="s">
+        <v>13</v>
+      </c>
       <c r="B156" t="s">
-        <v>297</v>
+        <v>18</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
-        <v>298</v>
+        <v>376</v>
       </c>
       <c r="B157" t="s">
-        <v>299</v>
+        <v>377</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158" t="s">
+        <v>865</v>
+      </c>
       <c r="B158" t="s">
-        <v>300</v>
+        <v>866</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159" t="s">
+        <v>729</v>
+      </c>
       <c r="B159" t="s">
-        <v>301</v>
+        <v>730</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
-        <v>302</v>
+        <v>132</v>
       </c>
       <c r="B160" t="s">
-        <v>303</v>
+        <v>134</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
-        <v>304</v>
+        <v>253</v>
       </c>
       <c r="B161" t="s">
-        <v>305</v>
+        <v>254</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
-        <v>306</v>
+        <v>30</v>
       </c>
       <c r="B162" t="s">
-        <v>307</v>
+        <v>31</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163" t="s">
+        <v>390</v>
+      </c>
       <c r="B163" t="s">
-        <v>308</v>
+        <v>391</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
-        <v>309</v>
+        <v>871</v>
       </c>
       <c r="B164" t="s">
-        <v>310</v>
+        <v>872</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
-        <v>311</v>
+        <v>424</v>
       </c>
       <c r="B165" t="s">
-        <v>312</v>
+        <v>425</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A166" t="s">
+        <v>576</v>
+      </c>
       <c r="B166" t="s">
-        <v>313</v>
+        <v>578</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
-        <v>314</v>
+        <v>651</v>
       </c>
       <c r="B167" t="s">
-        <v>315</v>
+        <v>652</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
-        <v>316</v>
+        <v>430</v>
       </c>
       <c r="B168" t="s">
-        <v>317</v>
+        <v>431</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
-        <v>318</v>
+        <v>460</v>
       </c>
       <c r="B169" t="s">
-        <v>319</v>
+        <v>461</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
-        <v>320</v>
+        <v>657</v>
       </c>
       <c r="B170" t="s">
-        <v>321</v>
+        <v>658</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
-        <v>322</v>
+        <v>783</v>
       </c>
       <c r="B171" t="s">
-        <v>323</v>
+        <v>784</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
-        <v>324</v>
+        <v>374</v>
       </c>
       <c r="B172" t="s">
-        <v>325</v>
+        <v>375</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
-        <v>326</v>
+        <v>851</v>
       </c>
       <c r="B173" t="s">
-        <v>327</v>
+        <v>852</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
-        <v>328</v>
+        <v>78</v>
       </c>
       <c r="B174" t="s">
-        <v>329</v>
+        <v>79</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
-        <v>338</v>
+        <v>793</v>
       </c>
       <c r="B175" t="s">
-        <v>339</v>
+        <v>794</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A176" t="s">
+        <v>679</v>
+      </c>
       <c r="B176" t="s">
-        <v>340</v>
+        <v>680</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
-        <v>330</v>
+        <v>207</v>
       </c>
       <c r="B177" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
-        <v>332</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>333</v>
+        <v>32</v>
+      </c>
+      <c r="B178" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
-        <v>334</v>
+        <v>624</v>
       </c>
       <c r="B179" t="s">
-        <v>335</v>
+        <v>625</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
-        <v>336</v>
+        <v>93</v>
       </c>
       <c r="B180" t="s">
-        <v>337</v>
+        <v>94</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
-        <v>341</v>
+        <v>268</v>
       </c>
       <c r="B181" t="s">
-        <v>342</v>
+        <v>269</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
-        <v>343</v>
+        <v>580</v>
       </c>
       <c r="B182" t="s">
-        <v>344</v>
+        <v>581</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A183" t="s">
-        <v>345</v>
-      </c>
       <c r="B183" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
-        <v>181</v>
+        <v>642</v>
       </c>
       <c r="B184" t="s">
-        <v>182</v>
+        <v>643</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A185" t="s">
-        <v>347</v>
-      </c>
       <c r="B185" t="s">
-        <v>348</v>
+        <v>297</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
-        <v>349</v>
+        <v>877</v>
       </c>
       <c r="B186" t="s">
-        <v>350</v>
+        <v>878</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
-        <v>351</v>
+        <v>886</v>
       </c>
       <c r="B187" t="s">
-        <v>352</v>
+        <v>883</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
-        <v>353</v>
+        <v>869</v>
       </c>
       <c r="B188" t="s">
-        <v>354</v>
+        <v>870</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
-        <v>355</v>
+        <v>496</v>
       </c>
       <c r="B189" t="s">
-        <v>356</v>
+        <v>497</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
-        <v>357</v>
+        <v>272</v>
       </c>
       <c r="B190" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
-        <v>359</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>360</v>
+        <v>620</v>
+      </c>
+      <c r="B191" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
-        <v>361</v>
+        <v>270</v>
       </c>
       <c r="B192" t="s">
-        <v>362</v>
+        <v>271</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A193" t="s">
+        <v>181</v>
+      </c>
       <c r="B193" t="s">
-        <v>363</v>
+        <v>182</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
-        <v>364</v>
+        <v>640</v>
       </c>
       <c r="B194" t="s">
-        <v>365</v>
+        <v>641</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
-        <v>366</v>
+        <v>789</v>
       </c>
       <c r="B195" t="s">
-        <v>367</v>
+        <v>790</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
-        <v>368</v>
+        <v>514</v>
       </c>
       <c r="B196" t="s">
-        <v>369</v>
+        <v>515</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
-        <v>370</v>
+        <v>322</v>
       </c>
       <c r="B197" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
-        <v>372</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>373</v>
+        <v>825</v>
+      </c>
+      <c r="B198" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
-        <v>374</v>
+        <v>606</v>
       </c>
       <c r="B199" t="s">
-        <v>375</v>
+        <v>607</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
-        <v>376</v>
+        <v>813</v>
       </c>
       <c r="B200" t="s">
-        <v>377</v>
+        <v>814</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
-        <v>378</v>
+        <v>731</v>
       </c>
       <c r="B201" t="s">
-        <v>379</v>
+        <v>732</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A202" t="s">
-        <v>380</v>
-      </c>
       <c r="B202" t="s">
-        <v>381</v>
+        <v>206</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
-        <v>382</v>
+        <v>413</v>
       </c>
       <c r="B203" t="s">
-        <v>383</v>
+        <v>414</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A204" t="s">
+        <v>835</v>
+      </c>
       <c r="B204" t="s">
-        <v>384</v>
+        <v>836</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
-        <v>36</v>
+        <v>175</v>
       </c>
       <c r="B205" t="s">
-        <v>385</v>
+        <v>176</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A206" t="s">
+        <v>23</v>
+      </c>
       <c r="B206" t="s">
-        <v>386</v>
+        <v>24</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
-        <v>387</v>
+        <v>588</v>
       </c>
       <c r="B207" t="s">
-        <v>388</v>
+        <v>589</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A208" t="s">
+        <v>662</v>
+      </c>
       <c r="B208" t="s">
-        <v>389</v>
+        <v>663</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
-        <v>390</v>
+        <v>681</v>
       </c>
       <c r="B209" t="s">
-        <v>391</v>
+        <v>682</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
-        <v>392</v>
+        <v>482</v>
       </c>
       <c r="B210" t="s">
-        <v>399</v>
+        <v>483</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A211" t="s">
-        <v>393</v>
-      </c>
       <c r="B211" t="s">
-        <v>394</v>
+        <v>301</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
-        <v>395</v>
+        <v>163</v>
       </c>
       <c r="B212" t="s">
-        <v>396</v>
+        <v>164</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
-        <v>397</v>
+        <v>779</v>
       </c>
       <c r="B213" t="s">
-        <v>398</v>
+        <v>780</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
-        <v>400</v>
+        <v>660</v>
       </c>
       <c r="B214" t="s">
-        <v>401</v>
+        <v>661</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
-        <v>402</v>
+        <v>733</v>
       </c>
       <c r="B215" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A216" t="s">
-        <v>403</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>404</v>
+        <v>734</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B216" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
-        <v>406</v>
+        <v>173</v>
       </c>
       <c r="B217" t="s">
-        <v>407</v>
+        <v>174</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A218" t="s">
+        <v>80</v>
+      </c>
       <c r="B218" t="s">
-        <v>408</v>
+        <v>81</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
-        <v>409</v>
+        <v>82</v>
       </c>
       <c r="B219" t="s">
-        <v>410</v>
+        <v>83</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
-        <v>411</v>
+        <v>204</v>
       </c>
       <c r="B220" t="s">
-        <v>412</v>
+        <v>205</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
-        <v>413</v>
+        <v>765</v>
       </c>
       <c r="B221" t="s">
-        <v>414</v>
+        <v>766</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
-        <v>415</v>
+        <v>759</v>
       </c>
       <c r="B222" t="s">
-        <v>416</v>
+        <v>760</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A223" t="s">
+        <v>179</v>
+      </c>
       <c r="B223" t="s">
-        <v>417</v>
+        <v>180</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
-        <v>295</v>
+        <v>393</v>
       </c>
       <c r="B224" t="s">
-        <v>296</v>
+        <v>394</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
-        <v>418</v>
+        <v>108</v>
       </c>
       <c r="B225" t="s">
-        <v>419</v>
+        <v>242</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
-        <v>420</v>
+        <v>6</v>
       </c>
       <c r="B226" t="s">
-        <v>421</v>
+        <v>7</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A227" t="s">
-        <v>422</v>
-      </c>
       <c r="B227" t="s">
-        <v>423</v>
+        <v>29</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
-        <v>424</v>
+        <v>685</v>
       </c>
       <c r="B228" t="s">
-        <v>425</v>
+        <v>686</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="B229" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B230" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
-        <v>430</v>
+        <v>884</v>
       </c>
       <c r="B231" t="s">
-        <v>431</v>
+        <v>885</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
-        <v>432</v>
+        <v>357</v>
       </c>
       <c r="B232" t="s">
-        <v>433</v>
+        <v>358</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
-        <v>434</v>
+        <v>797</v>
       </c>
       <c r="B233" t="s">
-        <v>435</v>
+        <v>798</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
-        <v>436</v>
+        <v>600</v>
       </c>
       <c r="B234" t="s">
-        <v>437</v>
+        <v>603</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="B235" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="s">
-        <v>440</v>
+        <v>781</v>
       </c>
       <c r="B236" t="s">
-        <v>442</v>
+        <v>782</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="s">
-        <v>441</v>
+        <v>873</v>
       </c>
       <c r="B237" t="s">
-        <v>443</v>
+        <v>874</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="s">
-        <v>444</v>
+        <v>341</v>
       </c>
       <c r="B238" t="s">
-        <v>445</v>
+        <v>342</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="s">
-        <v>446</v>
+        <v>318</v>
       </c>
       <c r="B239" t="s">
-        <v>447</v>
+        <v>319</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="s">
-        <v>448</v>
+        <v>262</v>
       </c>
       <c r="B240" t="s">
-        <v>449</v>
+        <v>263</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="s">
-        <v>450</v>
+        <v>111</v>
       </c>
       <c r="B241" t="s">
-        <v>451</v>
+        <v>112</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="s">
-        <v>452</v>
+        <v>669</v>
       </c>
       <c r="B242" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" t="s">
-        <v>454</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>455</v>
+        <v>528</v>
+      </c>
+      <c r="B243" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" t="s">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="B244" t="s">
-        <v>457</v>
+        <v>481</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" t="s">
-        <v>458</v>
+        <v>382</v>
       </c>
       <c r="B245" t="s">
-        <v>459</v>
+        <v>383</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" t="s">
-        <v>460</v>
+        <v>169</v>
       </c>
       <c r="B246" t="s">
-        <v>461</v>
+        <v>170</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="s">
-        <v>462</v>
+        <v>428</v>
       </c>
       <c r="B247" t="s">
-        <v>463</v>
+        <v>429</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="s">
-        <v>464</v>
+        <v>40</v>
       </c>
       <c r="B248" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="s">
-        <v>466</v>
-      </c>
-      <c r="B249" t="s">
-        <v>467</v>
+        <v>102</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" t="s">
-        <v>468</v>
+        <v>124</v>
       </c>
       <c r="B250" t="s">
-        <v>469</v>
+        <v>125</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="B251" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" t="s">
-        <v>470</v>
+        <v>227</v>
       </c>
       <c r="B252" t="s">
-        <v>471</v>
+        <v>228</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" t="s">
-        <v>472</v>
+        <v>889</v>
       </c>
       <c r="B253" t="s">
-        <v>473</v>
+        <v>890</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" t="s">
-        <v>474</v>
+        <v>235</v>
       </c>
       <c r="B254" t="s">
-        <v>475</v>
+        <v>236</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" t="s">
-        <v>476</v>
+        <v>673</v>
       </c>
       <c r="B255" t="s">
-        <v>477</v>
+        <v>674</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" t="s">
-        <v>478</v>
+        <v>799</v>
       </c>
       <c r="B256" t="s">
-        <v>479</v>
+        <v>800</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A257" t="s">
-        <v>480</v>
-      </c>
       <c r="B257" t="s">
-        <v>481</v>
+        <v>121</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" t="s">
-        <v>482</v>
+        <v>897</v>
       </c>
       <c r="B258" t="s">
-        <v>483</v>
+        <v>898</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" t="s">
-        <v>484</v>
+        <v>610</v>
       </c>
       <c r="B259" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" t="s">
-        <v>486</v>
+        <v>314</v>
       </c>
       <c r="B260" t="s">
-        <v>487</v>
+        <v>315</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" t="s">
-        <v>488</v>
+        <v>717</v>
       </c>
       <c r="B261" t="s">
-        <v>489</v>
+        <v>718</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A262" t="s">
+        <v>683</v>
+      </c>
       <c r="B262" t="s">
-        <v>490</v>
+        <v>684</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" t="s">
-        <v>491</v>
+        <v>298</v>
       </c>
       <c r="B263" t="s">
-        <v>492</v>
+        <v>300</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" t="s">
-        <v>493</v>
+        <v>260</v>
       </c>
       <c r="B264" t="s">
-        <v>494</v>
+        <v>261</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A265" t="s">
+        <v>155</v>
+      </c>
       <c r="B265" t="s">
-        <v>495</v>
+        <v>156</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" t="s">
-        <v>496</v>
+        <v>823</v>
       </c>
       <c r="B266" t="s">
-        <v>497</v>
+        <v>824</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" t="s">
-        <v>498</v>
+        <v>626</v>
       </c>
       <c r="B267" t="s">
-        <v>499</v>
+        <v>627</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" t="s">
-        <v>500</v>
+        <v>537</v>
       </c>
       <c r="B268" t="s">
-        <v>501</v>
+        <v>538</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" t="s">
-        <v>502</v>
+        <v>751</v>
       </c>
       <c r="B269" t="s">
-        <v>503</v>
+        <v>752</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" t="s">
-        <v>504</v>
+        <v>693</v>
       </c>
       <c r="B270" t="s">
-        <v>505</v>
+        <v>694</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" t="s">
-        <v>506</v>
+        <v>632</v>
       </c>
       <c r="B271" t="s">
-        <v>507</v>
+        <v>633</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" t="s">
-        <v>508</v>
+        <v>326</v>
       </c>
       <c r="B272" t="s">
-        <v>509</v>
+        <v>327</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" t="s">
-        <v>510</v>
+        <v>212</v>
       </c>
       <c r="B273" t="s">
-        <v>511</v>
+        <v>213</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" t="s">
-        <v>512</v>
+        <v>807</v>
       </c>
       <c r="B274" t="s">
-        <v>513</v>
+        <v>808</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" t="s">
-        <v>514</v>
+        <v>564</v>
       </c>
       <c r="B275" t="s">
-        <v>515</v>
+        <v>565</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" t="s">
-        <v>516</v>
+        <v>703</v>
       </c>
       <c r="B276" t="s">
-        <v>517</v>
+        <v>704</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" t="s">
-        <v>518</v>
+        <v>726</v>
       </c>
       <c r="B277" t="s">
-        <v>519</v>
+        <v>727</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" t="s">
-        <v>520</v>
+        <v>115</v>
       </c>
       <c r="B278" t="s">
-        <v>521</v>
+        <v>116</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" t="s">
-        <v>522</v>
+        <v>343</v>
       </c>
       <c r="B279" t="s">
-        <v>523</v>
+        <v>344</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="B280" t="s">
-        <v>525</v>
+        <v>546</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" t="s">
-        <v>526</v>
+        <v>596</v>
       </c>
       <c r="B281" t="s">
-        <v>527</v>
+        <v>597</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" t="s">
-        <v>528</v>
+        <v>775</v>
       </c>
       <c r="B282" t="s">
-        <v>529</v>
+        <v>776</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="B283" t="s">
-        <v>530</v>
+        <v>419</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" t="s">
-        <v>531</v>
+        <v>36</v>
       </c>
       <c r="B284" t="s">
-        <v>532</v>
+        <v>385</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A285" t="s">
-        <v>533</v>
-      </c>
       <c r="B285" t="s">
-        <v>534</v>
+        <v>209</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" t="s">
-        <v>535</v>
+        <v>349</v>
       </c>
       <c r="B286" t="s">
-        <v>536</v>
+        <v>350</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" t="s">
-        <v>537</v>
+        <v>231</v>
       </c>
       <c r="B287" t="s">
-        <v>538</v>
+        <v>232</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" t="s">
-        <v>539</v>
+        <v>243</v>
       </c>
       <c r="B288" t="s">
-        <v>540</v>
+        <v>244</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" t="s">
-        <v>395</v>
+        <v>771</v>
       </c>
       <c r="B289" t="s">
-        <v>396</v>
+        <v>772</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A290" t="s">
-        <v>541</v>
-      </c>
       <c r="B290" t="s">
-        <v>542</v>
+        <v>191</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" t="s">
-        <v>543</v>
+        <v>719</v>
       </c>
       <c r="B291" t="s">
-        <v>544</v>
+        <v>720</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" t="s">
-        <v>547</v>
+        <v>109</v>
       </c>
       <c r="B292" t="s">
-        <v>548</v>
+        <v>110</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" t="s">
-        <v>545</v>
+        <v>667</v>
       </c>
       <c r="B293" t="s">
-        <v>546</v>
+        <v>668</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="B294" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" t="s">
-        <v>551</v>
+        <v>749</v>
       </c>
       <c r="B295" t="s">
-        <v>552</v>
+        <v>750</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" t="s">
+        <v>221</v>
+      </c>
+      <c r="B296" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A297" t="s">
+        <v>705</v>
+      </c>
+      <c r="B297" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A298" t="s">
+        <v>436</v>
+      </c>
+      <c r="B298" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A299" t="s">
+        <v>474</v>
+      </c>
+      <c r="B299" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B300" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A301" t="s">
+        <v>795</v>
+      </c>
+      <c r="B301" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A302" t="s">
+        <v>0</v>
+      </c>
+      <c r="B302" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A303" t="s">
+        <v>387</v>
+      </c>
+      <c r="B303" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A304" t="s">
+        <v>691</v>
+      </c>
+      <c r="B304" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A305" t="s">
+        <v>247</v>
+      </c>
+      <c r="B305" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A306" t="s">
+        <v>785</v>
+      </c>
+      <c r="B306" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A307" t="s">
+        <v>406</v>
+      </c>
+      <c r="B307" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A308" t="s">
+        <v>34</v>
+      </c>
+      <c r="B308" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A309" t="s">
+        <v>378</v>
+      </c>
+      <c r="B309" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A310" t="s">
+        <v>415</v>
+      </c>
+      <c r="B310" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A311" t="s">
+        <v>88</v>
+      </c>
+      <c r="B311" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A312" t="s">
+        <v>539</v>
+      </c>
+      <c r="B312" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A313" t="s">
+        <v>202</v>
+      </c>
+      <c r="B313" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A314" t="s">
+        <v>157</v>
+      </c>
+      <c r="B314" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A315" t="s">
+        <v>556</v>
+      </c>
+      <c r="B315" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A316" t="s">
+        <v>277</v>
+      </c>
+      <c r="B316" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A317" t="s">
+        <v>320</v>
+      </c>
+      <c r="B317" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A318" t="s">
+        <v>535</v>
+      </c>
+      <c r="B318" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A319" t="s">
+        <v>130</v>
+      </c>
+      <c r="B319" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A320" t="s">
+        <v>867</v>
+      </c>
+      <c r="B320" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A321" t="s">
+        <v>841</v>
+      </c>
+      <c r="B321" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A322" t="s">
+        <v>665</v>
+      </c>
+      <c r="B322" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A323" t="s">
+        <v>345</v>
+      </c>
+      <c r="B323" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A324" t="s">
+        <v>547</v>
+      </c>
+      <c r="B324" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A325" t="s">
+        <v>709</v>
+      </c>
+      <c r="B325" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A326" t="s">
+        <v>233</v>
+      </c>
+      <c r="B326" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A327" t="s">
+        <v>608</v>
+      </c>
+      <c r="B327" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A328" t="s">
+        <v>126</v>
+      </c>
+      <c r="B328" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A329" t="s">
+        <v>787</v>
+      </c>
+      <c r="B329" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A330" t="s">
+        <v>140</v>
+      </c>
+      <c r="B330" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A331" t="s">
+        <v>304</v>
+      </c>
+      <c r="B331" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A332" t="s">
+        <v>526</v>
+      </c>
+      <c r="B332" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A333" t="s">
+        <v>644</v>
+      </c>
+      <c r="B333" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A334" t="s">
+        <v>628</v>
+      </c>
+      <c r="B334" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B335" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A336" t="s">
+        <v>466</v>
+      </c>
+      <c r="B336" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A337" t="s">
+        <v>336</v>
+      </c>
+      <c r="B337" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A338" t="s">
+        <v>504</v>
+      </c>
+      <c r="B338" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A339" t="s">
+        <v>500</v>
+      </c>
+      <c r="B339" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A340" t="s">
+        <v>36</v>
+      </c>
+      <c r="B340" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A341" t="s">
+        <v>50</v>
+      </c>
+      <c r="B341" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B342" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A343" t="s">
+        <v>855</v>
+      </c>
+      <c r="B343" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B344" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A345" t="s">
+        <v>707</v>
+      </c>
+      <c r="B345" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A346" t="s">
+        <v>293</v>
+      </c>
+      <c r="B346" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A347" t="s">
+        <v>809</v>
+      </c>
+      <c r="B347" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A348" t="s">
+        <v>566</v>
+      </c>
+      <c r="B348" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A349" t="s">
+        <v>147</v>
+      </c>
+      <c r="B349" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A350" t="s">
+        <v>103</v>
+      </c>
+      <c r="B350" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A351" t="s">
+        <v>290</v>
+      </c>
+      <c r="B351" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A352" t="s">
+        <v>324</v>
+      </c>
+      <c r="B352" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A353" t="s">
+        <v>791</v>
+      </c>
+      <c r="B353" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A354" t="s">
+        <v>402</v>
+      </c>
+      <c r="B354" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A355" t="s">
+        <v>46</v>
+      </c>
+      <c r="B355" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A356" t="s">
+        <v>2</v>
+      </c>
+      <c r="B356" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A357" t="s">
+        <v>117</v>
+      </c>
+      <c r="B357" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B358" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A359" t="s">
+        <v>773</v>
+      </c>
+      <c r="B359" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A360" t="s">
+        <v>149</v>
+      </c>
+      <c r="B360" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A361" t="s">
+        <v>630</v>
+      </c>
+      <c r="B361" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B362" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A363" t="s">
+        <v>219</v>
+      </c>
+      <c r="B363" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A364" t="s">
+        <v>763</v>
+      </c>
+      <c r="B364" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A365" t="s">
+        <v>601</v>
+      </c>
+      <c r="B365" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A366" t="s">
+        <v>409</v>
+      </c>
+      <c r="B366" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A367" t="s">
+        <v>192</v>
+      </c>
+      <c r="B367" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A368" t="s">
+        <v>594</v>
+      </c>
+      <c r="B368" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A369" t="s">
+        <v>520</v>
+      </c>
+      <c r="B369" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A370" t="s">
+        <v>147</v>
+      </c>
+      <c r="B370" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A371" t="s">
+        <v>309</v>
+      </c>
+      <c r="B371" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A372" t="s">
+        <v>819</v>
+      </c>
+      <c r="B372" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A373" t="s">
+        <v>506</v>
+      </c>
+      <c r="B373" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A374" t="s">
+        <v>196</v>
+      </c>
+      <c r="B374" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A375" t="s">
+        <v>347</v>
+      </c>
+      <c r="B375" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A376" t="s">
+        <v>653</v>
+      </c>
+      <c r="B376" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A377" t="s">
+        <v>687</v>
+      </c>
+      <c r="B377" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A378" t="s">
+        <v>76</v>
+      </c>
+      <c r="B378" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A379" t="s">
+        <v>741</v>
+      </c>
+      <c r="B379" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A380" t="s">
+        <v>604</v>
+      </c>
+      <c r="B380" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A381" t="s">
+        <v>395</v>
+      </c>
+      <c r="B381" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A382" t="s">
+        <v>251</v>
+      </c>
+      <c r="B382" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A383" t="s">
+        <v>638</v>
+      </c>
+      <c r="B383" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A384" t="s">
+        <v>298</v>
+      </c>
+      <c r="B384" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A385" t="s">
+        <v>470</v>
+      </c>
+      <c r="B385" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A386" t="s">
+        <v>446</v>
+      </c>
+      <c r="B386" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B387" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A388" t="s">
+        <v>27</v>
+      </c>
+      <c r="B388" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B389" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A390" t="s">
+        <v>582</v>
+      </c>
+      <c r="B390" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A391" t="s">
+        <v>725</v>
+      </c>
+      <c r="B391" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A392" t="s">
+        <v>397</v>
+      </c>
+      <c r="B392" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B393" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A394" t="s">
+        <v>74</v>
+      </c>
+      <c r="B394" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A395" t="s">
+        <v>755</v>
+      </c>
+      <c r="B395" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A396" t="s">
+        <v>355</v>
+      </c>
+      <c r="B396" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B397" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A398" t="s">
+        <v>677</v>
+      </c>
+      <c r="B398" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A399" t="s">
+        <v>282</v>
+      </c>
+      <c r="B399" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A400" t="s">
+        <v>441</v>
+      </c>
+      <c r="B400" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A401" t="s">
+        <v>165</v>
+      </c>
+      <c r="B401" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A402" t="s">
+        <v>239</v>
+      </c>
+      <c r="B402" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A403" t="s">
+        <v>887</v>
+      </c>
+      <c r="B403" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A404" t="s">
+        <v>558</v>
+      </c>
+      <c r="B404" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A405" t="s">
+        <v>616</v>
+      </c>
+      <c r="B405" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A406" t="s">
+        <v>295</v>
+      </c>
+      <c r="B406" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B407" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A408" t="s">
+        <v>821</v>
+      </c>
+      <c r="B408" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A409" t="s">
+        <v>119</v>
+      </c>
+      <c r="B409" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A410" t="s">
+        <v>881</v>
+      </c>
+      <c r="B410" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A411" t="s">
+        <v>837</v>
+      </c>
+      <c r="B411" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A412" t="s">
+        <v>256</v>
+      </c>
+      <c r="B412" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A413" t="s">
+        <v>138</v>
+      </c>
+      <c r="B413" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A414" t="s">
+        <v>524</v>
+      </c>
+      <c r="B414" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A415" t="s">
+        <v>161</v>
+      </c>
+      <c r="B415" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A416" t="s">
+        <v>249</v>
+      </c>
+      <c r="B416" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B417" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A418" t="s">
+        <v>462</v>
+      </c>
+      <c r="B418" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A419" t="s">
+        <v>44</v>
+      </c>
+      <c r="B419" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B420" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A421" t="s">
+        <v>68</v>
+      </c>
+      <c r="B421" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A422" t="s">
+        <v>4</v>
+      </c>
+      <c r="B422" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A423" t="s">
+        <v>458</v>
+      </c>
+      <c r="B423" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B424" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A425" t="s">
+        <v>70</v>
+      </c>
+      <c r="B425" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A426" t="s">
+        <v>237</v>
+      </c>
+      <c r="B426" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A427" t="s">
+        <v>223</v>
+      </c>
+      <c r="B427" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A428" t="s">
+        <v>551</v>
+      </c>
+      <c r="B428" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A429" t="s">
+        <v>422</v>
+      </c>
+      <c r="B429" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A430" t="s">
+        <v>675</v>
+      </c>
+      <c r="B430" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A431" t="s">
+        <v>689</v>
+      </c>
+      <c r="B431" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A432" t="s">
+        <v>187</v>
+      </c>
+      <c r="B432" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A433" t="s">
+        <v>229</v>
+      </c>
+      <c r="B433" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A434" t="s">
+        <v>586</v>
+      </c>
+      <c r="B434" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A435" t="s">
+        <v>361</v>
+      </c>
+      <c r="B435" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A436" t="s">
         <v>66</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B436" t="s">
         <v>67</v>
       </c>
     </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A437" t="s">
+        <v>723</v>
+      </c>
+      <c r="B437" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A438" t="s">
+        <v>21</v>
+      </c>
+      <c r="B438" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A439" t="s">
+        <v>543</v>
+      </c>
+      <c r="B439" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A440" t="s">
+        <v>584</v>
+      </c>
+      <c r="B440" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A441" t="s">
+        <v>245</v>
+      </c>
+      <c r="B441" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B442" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A443" t="s">
+        <v>372</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A444" t="s">
+        <v>805</v>
+      </c>
+      <c r="B444" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A445" t="s">
+        <v>90</v>
+      </c>
+      <c r="B445" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A446" t="s">
+        <v>803</v>
+      </c>
+      <c r="B446" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A447" t="s">
+        <v>622</v>
+      </c>
+      <c r="B447" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A448" t="s">
+        <v>311</v>
+      </c>
+      <c r="B448" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A449" t="s">
+        <v>659</v>
+      </c>
+      <c r="B449" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A450" t="s">
+        <v>15</v>
+      </c>
+      <c r="B450" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A451" t="s">
+        <v>849</v>
+      </c>
+      <c r="B451" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A452" t="s">
+        <v>518</v>
+      </c>
+      <c r="B452" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A453" t="s">
+        <v>510</v>
+      </c>
+      <c r="B453" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A454" t="s">
+        <v>747</v>
+      </c>
+      <c r="B454" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A455" t="s">
+        <v>859</v>
+      </c>
+      <c r="B455" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A456" t="s">
+        <v>128</v>
+      </c>
+      <c r="B456" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B457" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A458" t="s">
+        <v>86</v>
+      </c>
+      <c r="B458" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A459" t="s">
+        <v>456</v>
+      </c>
+      <c r="B459" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A460" t="s">
+        <v>715</v>
+      </c>
+      <c r="B460" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A461" t="s">
+        <v>757</v>
+      </c>
+      <c r="B461" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A462" t="s">
+        <v>472</v>
+      </c>
+      <c r="B462" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A463" t="s">
+        <v>901</v>
+      </c>
+      <c r="B463" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A464" t="s">
+        <v>516</v>
+      </c>
+      <c r="B464" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A465" t="s">
+        <v>266</v>
+      </c>
+      <c r="B465" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A466" t="s">
+        <v>100</v>
+      </c>
+      <c r="B466" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A467" t="s">
+        <v>177</v>
+      </c>
+      <c r="B467" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A468" t="s">
+        <v>328</v>
+      </c>
+      <c r="B468" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A469" t="s">
+        <v>845</v>
+      </c>
+      <c r="B469" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A470" t="s">
+        <v>478</v>
+      </c>
+      <c r="B470" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A471" t="s">
+        <v>54</v>
+      </c>
+      <c r="B471" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A472" t="s">
+        <v>284</v>
+      </c>
+      <c r="B472" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A473" t="s">
+        <v>863</v>
+      </c>
+      <c r="B473" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A474" t="s">
+        <v>133</v>
+      </c>
+      <c r="B474" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A475" t="s">
+        <v>522</v>
+      </c>
+      <c r="B475" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A476" t="s">
+        <v>895</v>
+      </c>
+      <c r="B476" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A477" t="s">
+        <v>411</v>
+      </c>
+      <c r="B477" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A478" t="s">
+        <v>159</v>
+      </c>
+      <c r="B478" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A479" t="s">
+        <v>332</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A480" t="s">
+        <v>570</v>
+      </c>
+      <c r="B480" t="s">
+        <v>571</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C480">
+    <sortCondition ref="C479"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Vocab_grabbed_on_the_way.xlsx
+++ b/Vocab_grabbed_on_the_way.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\gre_resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1037B79-0A1A-4215-9908-33D051821585}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E598EC6-0427-4D64-B188-FA336E3283AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="22302" windowHeight="13152" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="21864" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="981">
   <si>
     <t>word</t>
   </si>
@@ -2800,6 +2800,234 @@
   </si>
   <si>
     <t>vt. 驱逐；剥夺；取代</t>
+  </si>
+  <si>
+    <t>didactic</t>
+  </si>
+  <si>
+    <t>adj. 说教的；教诲的</t>
+  </si>
+  <si>
+    <t>proprietary</t>
+  </si>
+  <si>
+    <t>adj. 专卖的，专营的；所有的，所有权的；
+n. 所有权，所有人</t>
+  </si>
+  <si>
+    <t>intransigent</t>
+  </si>
+  <si>
+    <t>adj. 不妥协的；不让步的</t>
+  </si>
+  <si>
+    <t>satirize</t>
+  </si>
+  <si>
+    <t>vt. 讽刺；挖苦</t>
+  </si>
+  <si>
+    <t>abhor</t>
+  </si>
+  <si>
+    <t>vt. 痛恨，憎恶</t>
+  </si>
+  <si>
+    <t>relish</t>
+  </si>
+  <si>
+    <t>n. 享受，乐趣；爱好；吸引力；</t>
+  </si>
+  <si>
+    <t>enchanting</t>
+  </si>
+  <si>
+    <t>adj. 迷人的；妩媚的</t>
+  </si>
+  <si>
+    <t>whereby</t>
+  </si>
+  <si>
+    <t>conj. 凭借；通过…；借以；与…一致</t>
+  </si>
+  <si>
+    <t>flout</t>
+  </si>
+  <si>
+    <t>v. 藐视，无视（规则、法律等）；嘲笑，愚弄</t>
+  </si>
+  <si>
+    <t>intensity</t>
+  </si>
+  <si>
+    <t>n. 强度；强烈；[电子] 亮度；紧张</t>
+  </si>
+  <si>
+    <t>exempt</t>
+  </si>
+  <si>
+    <t>v. 免除，豁免</t>
+  </si>
+  <si>
+    <t>delegate</t>
+  </si>
+  <si>
+    <t>n. 代表，会议代表；委员会成员</t>
+  </si>
+  <si>
+    <t>induce</t>
+  </si>
+  <si>
+    <t>vt. 诱导；引起；引诱；感应</t>
+  </si>
+  <si>
+    <t>ascribe</t>
+  </si>
+  <si>
+    <t>vt. 归因于；归咎于</t>
+  </si>
+  <si>
+    <t>compunction</t>
+  </si>
+  <si>
+    <t>n. 悔恨，后悔；内疚</t>
+  </si>
+  <si>
+    <t>resilience</t>
+  </si>
+  <si>
+    <t>untenable</t>
+  </si>
+  <si>
+    <t>n. 恢复力；弹力；顺应力</t>
+  </si>
+  <si>
+    <t>adj. （论据等）站不住脚的；不能维持的；不能租赁的；难以防守的</t>
+  </si>
+  <si>
+    <t>untamable</t>
+  </si>
+  <si>
+    <t>adj. 不能驯服的；不能制服的</t>
+  </si>
+  <si>
+    <t>subversive</t>
+  </si>
+  <si>
+    <t>adj. 破坏性的；从事颠覆的</t>
+  </si>
+  <si>
+    <t>efficacious</t>
+  </si>
+  <si>
+    <t>adj. 有效的；灵验的</t>
+  </si>
+  <si>
+    <t>flaw</t>
+  </si>
+  <si>
+    <t>n. 瑕疵，缺点；一阵狂风；短暂的风暴；裂缝，裂纹</t>
+  </si>
+  <si>
+    <t>transience</t>
+  </si>
+  <si>
+    <t>n. 短暂；无常；顷刻（等于transiency）</t>
+  </si>
+  <si>
+    <t>deterioration</t>
+  </si>
+  <si>
+    <t>n. 恶化；退化；堕落</t>
+  </si>
+  <si>
+    <t>adduce</t>
+  </si>
+  <si>
+    <t>vt. 举出；引证</t>
+  </si>
+  <si>
+    <t>trifling</t>
+  </si>
+  <si>
+    <t>adj. 微不足道的；轻浮的</t>
+  </si>
+  <si>
+    <t>conspicuous</t>
+  </si>
+  <si>
+    <t>adj. 显著的；显而易见的</t>
+  </si>
+  <si>
+    <t>v. 衰退，衰弱；支吾地说，结巴，（嗓音）颤抖；蹒跚，犹豫，畏缩
+(falter 的现在分词）
+adj. 踌躇的，犹豫的；摇晃的，蹒跚的；不太有效的，不太成功的</t>
+  </si>
+  <si>
+    <t>adj. 无光的；粉化的
+v. 用粉笔写；用白垩粉擦；使变苍白（chalk的过去分词）</t>
+  </si>
+  <si>
+    <t>adj. 安静的；沉着的
+vt. 给…服镇静剂</t>
+  </si>
+  <si>
+    <t>n. [化工] 锈蚀，[化工] 锈污；（印花）白地沾色
+v. 使生锈，沾污（tarnish的现在分词形式）</t>
+  </si>
+  <si>
+    <t>imprudence</t>
+  </si>
+  <si>
+    <t>n. 轻率，鲁莽的行为</t>
+  </si>
+  <si>
+    <t>ubiquity</t>
+  </si>
+  <si>
+    <t>n. 普遍存在；到处存在</t>
+  </si>
+  <si>
+    <t>sterling</t>
+  </si>
+  <si>
+    <t>adj. 优秀的</t>
+  </si>
+  <si>
+    <t>ad hoc</t>
+  </si>
+  <si>
+    <t>adj. 特别的；临时；专设</t>
+  </si>
+  <si>
+    <t>clumsy</t>
+  </si>
+  <si>
+    <t>adj. 笨拙的</t>
+  </si>
+  <si>
+    <t>incompatible</t>
+  </si>
+  <si>
+    <t>adj. 不相容的；矛盾的；不能同时成立的</t>
+  </si>
+  <si>
+    <t>undercut</t>
+  </si>
+  <si>
+    <t>vt. 廉价出售；较便宜的工资工作；从下边削球；削弱；根除</t>
+  </si>
+  <si>
+    <t>inferable</t>
+  </si>
+  <si>
+    <t>adj. 能推论的；能推理的</t>
+  </si>
+  <si>
+    <t>antecedent</t>
+  </si>
+  <si>
+    <t>n. 前情；祖先；（语法）先行词；前件</t>
   </si>
 </sst>
 </file>
@@ -3136,10 +3364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD480"/>
+  <dimension ref="A1:XFD516"/>
   <sheetViews>
-    <sheetView topLeftCell="A455" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A473" sqref="A473"/>
+    <sheetView tabSelected="1" topLeftCell="A496" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B516" sqref="B516"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3254,12 +3482,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>275</v>
+        <v>959</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3520,12 +3748,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>90</v>
       </c>
-      <c r="B48" t="s">
-        <v>91</v>
+      <c r="B48" s="2" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3584,12 +3812,12 @@
         <v>274</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>103</v>
       </c>
-      <c r="B56" t="s">
-        <v>104</v>
+      <c r="B56" s="2" t="s">
+        <v>961</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3645,12 +3873,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>119</v>
       </c>
-      <c r="B64" t="s">
-        <v>120</v>
+      <c r="B64" s="2" t="s">
+        <v>960</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -6907,6 +7135,294 @@
       </c>
       <c r="B480" t="s">
         <v>906</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A481" t="s">
+        <v>907</v>
+      </c>
+      <c r="B481" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A482" t="s">
+        <v>909</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A483" t="s">
+        <v>911</v>
+      </c>
+      <c r="B483" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A484" t="s">
+        <v>913</v>
+      </c>
+      <c r="B484" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A485" t="s">
+        <v>915</v>
+      </c>
+      <c r="B485" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A486" t="s">
+        <v>917</v>
+      </c>
+      <c r="B486" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A487" t="s">
+        <v>919</v>
+      </c>
+      <c r="B487" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A488" t="s">
+        <v>921</v>
+      </c>
+      <c r="B488" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A489" t="s">
+        <v>923</v>
+      </c>
+      <c r="B489" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A490" t="s">
+        <v>925</v>
+      </c>
+      <c r="B490" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A491" t="s">
+        <v>927</v>
+      </c>
+      <c r="B491" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A492" t="s">
+        <v>929</v>
+      </c>
+      <c r="B492" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A493" t="s">
+        <v>931</v>
+      </c>
+      <c r="B493" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A494" t="s">
+        <v>933</v>
+      </c>
+      <c r="B494" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A495" t="s">
+        <v>935</v>
+      </c>
+      <c r="B495" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A496" t="s">
+        <v>937</v>
+      </c>
+      <c r="B496" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A497" t="s">
+        <v>938</v>
+      </c>
+      <c r="B497" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A498" t="s">
+        <v>941</v>
+      </c>
+      <c r="B498" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A499" t="s">
+        <v>943</v>
+      </c>
+      <c r="B499" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A500" t="s">
+        <v>945</v>
+      </c>
+      <c r="B500" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A501" t="s">
+        <v>947</v>
+      </c>
+      <c r="B501" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A502" t="s">
+        <v>949</v>
+      </c>
+      <c r="B502" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A503" t="s">
+        <v>951</v>
+      </c>
+      <c r="B503" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A504" t="s">
+        <v>953</v>
+      </c>
+      <c r="B504" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A505" t="s">
+        <v>545</v>
+      </c>
+      <c r="B505" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A506" t="s">
+        <v>955</v>
+      </c>
+      <c r="B506" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A507" t="s">
+        <v>957</v>
+      </c>
+      <c r="B507" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A508" t="s">
+        <v>963</v>
+      </c>
+      <c r="B508" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A509" t="s">
+        <v>965</v>
+      </c>
+      <c r="B509" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A510" t="s">
+        <v>967</v>
+      </c>
+      <c r="B510" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A511" t="s">
+        <v>969</v>
+      </c>
+      <c r="B511" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A512" t="s">
+        <v>971</v>
+      </c>
+      <c r="B512" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A513" t="s">
+        <v>973</v>
+      </c>
+      <c r="B513" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A514" t="s">
+        <v>975</v>
+      </c>
+      <c r="B514" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A515" t="s">
+        <v>977</v>
+      </c>
+      <c r="B515" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A516" t="s">
+        <v>979</v>
+      </c>
+      <c r="B516" t="s">
+        <v>980</v>
       </c>
     </row>
   </sheetData>
@@ -6919,7 +7435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E920BA49-E4B4-47FC-A950-86C5CCE2F1FC}">
   <dimension ref="A1:B480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A470" workbookViewId="0">
+    <sheetView topLeftCell="A470" workbookViewId="0">
       <selection activeCell="B477" sqref="B477"/>
     </sheetView>
   </sheetViews>

--- a/Vocab_grabbed_on_the_way.xlsx
+++ b/Vocab_grabbed_on_the_way.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\gre_resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FDA44B-356E-473A-8738-DF5907647B73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FDFF87-993A-4A83-83DF-09D60C962CF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="21864" windowHeight="13152" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2125" uniqueCount="1039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2219" uniqueCount="1133">
   <si>
     <t>word</t>
   </si>
@@ -3201,6 +3201,289 @@
   </si>
   <si>
     <t>v. 使糊涂，使迷惑；使昏沉，使昏迷</t>
+  </si>
+  <si>
+    <t>instinct</t>
+  </si>
+  <si>
+    <t>n. 本能，直觉；天性</t>
+  </si>
+  <si>
+    <t>zenith</t>
+  </si>
+  <si>
+    <t>n. 顶峰；顶点；最高点</t>
+  </si>
+  <si>
+    <t>jarring</t>
+  </si>
+  <si>
+    <t>adj. 不和谐的；刺耳的；辗轧的</t>
+  </si>
+  <si>
+    <t>gratifying</t>
+  </si>
+  <si>
+    <t>adj. 悦人的；令人满足的；心满意足的</t>
+  </si>
+  <si>
+    <t>inevitable</t>
+  </si>
+  <si>
+    <t>adj. 必然的，不可避免的</t>
+  </si>
+  <si>
+    <t>teem</t>
+  </si>
+  <si>
+    <t>v. 大量出现；充满；倾注，倾泻</t>
+  </si>
+  <si>
+    <t>roil</t>
+  </si>
+  <si>
+    <t>vt. 搅浑；惹怒 vi. 动荡；喧闹 n. 小股汹涌的急流</t>
+  </si>
+  <si>
+    <t>remuneration</t>
+  </si>
+  <si>
+    <t>n. 报酬；酬劳，赔偿</t>
+  </si>
+  <si>
+    <t>obligate</t>
+  </si>
+  <si>
+    <t>v. （使）负有法律（或道义）责任；以（资产）为担保；（使）感激</t>
+  </si>
+  <si>
+    <t>obligation</t>
+  </si>
+  <si>
+    <t>n. 义务；职责；债务</t>
+  </si>
+  <si>
+    <t>obscure</t>
+  </si>
+  <si>
+    <t>adj. 昏暗的，朦胧的；晦涩的，不清楚的；隐蔽的；不著名的，无名的</t>
+  </si>
+  <si>
+    <t>countermand</t>
+  </si>
+  <si>
+    <t>v. 取消，撤消；下反对命令召回；宣布（选举）无效</t>
+  </si>
+  <si>
+    <t>incommensurate</t>
+  </si>
+  <si>
+    <t>adj. 不适应的；不相称的；不成比例</t>
+  </si>
+  <si>
+    <t>primate</t>
+  </si>
+  <si>
+    <t>primates</t>
+  </si>
+  <si>
+    <t>n. 灵长类</t>
+  </si>
+  <si>
+    <t>n. 灵长目动物（包括人、猴子等）；大主教；首领
+adj. 灵长目动物的；大主教的</t>
+  </si>
+  <si>
+    <t>novelty</t>
+  </si>
+  <si>
+    <t>n. 新奇；新奇的事物；新颖小巧而廉价的物品</t>
+  </si>
+  <si>
+    <t>timelessness</t>
+  </si>
+  <si>
+    <t>n. 永恒，不朽；不受时间影响</t>
+  </si>
+  <si>
+    <t>conjure</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> v. 使想到，使想起，使感受到</t>
+  </si>
+  <si>
+    <t>strip</t>
+  </si>
+  <si>
+    <t>v. 脱去衣服；进行脱衣表演；剥去（外皮）</t>
+  </si>
+  <si>
+    <t>insipid</t>
+  </si>
+  <si>
+    <t>adj. 无味的，清淡的；无趣的，无活力的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gingerbread </t>
+  </si>
+  <si>
+    <t>n. 姜饼；华而不实的装饰 adj. （装饰）华而不实的</t>
+  </si>
+  <si>
+    <t>voluble</t>
+  </si>
+  <si>
+    <t>adj. 健谈的；缠绕的；易旋转的</t>
+  </si>
+  <si>
+    <t>relics</t>
+  </si>
+  <si>
+    <t>n. 遗迹；遗骸；纪念物（relic的复数）</t>
+  </si>
+  <si>
+    <t>relic</t>
+  </si>
+  <si>
+    <t>n. 遗迹，遗物；废墟；纪念物</t>
+  </si>
+  <si>
+    <t>cardinal</t>
+  </si>
+  <si>
+    <t>adj. 主要的，基本的；深红色的</t>
+  </si>
+  <si>
+    <t>persona</t>
+  </si>
+  <si>
+    <t>n. 人物角色；伪装的外表</t>
+  </si>
+  <si>
+    <t>convention</t>
+  </si>
+  <si>
+    <t>n. 大会；[法] 惯例；[计] 约定；[法] 协定；习俗</t>
+  </si>
+  <si>
+    <t>coherent</t>
+  </si>
+  <si>
+    <t>adj. 连贯的，一致的；明了的；清晰的；凝聚性的；互相耦合的；粘在一起的</t>
+  </si>
+  <si>
+    <t>rhetorical</t>
+  </si>
+  <si>
+    <t>adj. 修辞的；修辞学的；夸张的</t>
+  </si>
+  <si>
+    <t>admonish</t>
+  </si>
+  <si>
+    <t>vt. 告诫；劝告</t>
+  </si>
+  <si>
+    <t>pitcher</t>
+  </si>
+  <si>
+    <t>n. 投手；大水罐</t>
+  </si>
+  <si>
+    <t>elicited</t>
+  </si>
+  <si>
+    <t>引出</t>
+  </si>
+  <si>
+    <t>espouse</t>
+  </si>
+  <si>
+    <t>vt. 支持；嫁娶；赞成；信奉</t>
+  </si>
+  <si>
+    <t>loath</t>
+  </si>
+  <si>
+    <t>adj. 勉强的；不情愿的（等于loth）</t>
+  </si>
+  <si>
+    <t>sycophancy</t>
+  </si>
+  <si>
+    <t>n. 谄媚；奉承；追随；拍马屁</t>
+  </si>
+  <si>
+    <t>obeisance</t>
+  </si>
+  <si>
+    <t>n. 敬礼；尊敬</t>
+  </si>
+  <si>
+    <t>pitfall</t>
+  </si>
+  <si>
+    <t>n. 陷阱，圈套；缺陷；诱惑</t>
+  </si>
+  <si>
+    <t>frenzy</t>
+  </si>
+  <si>
+    <t>n. 狂怒，暴怒，狂暴</t>
+  </si>
+  <si>
+    <t>arousal</t>
+  </si>
+  <si>
+    <t>n. 性兴奋；兴奋；唤起，觉醒；激励</t>
+  </si>
+  <si>
+    <t>intellectual</t>
+  </si>
+  <si>
+    <t>adj. 智力的；聪明的；理智的 n. 知识分子；凭理智做事者</t>
+  </si>
+  <si>
+    <t>quiescence</t>
+  </si>
+  <si>
+    <t>n. 静止；沉默</t>
+  </si>
+  <si>
+    <t>turbulence</t>
+  </si>
+  <si>
+    <t>n. 骚乱，动荡；[流] 湍流；狂暴</t>
+  </si>
+  <si>
+    <t>manifest</t>
+  </si>
+  <si>
+    <t>v. 表明，清楚显示（尤指情感、态度或品质）；证明；（病症）显现；（鬼魂或神灵）出现；在清单上记录</t>
+  </si>
+  <si>
+    <t>reveal</t>
+  </si>
+  <si>
+    <t>vt. 显示；透露；揭露；泄露</t>
+  </si>
+  <si>
+    <t>conceal</t>
+  </si>
+  <si>
+    <t>vt. 隐藏；隐瞒</t>
+  </si>
+  <si>
+    <t>rodent</t>
+  </si>
+  <si>
+    <t>n. 啮齿目动物（如老鼠等）</t>
+  </si>
+  <si>
+    <t>convoluted</t>
+  </si>
+  <si>
+    <t>adj. 复杂的；费解的；旋绕的</t>
   </si>
 </sst>
 </file>
@@ -3251,9 +3534,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -7851,15 +8137,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E920BA49-E4B4-47FC-A950-86C5CCE2F1FC}">
-  <dimension ref="A1:B546"/>
+  <dimension ref="A1:B593"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A393" workbookViewId="0">
-      <selection activeCell="B405" sqref="B405"/>
+    <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
+      <selection activeCell="B593" sqref="B593"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.5234375" customWidth="1"/>
+    <col min="1" max="1" width="14.7890625" customWidth="1"/>
     <col min="2" max="2" width="62.47265625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12127,6 +12413,382 @@
       </c>
       <c r="B546" t="s">
         <v>718</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A547" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B547" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A548" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B548" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A549" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B549" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A550" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B550" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A551" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B551" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A552" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B552" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A553" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B553" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A554" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B554" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A555" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B555" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A556" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B556" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A557" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B557" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A558" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B558" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A559" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B559" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A560" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B560" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A561" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B561" s="2" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A562" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B562" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A563" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B563" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A564" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B564" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A565" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B565" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A566" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B566" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A567" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B567" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A568" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B568" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A569" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B569" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A570" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B570" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A571" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B571" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A572" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B572" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A573" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B573" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A574" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B574" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A575" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B575" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A576" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B576" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A577" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B577" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A578" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B578" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A579" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B579" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A580" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B580" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A581" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B581" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A582" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B582" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A583" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B583" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A584" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B584" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A585" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B585" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A586" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B586" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A587" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B587" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A588" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B588" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A589" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B589" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A590" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B590" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A591" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B591" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A592" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B592" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A593" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B593" t="s">
+        <v>1132</v>
       </c>
     </row>
   </sheetData>
